--- a/PMS/Project Outputs for PMS/PMS.xlsx
+++ b/PMS/Project Outputs for PMS/PMS.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pr3de\Documents\MASA\2020-21-PCBs\PMS\Project Outputs for PMS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A94582DE-88CE-4C03-80EC-1E54BCF66FD5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{09F85F95-757C-47AC-A0A9-29CA7DE5A603}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1170" yWindow="1170" windowWidth="21600" windowHeight="11385" xr2:uid="{2F34D2FC-3F9B-47D5-95E8-2ADA96D4C556}"/>
+    <workbookView xWindow="1170" yWindow="1170" windowWidth="21600" windowHeight="11385" xr2:uid="{83E76EA8-8BFA-4F0A-B1D8-DC01FD534D76}"/>
   </bookViews>
   <sheets>
     <sheet name="PMS" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="740" uniqueCount="342">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="759" uniqueCount="337">
   <si>
     <t>Line #</t>
   </si>
@@ -87,363 +87,348 @@
     <t/>
   </si>
   <si>
+    <t>Cap</t>
+  </si>
+  <si>
+    <t>Capacitor</t>
+  </si>
+  <si>
+    <t>C1, C2, C8, C13, C15, C40, C47, C54, C76</t>
+  </si>
+  <si>
+    <t>1608[0603]</t>
+  </si>
+  <si>
+    <t>NP</t>
+  </si>
+  <si>
+    <t>C3, C4, C5, C6, C22, C23, C24, C34, C36, C59, C60, C61, C63, C64, C65, C66, C68, C69, C70, C160, C162, C163, C165, C166, C168</t>
+  </si>
+  <si>
+    <t>0402-A</t>
+  </si>
+  <si>
+    <t>100nF</t>
+  </si>
+  <si>
+    <t>Murata</t>
+  </si>
+  <si>
+    <t>GRM155R71H104KE14J</t>
+  </si>
+  <si>
+    <t>New Product</t>
+  </si>
+  <si>
+    <t>Digi-Key</t>
+  </si>
+  <si>
+    <t>490-13342-6-ND</t>
+  </si>
+  <si>
+    <t>C7, C14, C31</t>
+  </si>
+  <si>
+    <t>47nF</t>
+  </si>
+  <si>
+    <t>GRM155R71H473KE14D</t>
+  </si>
+  <si>
+    <t>Volume Production</t>
+  </si>
+  <si>
+    <t>490-10702-6-ND</t>
+  </si>
+  <si>
+    <t>C9, C16, C50</t>
+  </si>
+  <si>
+    <t>15nF</t>
+  </si>
+  <si>
+    <t>GCM155R71H153KA55D</t>
+  </si>
+  <si>
+    <t>490-11956-6-ND</t>
+  </si>
+  <si>
+    <t>C10</t>
+  </si>
+  <si>
+    <t>3.3nF</t>
+  </si>
+  <si>
+    <t>KEMET</t>
+  </si>
+  <si>
+    <t>C0402C332K5RACTU</t>
+  </si>
+  <si>
+    <t>399-3070-6-ND</t>
+  </si>
+  <si>
+    <t>C11, C12, C19, C20, C21, C26, C27, C32, C33, C41, C48, C55</t>
+  </si>
+  <si>
+    <t>6-0805_M</t>
+  </si>
+  <si>
+    <t>10uF</t>
+  </si>
+  <si>
+    <t>GRM21BR61E106KA73K</t>
+  </si>
+  <si>
+    <t>490-16824-1-ND</t>
+  </si>
+  <si>
+    <t>C17, C18, C25, C29, C30</t>
+  </si>
+  <si>
+    <t>1uF</t>
+  </si>
+  <si>
+    <t>GRM155R61E105KA12D</t>
+  </si>
+  <si>
+    <t>490-10017-1-ND</t>
+  </si>
+  <si>
+    <t>C28</t>
+  </si>
+  <si>
+    <t>2.2uF</t>
+  </si>
+  <si>
+    <t>GRM188R61E225KA12D</t>
+  </si>
+  <si>
+    <t>490-10731-6-ND</t>
+  </si>
+  <si>
+    <t>C35</t>
+  </si>
+  <si>
+    <t>22pF</t>
+  </si>
+  <si>
+    <t>C0402C220K5GACTU</t>
+  </si>
+  <si>
+    <t>399-7775-6-ND</t>
+  </si>
+  <si>
+    <t>C37, C44, C51</t>
+  </si>
+  <si>
+    <t>470nF</t>
+  </si>
+  <si>
+    <t>GRT155R61E474ME01D</t>
+  </si>
+  <si>
+    <t>Arrow Electronics</t>
+  </si>
+  <si>
+    <t>C38, C45, C52</t>
+  </si>
+  <si>
+    <t>C1210</t>
+  </si>
+  <si>
+    <t>100uF</t>
+  </si>
+  <si>
+    <t>GRM32ER61A107ME20K</t>
+  </si>
+  <si>
+    <t>C39, C46, C53</t>
+  </si>
+  <si>
+    <t>3.9nF</t>
+  </si>
+  <si>
+    <t>Samsung</t>
+  </si>
+  <si>
+    <t>CL05B392KB5NNNC</t>
+  </si>
+  <si>
+    <t>C42, C49, C56</t>
+  </si>
+  <si>
+    <t>4.7uF</t>
+  </si>
+  <si>
+    <t>GRM219R61E475KA73D</t>
+  </si>
+  <si>
+    <t>490-12753-1-ND</t>
+  </si>
+  <si>
+    <t>C43</t>
+  </si>
+  <si>
+    <t>22nF</t>
+  </si>
+  <si>
+    <t>Taiyo Yuden</t>
+  </si>
+  <si>
+    <t>TMK105BJ223KV-F</t>
+  </si>
+  <si>
+    <t>C57</t>
+  </si>
+  <si>
+    <t>33nF</t>
+  </si>
+  <si>
+    <t>TMK105BJ333KV-F</t>
+  </si>
+  <si>
+    <t>Mouser</t>
+  </si>
+  <si>
+    <t>963-TMK105BJ333KV-F</t>
+  </si>
+  <si>
+    <t>C62</t>
+  </si>
+  <si>
+    <t>330nF</t>
+  </si>
+  <si>
+    <t>CL21B334KBFNNNE</t>
+  </si>
+  <si>
+    <t>C161, C164</t>
+  </si>
+  <si>
+    <t>1nF</t>
+  </si>
+  <si>
+    <t>Yageo</t>
+  </si>
+  <si>
+    <t>CC0402KRX7R7BB102</t>
+  </si>
+  <si>
+    <t>603-CC402KRX7R7BB102</t>
+  </si>
+  <si>
+    <t>C167</t>
+  </si>
+  <si>
+    <t>680pF</t>
+  </si>
+  <si>
+    <t>CC0402KRX7R9BB681</t>
+  </si>
+  <si>
+    <t>Not Recommended for New Design</t>
+  </si>
+  <si>
+    <t>Future Electronics</t>
+  </si>
+  <si>
+    <t>3979259</t>
+  </si>
+  <si>
+    <t>LED0</t>
+  </si>
+  <si>
+    <t>D1, D2, D3</t>
+  </si>
+  <si>
+    <t>Typical INFRARED GaAs LED</t>
+  </si>
+  <si>
+    <t>D4, D5, D6, D7</t>
+  </si>
+  <si>
+    <t>Rohm</t>
+  </si>
+  <si>
+    <t>SML-D12U1WT86</t>
+  </si>
+  <si>
+    <t>SML-D12U1WT86DKR-ND</t>
+  </si>
+  <si>
+    <t>D Schottky</t>
+  </si>
+  <si>
+    <t>Schottky Diode</t>
+  </si>
+  <si>
+    <t>D8, D9</t>
+  </si>
+  <si>
+    <t>425</t>
+  </si>
+  <si>
+    <t>Infineon</t>
+  </si>
+  <si>
+    <t>BAT60AE6327HTSA1</t>
+  </si>
+  <si>
+    <t>BAT60AE6327HTSA1CT-ND</t>
+  </si>
+  <si>
+    <t>Diode</t>
+  </si>
+  <si>
+    <t>Default Diode</t>
+  </si>
+  <si>
+    <t>D10</t>
+  </si>
+  <si>
+    <t>Diodes</t>
+  </si>
+  <si>
+    <t>SDM2U40CSP-7B</t>
+  </si>
+  <si>
+    <t>SDM2U40CSP-7BDICT-ND</t>
+  </si>
+  <si>
+    <t>Fuse 1</t>
+  </si>
+  <si>
+    <t>Fuse</t>
+  </si>
+  <si>
+    <t>F1</t>
+  </si>
+  <si>
+    <t>Keystone Electronics</t>
+  </si>
+  <si>
+    <t>3557-2</t>
+  </si>
+  <si>
+    <t>36-3557-2-ND</t>
+  </si>
+  <si>
     <t>HSEC8-120-01-L-PV-4-1</t>
   </si>
   <si>
-    <t>*1</t>
+    <t>J1</t>
   </si>
   <si>
     <t>HSEC8-120-01-L-PV-4-1 Gold Fingers</t>
   </si>
   <si>
-    <t>Mouser</t>
-  </si>
-  <si>
-    <t>Cap</t>
-  </si>
-  <si>
-    <t>Capacitor</t>
-  </si>
-  <si>
-    <t>C1</t>
-  </si>
-  <si>
-    <t>1608[0603]</t>
-  </si>
-  <si>
-    <t>680pF</t>
-  </si>
-  <si>
-    <t>Yageo</t>
-  </si>
-  <si>
-    <t>CC0402KRX7R9BB681</t>
-  </si>
-  <si>
-    <t>Not Recommended for New Design</t>
-  </si>
-  <si>
-    <t>Digi-Key</t>
-  </si>
-  <si>
-    <t>311-1030-6-ND</t>
-  </si>
-  <si>
-    <t>C2, C3, C4, C5, C6, C22, C23, C24, C34, C36, C58, C59, C60, C61, C63, C64, C65, C66, C67, C68, C69, C70, C71, C73, C74</t>
-  </si>
-  <si>
-    <t>1608[0603], 0402, RAD-0.3</t>
-  </si>
-  <si>
-    <t>100nF</t>
-  </si>
-  <si>
-    <t>Murata</t>
-  </si>
-  <si>
-    <t>GRM155R71H104KE14J</t>
-  </si>
-  <si>
-    <t>New Product</t>
-  </si>
-  <si>
-    <t>490-13342-6-ND</t>
-  </si>
-  <si>
-    <t>C7, C14, C31</t>
-  </si>
-  <si>
-    <t>0402</t>
-  </si>
-  <si>
-    <t>47nF</t>
-  </si>
-  <si>
-    <t>GRM155R71H473KE14D</t>
-  </si>
-  <si>
-    <t>Volume Production</t>
-  </si>
-  <si>
-    <t>490-10702-6-ND</t>
-  </si>
-  <si>
-    <t>C8, C13, C15, C40, C47, C54, C76, C?</t>
-  </si>
-  <si>
-    <t>1608[0603], RAD-0.3</t>
-  </si>
-  <si>
-    <t>NP</t>
-  </si>
-  <si>
-    <t>GRM188R61E225KA12D</t>
-  </si>
-  <si>
-    <t>490-10731-6-ND</t>
-  </si>
-  <si>
-    <t>C9, C16, C50</t>
-  </si>
-  <si>
-    <t>15nF</t>
-  </si>
-  <si>
-    <t>GCM155R71H153KA55D</t>
-  </si>
-  <si>
-    <t>490-11956-6-ND</t>
-  </si>
-  <si>
-    <t>C10</t>
-  </si>
-  <si>
-    <t>3.3nF</t>
-  </si>
-  <si>
-    <t>KEMET</t>
-  </si>
-  <si>
-    <t>C0402C332K5RACTU</t>
-  </si>
-  <si>
-    <t>399-3070-6-ND</t>
-  </si>
-  <si>
-    <t>C11, C12, C19, C20, C21, C26, C27, C32, C33, C41, C48, C55</t>
-  </si>
-  <si>
-    <t>6-0805_M</t>
-  </si>
-  <si>
-    <t>10uF</t>
-  </si>
-  <si>
-    <t>GRM21BR61E106KA73K</t>
-  </si>
-  <si>
-    <t>490-16824-1-ND</t>
-  </si>
-  <si>
-    <t>C17, C18, C25, C29, C30</t>
-  </si>
-  <si>
-    <t>1uF</t>
-  </si>
-  <si>
-    <t>GRM155R61E105KA12D</t>
-  </si>
-  <si>
-    <t>490-10017-1-ND</t>
-  </si>
-  <si>
-    <t>C28</t>
-  </si>
-  <si>
-    <t>2.2uF</t>
-  </si>
-  <si>
-    <t>C35</t>
-  </si>
-  <si>
-    <t>22pF</t>
-  </si>
-  <si>
-    <t>C0402C220K5GACTU</t>
-  </si>
-  <si>
-    <t>399-7775-6-ND</t>
-  </si>
-  <si>
-    <t>C37, C44, C51</t>
-  </si>
-  <si>
-    <t>0.47uF</t>
-  </si>
-  <si>
-    <t>GRT155R61E474KE01D</t>
-  </si>
-  <si>
-    <t>490-12269-1-ND</t>
-  </si>
-  <si>
-    <t>C38, C45, C52</t>
-  </si>
-  <si>
-    <t>100uF</t>
-  </si>
-  <si>
-    <t>GRM32ER61A107ME20K</t>
-  </si>
-  <si>
-    <t>Arrow Electronics</t>
-  </si>
-  <si>
-    <t>C39, C46, C53</t>
-  </si>
-  <si>
-    <t>3900pF</t>
-  </si>
-  <si>
-    <t>C0402C392K5RACTU</t>
-  </si>
-  <si>
-    <t>399-3071-6-ND</t>
-  </si>
-  <si>
-    <t>C42, C49, C56</t>
-  </si>
-  <si>
-    <t>4.7uF</t>
-  </si>
-  <si>
-    <t>GRM219R61E475KA73D</t>
-  </si>
-  <si>
-    <t>490-12753-1-ND</t>
-  </si>
-  <si>
-    <t>C43</t>
-  </si>
-  <si>
-    <t>0.022uF</t>
-  </si>
-  <si>
-    <t>GRM155R71H223KA12J</t>
-  </si>
-  <si>
-    <t>490-6360-6-ND</t>
-  </si>
-  <si>
-    <t>C57</t>
-  </si>
-  <si>
-    <t>0.033uF</t>
-  </si>
-  <si>
-    <t>GCM155R71H333KE02D</t>
-  </si>
-  <si>
-    <t>81-GCM155R71H333KE2D</t>
-  </si>
-  <si>
-    <t>C62</t>
-  </si>
-  <si>
-    <t>0.33uF</t>
-  </si>
-  <si>
-    <t>CC0603KRX7R8BB334</t>
-  </si>
-  <si>
-    <t>311-3573-6-ND</t>
-  </si>
-  <si>
-    <t>C72, C75</t>
-  </si>
-  <si>
-    <t>RAD-0.3</t>
-  </si>
-  <si>
-    <t>1nF</t>
-  </si>
-  <si>
-    <t>CC0402KRX7R7BB102</t>
-  </si>
-  <si>
-    <t>603-CC402KRX7R7BB102</t>
-  </si>
-  <si>
-    <t>LED0</t>
-  </si>
-  <si>
-    <t>Typical INFRARED GaAs LED</t>
-  </si>
-  <si>
-    <t>D1, D2, D3, D4, D5, D6, D7</t>
-  </si>
-  <si>
-    <t>LED-0, 1608[0603]</t>
-  </si>
-  <si>
-    <t>Rohm</t>
-  </si>
-  <si>
-    <t>SML-D12U1WT86</t>
-  </si>
-  <si>
-    <t>SML-D12U1WT86DKR-ND</t>
-  </si>
-  <si>
-    <t>D Schottky</t>
-  </si>
-  <si>
-    <t>Schottky Diode</t>
-  </si>
-  <si>
-    <t>D8, D9</t>
-  </si>
-  <si>
-    <t>425</t>
-  </si>
-  <si>
-    <t>Infineon</t>
-  </si>
-  <si>
-    <t>BAT60AE6327HTSA1</t>
-  </si>
-  <si>
-    <t>BAT60AE6327HTSA1CT-ND</t>
-  </si>
-  <si>
-    <t>Diode</t>
-  </si>
-  <si>
-    <t>Default Diode</t>
-  </si>
-  <si>
-    <t>D10</t>
-  </si>
-  <si>
-    <t>Diodes</t>
-  </si>
-  <si>
-    <t>SDM2U40CSP-7B</t>
-  </si>
-  <si>
-    <t>SDM2U40CSP-7BDICT-ND</t>
-  </si>
-  <si>
-    <t>Fuse 1</t>
-  </si>
-  <si>
-    <t>Fuse</t>
-  </si>
-  <si>
-    <t>F1</t>
-  </si>
-  <si>
-    <t>PIN-W2/E2.8</t>
-  </si>
-  <si>
-    <t>Keystone Electronics</t>
-  </si>
-  <si>
-    <t>3557-2</t>
-  </si>
-  <si>
-    <t>36-3557-2-ND</t>
-  </si>
-  <si>
     <t>Inductor</t>
   </si>
   <si>
     <t>L1</t>
   </si>
   <si>
-    <t>0402-A</t>
-  </si>
-  <si>
     <t>6.8uH</t>
   </si>
   <si>
@@ -462,12 +447,27 @@
     <t>11uH</t>
   </si>
   <si>
+    <t>Bourns</t>
+  </si>
+  <si>
+    <t>SRR1260-120M</t>
+  </si>
+  <si>
     <t>L3</t>
   </si>
   <si>
     <t>7.5uH</t>
   </si>
   <si>
+    <t>Wurth Electronics</t>
+  </si>
+  <si>
+    <t>744771008</t>
+  </si>
+  <si>
+    <t>732-1207-1-ND</t>
+  </si>
+  <si>
     <t>L4</t>
   </si>
   <si>
@@ -483,6 +483,15 @@
     <t>P1, P2, P3, P4</t>
   </si>
   <si>
+    <t>TE Connectivity</t>
+  </si>
+  <si>
+    <t>2-1445096-2</t>
+  </si>
+  <si>
+    <t>571-2-1445096-2</t>
+  </si>
+  <si>
     <t>Header 3</t>
   </si>
   <si>
@@ -492,6 +501,12 @@
     <t>P5</t>
   </si>
   <si>
+    <t>2-1445050-3</t>
+  </si>
+  <si>
+    <t>571-2-1445050-3</t>
+  </si>
+  <si>
     <t>Header 5</t>
   </si>
   <si>
@@ -501,6 +516,15 @@
     <t>P6</t>
   </si>
   <si>
+    <t>Sullins</t>
+  </si>
+  <si>
+    <t>GRPB051VWVN-RC</t>
+  </si>
+  <si>
+    <t>4544961</t>
+  </si>
+  <si>
     <t>NMOS-2</t>
   </si>
   <si>
@@ -525,36 +549,33 @@
     <t>Resistor</t>
   </si>
   <si>
-    <t>R1, R2, R3</t>
-  </si>
-  <si>
-    <t>AXIAL-0.3</t>
-  </si>
-  <si>
-    <t>1k</t>
-  </si>
-  <si>
-    <t>RC0402FR-071KL</t>
+    <t>R1, R2, R3, R52</t>
+  </si>
+  <si>
+    <t>1608[0603], 0402-A</t>
+  </si>
+  <si>
+    <t>470</t>
+  </si>
+  <si>
+    <t>RC0402FR-07470RL</t>
+  </si>
+  <si>
+    <t>311-470LRDKR-ND</t>
+  </si>
+  <si>
+    <t>R4, R7, R8, R9, R11, R13, R14, R15, R23, R24, R25, R51, R55, R56, R59</t>
+  </si>
+  <si>
+    <t>10k</t>
+  </si>
+  <si>
+    <t>RC0402FR-0710KL</t>
   </si>
   <si>
     <t>Newark</t>
   </si>
   <si>
-    <t>48Y4534</t>
-  </si>
-  <si>
-    <t>R4, R7, R8, R9, R11, R13, R14, R15, R23, R24, R25, R51, R55, R56, R59</t>
-  </si>
-  <si>
-    <t>0402, AXIAL-0.3</t>
-  </si>
-  <si>
-    <t>10k</t>
-  </si>
-  <si>
-    <t>RC0402FR-0710KL</t>
-  </si>
-  <si>
     <t>66R1116</t>
   </si>
   <si>
@@ -567,7 +588,7 @@
     <t>RC0402FR-075K1L</t>
   </si>
   <si>
-    <t>66R1540</t>
+    <t>603-RC0402FR-075K1L</t>
   </si>
   <si>
     <t>R10</t>
@@ -609,9 +630,6 @@
     <t>R18, R45, R58</t>
   </si>
   <si>
-    <t>0402, 1608[0603], AXIAL-0.3</t>
-  </si>
-  <si>
     <t>0</t>
   </si>
   <si>
@@ -669,9 +687,6 @@
     <t>ERJ-2RKF2491X</t>
   </si>
   <si>
-    <t>97W7199</t>
-  </si>
-  <si>
     <t>R26</t>
   </si>
   <si>
@@ -729,9 +744,6 @@
     <t>RC0402FR-07300KL</t>
   </si>
   <si>
-    <t>12AC2073</t>
-  </si>
-  <si>
     <t>Resistor 1%</t>
   </si>
   <si>
@@ -765,13 +777,10 @@
     <t>8.2k</t>
   </si>
   <si>
-    <t>TE Connectivity</t>
-  </si>
-  <si>
     <t>CRGCQ0402F8K2</t>
   </si>
   <si>
-    <t>61AC6388</t>
+    <t>Unknown</t>
   </si>
   <si>
     <t>R40</t>
@@ -783,9 +792,6 @@
     <t>RC0402FR-0773K2L</t>
   </si>
   <si>
-    <t>Future Electronics</t>
-  </si>
-  <si>
     <t>1252327</t>
   </si>
   <si>
@@ -798,9 +804,6 @@
     <t>RC0402FR-074K3L</t>
   </si>
   <si>
-    <t>59M5023</t>
-  </si>
-  <si>
     <t>R44</t>
   </si>
   <si>
@@ -852,18 +855,6 @@
     <t>603-RC0402FR-0760R4L</t>
   </si>
   <si>
-    <t>R52</t>
-  </si>
-  <si>
-    <t>470</t>
-  </si>
-  <si>
-    <t>RC0402FR-07470RL</t>
-  </si>
-  <si>
-    <t>311-470LRDKR-ND</t>
-  </si>
-  <si>
     <t>Res Thermal</t>
   </si>
   <si>
@@ -906,9 +897,6 @@
     <t>RHL0014A</t>
   </si>
   <si>
-    <t>296-29204-6-ND</t>
-  </si>
-  <si>
     <t>BQ29200DRBT</t>
   </si>
   <si>
@@ -951,7 +939,7 @@
     <t>P9221-RAHGI8</t>
   </si>
   <si>
-    <t>56AC6325</t>
+    <t>972-P9221-RAHGI8</t>
   </si>
   <si>
     <t>SN74LVC1T45DBVR</t>
@@ -960,7 +948,7 @@
     <t>Single-Bit Dual-Supply Bus Transceiver with Configurable Voltage Translation and 3-State Outputs, DBV0006A, LARGE T&amp;R</t>
   </si>
   <si>
-    <t>U10, U14</t>
+    <t>U19, U23</t>
   </si>
   <si>
     <t>CMP-0859-00206-3</t>
@@ -978,7 +966,7 @@
     <t>No Description Available</t>
   </si>
   <si>
-    <t>U11</t>
+    <t>U20</t>
   </si>
   <si>
     <t>SOT-323_DIO</t>
@@ -990,7 +978,7 @@
     <t>Stand-Alone CAN Controller With SPI Interface, 18-Pin SOIC, Industrial Temperature</t>
   </si>
   <si>
-    <t>U12</t>
+    <t>U21</t>
   </si>
   <si>
     <t>CMP-0186-00133-2</t>
@@ -1011,7 +999,7 @@
     <t>High-Speed EMC Optimized CAN Transceiver, 70 mA, 5 V, -40 to 125 degC, 8-pin SOIC (D), Green (RoHS &amp; no Sb/Br)</t>
   </si>
   <si>
-    <t>U13</t>
+    <t>U22</t>
   </si>
   <si>
     <t>CMP-0315-00048-2</t>
@@ -1020,7 +1008,7 @@
     <t>D0008A_N</t>
   </si>
   <si>
-    <t>1220984</t>
+    <t>3124667</t>
   </si>
   <si>
     <t>LSM6DSMTR</t>
@@ -1057,9 +1045,6 @@
   </si>
   <si>
     <t>FP-DBZ0003A-MFG</t>
-  </si>
-  <si>
-    <t>Unknown</t>
   </si>
   <si>
     <t>296-TMP235A2DBZRCT-ND</t>
@@ -1444,7 +1429,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97BB193E-26E2-4C83-A6C3-10288393D5B5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50315FF8-B1CA-4296-8416-DC7AF494B874}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -1460,7 +1445,7 @@
     <col min="4" max="4" width="30" customWidth="1"/>
     <col min="5" max="5" width="15.7109375" customWidth="1"/>
     <col min="6" max="6" width="21.28515625" customWidth="1"/>
-    <col min="7" max="7" width="16.5703125" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" customWidth="1"/>
     <col min="8" max="8" width="21" customWidth="1"/>
     <col min="9" max="9" width="16.85546875" customWidth="1"/>
     <col min="10" max="10" width="27.42578125" customWidth="1"/>
@@ -1518,7 +1503,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="45" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>15</v>
       </c>
@@ -1526,117 +1511,117 @@
         <v>16</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E2" s="4"/>
       <c r="F2" s="4">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="H2" s="4"/>
+        <v>19</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>20</v>
+      </c>
       <c r="I2" s="4"/>
       <c r="J2" s="4"/>
       <c r="K2" s="4"/>
-      <c r="L2" s="3" t="s">
-        <v>19</v>
-      </c>
+      <c r="L2" s="4"/>
       <c r="M2" s="4"/>
       <c r="N2" s="4"/>
       <c r="O2" s="4"/>
     </row>
-    <row r="3" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" ht="75" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>15</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C3" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>21</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>22</v>
       </c>
       <c r="E3" s="4"/>
       <c r="F3" s="4">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="G3" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H3" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="I3" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="I3" s="3" t="s">
+      <c r="J3" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="J3" s="3" t="s">
+      <c r="K3" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="K3" s="3" t="s">
+      <c r="L3" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="L3" s="3" t="s">
+      <c r="M3" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="M3" s="3" t="s">
+      <c r="N3" s="4">
+        <v>3.3000000000000002E-2</v>
+      </c>
+      <c r="O3" s="4">
+        <v>0.82499999999999996</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="3" t="s">
         <v>29</v>
-      </c>
-      <c r="N3" s="4">
-        <v>0.1</v>
-      </c>
-      <c r="O3" s="4">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" ht="60" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>30</v>
       </c>
       <c r="E4" s="4"/>
       <c r="F4" s="4">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="G4" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="J4" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="H4" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="I4" s="3" t="s">
+      <c r="K4" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="L4" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="M4" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="J4" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="K4" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="L4" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="M4" s="3" t="s">
-        <v>36</v>
-      </c>
       <c r="N4" s="4">
-        <v>3.5999999999999997E-2</v>
+        <v>2.9000000000000001E-2</v>
       </c>
       <c r="O4" s="4">
-        <v>0.9</v>
+        <v>0.28999999999999998</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
@@ -1644,38 +1629,38 @@
         <v>15</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="E5" s="4"/>
       <c r="F5" s="4">
         <v>3</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="L5" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="M5" s="3" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="N5" s="4">
         <v>0.1</v>
@@ -1684,94 +1669,94 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="6" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>15</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="E6" s="4"/>
       <c r="F6" s="4">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="K6" s="3" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="L6" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="M6" s="3" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="N6" s="4">
-        <v>0.11700000000000001</v>
+        <v>0.1</v>
       </c>
       <c r="O6" s="4">
-        <v>1.17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>15</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="E7" s="4"/>
       <c r="F7" s="4">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="K7" s="3" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="L7" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="M7" s="3" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="N7" s="4">
-        <v>0.1</v>
+        <v>0.157</v>
       </c>
       <c r="O7" s="4">
-        <v>0.3</v>
+        <v>1.88</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
@@ -1779,89 +1764,89 @@
         <v>15</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="E8" s="4"/>
       <c r="F8" s="4">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="I8" s="3" t="s">
-        <v>54</v>
+        <v>24</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="K8" s="3" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="L8" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="M8" s="3" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="N8" s="4">
-        <v>0.1</v>
+        <v>0.11</v>
       </c>
       <c r="O8" s="4">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+        <v>0.55000000000000004</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>15</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="E9" s="4"/>
       <c r="F9" s="4">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>58</v>
+        <v>19</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="I9" s="3" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="K9" s="3" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="L9" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="M9" s="3" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="N9" s="4">
-        <v>0.17199999999999999</v>
+        <v>0.16</v>
       </c>
       <c r="O9" s="4">
-        <v>2.06</v>
+        <v>0.16</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
@@ -1869,269 +1854,269 @@
         <v>15</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="E10" s="4"/>
       <c r="F10" s="4">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="I10" s="3" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="K10" s="3" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="L10" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="M10" s="3" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="N10" s="4">
-        <v>0.12</v>
+        <v>0.1</v>
       </c>
       <c r="O10" s="4">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>15</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="E11" s="4"/>
       <c r="F11" s="4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="I11" s="3" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>46</v>
+        <v>62</v>
       </c>
       <c r="K11" s="3" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="L11" s="3" t="s">
-        <v>28</v>
+        <v>63</v>
       </c>
       <c r="M11" s="3" t="s">
-        <v>47</v>
+        <v>62</v>
       </c>
       <c r="N11" s="4">
-        <v>0.16</v>
+        <v>0.1022</v>
       </c>
       <c r="O11" s="4">
-        <v>0.16</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+        <v>0.30659999999999998</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>15</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="E12" s="4"/>
       <c r="F12" s="4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>38</v>
+        <v>65</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="I12" s="3" t="s">
-        <v>54</v>
+        <v>24</v>
       </c>
       <c r="J12" s="3" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="K12" s="3" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="L12" s="3" t="s">
-        <v>28</v>
+        <v>63</v>
       </c>
       <c r="M12" s="3" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="N12" s="4">
-        <v>0.1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="O12" s="4">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+        <v>3.31</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>15</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="E13" s="4"/>
       <c r="F13" s="4">
         <v>3</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="I13" s="3" t="s">
-        <v>33</v>
+        <v>70</v>
       </c>
       <c r="J13" s="3" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="K13" s="3" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="L13" s="3" t="s">
-        <v>28</v>
+        <v>63</v>
       </c>
       <c r="M13" s="3" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="N13" s="4">
-        <v>0.12</v>
+        <v>5.6599999999999998E-2</v>
       </c>
       <c r="O13" s="4">
-        <v>0.36</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+        <v>0.16980000000000001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>15</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="E14" s="4"/>
       <c r="F14" s="4">
         <v>3</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="I14" s="3" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="J14" s="3" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="K14" s="3" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="L14" s="3" t="s">
-        <v>79</v>
+        <v>27</v>
       </c>
       <c r="M14" s="3" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="N14" s="4">
-        <v>1.1100000000000001</v>
+        <v>0.27</v>
       </c>
       <c r="O14" s="4">
-        <v>3.32</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+        <v>0.81</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>15</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="E15" s="4"/>
       <c r="F15" s="4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="I15" s="3" t="s">
-        <v>54</v>
+        <v>78</v>
       </c>
       <c r="J15" s="3" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="K15" s="3" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="L15" s="3" t="s">
-        <v>28</v>
+        <v>63</v>
       </c>
       <c r="M15" s="3" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="N15" s="4">
-        <v>0.1</v>
+        <v>5.6000000000000001E-2</v>
       </c>
       <c r="O15" s="4">
-        <v>0.3</v>
+        <v>5.6000000000000001E-2</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
@@ -2139,89 +2124,89 @@
         <v>15</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="E16" s="4"/>
       <c r="F16" s="4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>58</v>
+        <v>22</v>
       </c>
       <c r="H16" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="I16" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="J16" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="K16" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="L16" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="M16" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="N16" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="O16" s="4">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D17" s="3" t="s">
         <v>85</v>
-      </c>
-      <c r="I16" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="J16" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="K16" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="L16" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="M16" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="N16" s="4">
-        <v>0.3</v>
-      </c>
-      <c r="O16" s="4">
-        <v>0.9</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A17" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>88</v>
       </c>
       <c r="E17" s="4"/>
       <c r="F17" s="4">
         <v>1</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="I17" s="3" t="s">
-        <v>33</v>
+        <v>70</v>
       </c>
       <c r="J17" s="3" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="K17" s="3" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="L17" s="3" t="s">
-        <v>28</v>
+        <v>63</v>
       </c>
       <c r="M17" s="3" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="N17" s="4">
-        <v>0.1</v>
+        <v>4.8599999999999997E-2</v>
       </c>
       <c r="O17" s="4">
-        <v>0.1</v>
+        <v>4.8599999999999997E-2</v>
       </c>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.25">
@@ -2229,44 +2214,44 @@
         <v>15</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="E18" s="4"/>
       <c r="F18" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="H18" s="3" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="I18" s="3" t="s">
-        <v>33</v>
+        <v>90</v>
       </c>
       <c r="J18" s="3" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="K18" s="3" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="L18" s="3" t="s">
-        <v>19</v>
+        <v>83</v>
       </c>
       <c r="M18" s="3" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="N18" s="4">
-        <v>0.1</v>
+        <v>1.7999999999999999E-2</v>
       </c>
       <c r="O18" s="4">
-        <v>0.1</v>
+        <v>0.18</v>
       </c>
     </row>
     <row r="19" spans="1:15" ht="30" x14ac:dyDescent="0.25">
@@ -2274,44 +2259,44 @@
         <v>15</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="E19" s="4"/>
       <c r="F19" s="4">
         <v>1</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H19" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="I19" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="J19" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="K19" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="L19" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="I19" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="J19" s="3" t="s">
+      <c r="M19" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="K19" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="L19" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="M19" s="3" t="s">
-        <v>99</v>
-      </c>
       <c r="N19" s="4">
-        <v>0.16</v>
+        <v>9.8000000000000004E-2</v>
       </c>
       <c r="O19" s="4">
-        <v>0.16</v>
+        <v>9.8000000000000004E-2</v>
       </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.25">
@@ -2319,87 +2304,71 @@
         <v>15</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>20</v>
+        <v>99</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="D20" s="3" t="s">
         <v>100</v>
       </c>
       <c r="E20" s="4"/>
       <c r="F20" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="H20" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="I20" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="J20" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="K20" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="L20" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="M20" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="N20" s="4">
-        <v>1.7999999999999999E-2</v>
-      </c>
-      <c r="O20" s="4">
-        <v>0.18</v>
-      </c>
+      <c r="H20" s="4"/>
+      <c r="I20" s="4"/>
+      <c r="J20" s="4"/>
+      <c r="K20" s="4"/>
+      <c r="L20" s="4"/>
+      <c r="M20" s="4"/>
+      <c r="N20" s="4"/>
+      <c r="O20" s="4"/>
     </row>
     <row r="21" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>15</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="E21" s="4"/>
       <c r="F21" s="4">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>108</v>
+        <v>19</v>
       </c>
       <c r="H21" s="4"/>
       <c r="I21" s="3" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="J21" s="3" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="K21" s="3" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="L21" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="M21" s="3" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="N21" s="4">
         <v>0.2</v>
       </c>
       <c r="O21" s="4">
-        <v>1.4</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="22" spans="1:15" ht="30" x14ac:dyDescent="0.25">
@@ -2407,36 +2376,36 @@
         <v>15</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="E22" s="4"/>
       <c r="F22" s="4">
         <v>2</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="H22" s="4"/>
       <c r="I22" s="3" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="J22" s="3" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="K22" s="3" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="L22" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="M22" s="3" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="N22" s="4">
         <v>0.46</v>
@@ -2450,36 +2419,36 @@
         <v>15</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="E23" s="4"/>
       <c r="F23" s="4">
         <v>1</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="H23" s="4"/>
       <c r="I23" s="3" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="J23" s="3" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="K23" s="3" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="L23" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="M23" s="3" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="N23" s="4">
         <v>0.41</v>
@@ -2493,36 +2462,36 @@
         <v>15</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="E24" s="4"/>
       <c r="F24" s="4">
         <v>1</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>128</v>
+        <v>15</v>
       </c>
       <c r="H24" s="4"/>
       <c r="I24" s="3" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="J24" s="3" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="K24" s="3" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="L24" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="M24" s="3" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="N24" s="4">
         <v>1.1599999999999999</v>
@@ -2531,201 +2500,259 @@
         <v>1.1599999999999999</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:15" ht="45" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
         <v>15</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>132</v>
+        <v>15</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="E25" s="4"/>
       <c r="F25" s="4">
         <v>1</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="H25" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="I25" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="J25" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="K25" s="3" t="s">
-        <v>41</v>
-      </c>
+        <v>127</v>
+      </c>
+      <c r="H25" s="4"/>
+      <c r="I25" s="4"/>
+      <c r="J25" s="4"/>
+      <c r="K25" s="4"/>
       <c r="L25" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="M25" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="N25" s="4">
-        <v>1.45</v>
-      </c>
-      <c r="O25" s="4">
-        <v>1.45</v>
-      </c>
+        <v>83</v>
+      </c>
+      <c r="M25" s="4"/>
+      <c r="N25" s="4"/>
+      <c r="O25" s="4"/>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
         <v>15</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>139</v>
+        <v>129</v>
       </c>
       <c r="E26" s="4"/>
       <c r="F26" s="4">
         <v>1</v>
       </c>
       <c r="G26" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H26" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="I26" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="J26" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="K26" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="L26" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="M26" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="N26" s="4">
+        <v>1.45</v>
+      </c>
+      <c r="O26" s="4">
+        <v>1.45</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+      <c r="A27" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="D27" s="3" t="s">
         <v>134</v>
-      </c>
-      <c r="H26" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="I26" s="4"/>
-      <c r="J26" s="4"/>
-      <c r="K26" s="4"/>
-      <c r="L26" s="4"/>
-      <c r="M26" s="4"/>
-      <c r="N26" s="4"/>
-      <c r="O26" s="4"/>
-    </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A27" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="C27" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="D27" s="3" t="s">
-        <v>141</v>
       </c>
       <c r="E27" s="4"/>
       <c r="F27" s="4">
         <v>1</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>134</v>
+        <v>15</v>
       </c>
       <c r="H27" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="I27" s="4"/>
-      <c r="J27" s="4"/>
-      <c r="K27" s="4"/>
-      <c r="L27" s="4"/>
-      <c r="M27" s="4"/>
-      <c r="N27" s="4"/>
-      <c r="O27" s="4"/>
+        <v>135</v>
+      </c>
+      <c r="I27" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="J27" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="K27" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="L27" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="M27" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="N27" s="4">
+        <v>0.44619999999999999</v>
+      </c>
+      <c r="O27" s="4">
+        <v>0.44619999999999999</v>
+      </c>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
         <v>15</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="E28" s="4"/>
       <c r="F28" s="4">
         <v>1</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>134</v>
+        <v>15</v>
       </c>
       <c r="H28" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="I28" s="4"/>
-      <c r="J28" s="4"/>
-      <c r="K28" s="4"/>
-      <c r="L28" s="4"/>
-      <c r="M28" s="4"/>
-      <c r="N28" s="4"/>
-      <c r="O28" s="4"/>
-    </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+        <v>139</v>
+      </c>
+      <c r="I28" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="J28" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="K28" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="L28" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="M28" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="N28" s="4">
+        <v>2.12</v>
+      </c>
+      <c r="O28" s="4">
+        <v>2.12</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
         <v>15</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>145</v>
+        <v>128</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>146</v>
+        <v>128</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="E29" s="4"/>
       <c r="F29" s="4">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G29" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="H29" s="4"/>
-      <c r="I29" s="4"/>
-      <c r="J29" s="4"/>
-      <c r="K29" s="4"/>
-      <c r="L29" s="4"/>
-      <c r="M29" s="4"/>
-      <c r="N29" s="4"/>
-      <c r="O29" s="4"/>
+      <c r="H29" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="I29" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="J29" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="K29" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="L29" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="M29" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="N29" s="4">
+        <v>0.44619999999999999</v>
+      </c>
+      <c r="O29" s="4">
+        <v>0.44619999999999999</v>
+      </c>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
         <v>15</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="E30" s="4"/>
       <c r="F30" s="4">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G30" s="3" t="s">
         <v>15</v>
       </c>
       <c r="H30" s="4"/>
-      <c r="I30" s="4"/>
-      <c r="J30" s="4"/>
-      <c r="K30" s="4"/>
-      <c r="L30" s="4"/>
-      <c r="M30" s="4"/>
-      <c r="N30" s="4"/>
-      <c r="O30" s="4"/>
+      <c r="I30" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="J30" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="K30" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="L30" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="M30" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="N30" s="4">
+        <v>1.33</v>
+      </c>
+      <c r="O30" s="4">
+        <v>5.32</v>
+      </c>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
@@ -2748,190 +2775,202 @@
         <v>15</v>
       </c>
       <c r="H31" s="4"/>
-      <c r="I31" s="4"/>
-      <c r="J31" s="4"/>
-      <c r="K31" s="4"/>
-      <c r="L31" s="4"/>
-      <c r="M31" s="4"/>
-      <c r="N31" s="4"/>
-      <c r="O31" s="4"/>
+      <c r="I31" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="J31" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="K31" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="L31" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="M31" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="N31" s="4">
+        <v>0.9</v>
+      </c>
+      <c r="O31" s="4">
+        <v>0.9</v>
+      </c>
     </row>
     <row r="32" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
         <v>15</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="E32" s="4"/>
       <c r="F32" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G32" s="3" t="s">
         <v>15</v>
       </c>
       <c r="H32" s="4"/>
       <c r="I32" s="3" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="J32" s="3" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="K32" s="3" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="L32" s="3" t="s">
-        <v>28</v>
+        <v>97</v>
       </c>
       <c r="M32" s="3" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="N32" s="4">
-        <v>0.56000000000000005</v>
+        <v>0.375</v>
       </c>
       <c r="O32" s="4">
-        <v>1.1200000000000001</v>
-      </c>
-    </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
+        <v>0.375</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
         <v>15</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="E33" s="4"/>
       <c r="F33" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G33" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="H33" s="3" t="s">
-        <v>164</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="H33" s="4"/>
       <c r="I33" s="3" t="s">
-        <v>25</v>
+        <v>165</v>
       </c>
       <c r="J33" s="3" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="K33" s="3" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="L33" s="3" t="s">
-        <v>166</v>
+        <v>27</v>
       </c>
       <c r="M33" s="3" t="s">
         <v>167</v>
       </c>
       <c r="N33" s="4">
-        <v>4.0000000000000001E-3</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="O33" s="4">
-        <v>1.2E-2</v>
-      </c>
-    </row>
-    <row r="34" spans="1:15" ht="45" x14ac:dyDescent="0.25">
+        <v>1.1200000000000001</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
         <v>15</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>160</v>
+        <v>168</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>161</v>
+        <v>169</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="E34" s="4"/>
       <c r="F34" s="4">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="G34" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="H34" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="I34" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="J34" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="K34" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="L34" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="M34" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="N34" s="4">
+        <v>1.4E-2</v>
+      </c>
+      <c r="O34" s="4">
+        <v>0.14000000000000001</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" ht="45" x14ac:dyDescent="0.25">
+      <c r="A35" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="C35" s="3" t="s">
         <v>169</v>
       </c>
-      <c r="H34" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="I34" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="J34" s="3" t="s">
-        <v>171</v>
-      </c>
-      <c r="K34" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="L34" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="M34" s="3" t="s">
-        <v>172</v>
-      </c>
-      <c r="N34" s="4">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="O34" s="4">
-        <v>4.4999999999999998E-2</v>
-      </c>
-    </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A35" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B35" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="C35" s="3" t="s">
-        <v>161</v>
-      </c>
       <c r="D35" s="3" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="E35" s="4"/>
       <c r="F35" s="4">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="G35" s="3" t="s">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="H35" s="3" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="I35" s="3" t="s">
-        <v>25</v>
+        <v>90</v>
       </c>
       <c r="J35" s="3" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="K35" s="3" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="L35" s="3" t="s">
-        <v>166</v>
+        <v>178</v>
       </c>
       <c r="M35" s="3" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="N35" s="4">
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="O35" s="4">
-        <v>8.9999999999999993E-3</v>
+        <v>4.4999999999999998E-2</v>
       </c>
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.25">
@@ -2939,89 +2978,89 @@
         <v>15</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>160</v>
+        <v>168</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>161</v>
+        <v>169</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="E36" s="4"/>
       <c r="F36" s="4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G36" s="3" t="s">
-        <v>58</v>
+        <v>22</v>
       </c>
       <c r="H36" s="3" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="I36" s="3" t="s">
-        <v>179</v>
+        <v>90</v>
       </c>
       <c r="J36" s="3" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="K36" s="3" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="L36" s="3" t="s">
-        <v>28</v>
+        <v>83</v>
       </c>
       <c r="M36" s="3" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="N36" s="4">
-        <v>0.1</v>
+        <v>1.2E-2</v>
       </c>
       <c r="O36" s="4">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
         <v>15</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>160</v>
+        <v>168</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>161</v>
+        <v>169</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="E37" s="4"/>
       <c r="F37" s="4">
         <v>1</v>
       </c>
       <c r="G37" s="3" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="H37" s="3" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="I37" s="3" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="J37" s="3" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="K37" s="3" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="L37" s="3" t="s">
-        <v>79</v>
+        <v>27</v>
       </c>
       <c r="M37" s="3" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="N37" s="4">
-        <v>9.4899999999999998E-2</v>
+        <v>0.1</v>
       </c>
       <c r="O37" s="4">
-        <v>9.4899999999999998E-2</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="38" spans="1:15" ht="30" x14ac:dyDescent="0.25">
@@ -3029,44 +3068,44 @@
         <v>15</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>160</v>
+        <v>168</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>161</v>
+        <v>169</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="E38" s="4"/>
       <c r="F38" s="4">
         <v>1</v>
       </c>
       <c r="G38" s="3" t="s">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="H38" s="3" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="I38" s="3" t="s">
-        <v>25</v>
+        <v>191</v>
       </c>
       <c r="J38" s="3" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="K38" s="3" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="L38" s="3" t="s">
-        <v>79</v>
+        <v>63</v>
       </c>
       <c r="M38" s="3" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="N38" s="4">
-        <v>5.3499999999999999E-2</v>
+        <v>2.23E-2</v>
       </c>
       <c r="O38" s="4">
-        <v>5.3499999999999999E-2</v>
+        <v>2.23E-2</v>
       </c>
     </row>
     <row r="39" spans="1:15" ht="30" x14ac:dyDescent="0.25">
@@ -3074,44 +3113,44 @@
         <v>15</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>160</v>
+        <v>168</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>161</v>
+        <v>169</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="E39" s="4"/>
       <c r="F39" s="4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G39" s="3" t="s">
-        <v>190</v>
+        <v>22</v>
       </c>
       <c r="H39" s="3" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="I39" s="3" t="s">
-        <v>25</v>
+        <v>90</v>
       </c>
       <c r="J39" s="3" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="K39" s="3" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="L39" s="3" t="s">
-        <v>28</v>
+        <v>63</v>
       </c>
       <c r="M39" s="3" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="N39" s="4">
-        <v>1.2E-2</v>
+        <v>5.1499999999999997E-2</v>
       </c>
       <c r="O39" s="4">
-        <v>0.12</v>
+        <v>5.1499999999999997E-2</v>
       </c>
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.25">
@@ -3119,44 +3158,44 @@
         <v>15</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>160</v>
+        <v>168</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>161</v>
+        <v>169</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="E40" s="4"/>
       <c r="F40" s="4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G40" s="3" t="s">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="H40" s="3" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="I40" s="3" t="s">
-        <v>25</v>
+        <v>90</v>
       </c>
       <c r="J40" s="3" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="K40" s="3" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="L40" s="3" t="s">
-        <v>197</v>
+        <v>27</v>
       </c>
       <c r="M40" s="3" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="N40" s="4">
-        <v>9.4089999999999993E-2</v>
+        <v>1.2E-2</v>
       </c>
       <c r="O40" s="4">
-        <v>9.4089999999999993E-2</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.25">
@@ -3164,44 +3203,44 @@
         <v>15</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>160</v>
+        <v>168</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>161</v>
+        <v>169</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="E41" s="4"/>
       <c r="F41" s="4">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="G41" s="3" t="s">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="H41" s="3" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="I41" s="3" t="s">
-        <v>25</v>
+        <v>90</v>
       </c>
       <c r="J41" s="3" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="K41" s="3" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="L41" s="3" t="s">
-        <v>166</v>
+        <v>203</v>
       </c>
       <c r="M41" s="3" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="N41" s="4">
-        <v>4.0000000000000001E-3</v>
+        <v>9.3770000000000006E-2</v>
       </c>
       <c r="O41" s="4">
-        <v>2.4E-2</v>
+        <v>9.3770000000000006E-2</v>
       </c>
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.25">
@@ -3209,44 +3248,44 @@
         <v>15</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>160</v>
+        <v>168</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>161</v>
+        <v>169</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="E42" s="4"/>
       <c r="F42" s="4">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G42" s="3" t="s">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="H42" s="3" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="I42" s="3" t="s">
-        <v>25</v>
+        <v>90</v>
       </c>
       <c r="J42" s="3" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="K42" s="3" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="L42" s="3" t="s">
-        <v>28</v>
+        <v>178</v>
       </c>
       <c r="M42" s="3" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="N42" s="4">
-        <v>1.4E-2</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="O42" s="4">
-        <v>0.14000000000000001</v>
+        <v>2.4E-2</v>
       </c>
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.25">
@@ -3254,44 +3293,44 @@
         <v>15</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>160</v>
+        <v>168</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>161</v>
+        <v>169</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="E43" s="4"/>
       <c r="F43" s="4">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G43" s="3" t="s">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="H43" s="3" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="I43" s="3" t="s">
-        <v>179</v>
+        <v>90</v>
       </c>
       <c r="J43" s="3" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="K43" s="3" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="L43" s="3" t="s">
-        <v>166</v>
+        <v>27</v>
       </c>
       <c r="M43" s="3" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="N43" s="4">
-        <v>3.0000000000000001E-3</v>
+        <v>1.4E-2</v>
       </c>
       <c r="O43" s="4">
-        <v>3.0000000000000001E-3</v>
+        <v>0.14000000000000001</v>
       </c>
     </row>
     <row r="44" spans="1:15" ht="30" x14ac:dyDescent="0.25">
@@ -3299,83 +3338,83 @@
         <v>15</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>160</v>
+        <v>168</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>161</v>
+        <v>169</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="E44" s="4"/>
       <c r="F44" s="4">
         <v>1</v>
       </c>
       <c r="G44" s="3" t="s">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="H44" s="3" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="I44" s="3" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="J44" s="3" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="K44" s="3" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="L44" s="3" t="s">
-        <v>28</v>
+        <v>63</v>
       </c>
       <c r="M44" s="3" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="N44" s="4">
-        <v>0.1</v>
+        <v>2.93E-2</v>
       </c>
       <c r="O44" s="4">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
+        <v>2.93E-2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
         <v>15</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>160</v>
+        <v>168</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>161</v>
+        <v>169</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="E45" s="4"/>
       <c r="F45" s="4">
         <v>1</v>
       </c>
       <c r="G45" s="3" t="s">
-        <v>58</v>
+        <v>22</v>
       </c>
       <c r="H45" s="3" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="I45" s="3" t="s">
-        <v>25</v>
+        <v>191</v>
       </c>
       <c r="J45" s="3" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="K45" s="3" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="L45" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="M45" s="3" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="N45" s="4">
         <v>0.1</v>
@@ -3389,38 +3428,38 @@
         <v>15</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>160</v>
+        <v>168</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>161</v>
+        <v>169</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="E46" s="4"/>
       <c r="F46" s="4">
         <v>1</v>
       </c>
       <c r="G46" s="3" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="H46" s="3" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="I46" s="3" t="s">
-        <v>25</v>
+        <v>90</v>
       </c>
       <c r="J46" s="3" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="K46" s="3" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="L46" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="M46" s="3" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="N46" s="4">
         <v>0.1</v>
@@ -3434,44 +3473,44 @@
         <v>15</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>160</v>
+        <v>168</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>161</v>
+        <v>169</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="E47" s="4"/>
       <c r="F47" s="4">
         <v>1</v>
       </c>
       <c r="G47" s="3" t="s">
-        <v>58</v>
+        <v>22</v>
       </c>
       <c r="H47" s="3" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="I47" s="3" t="s">
-        <v>179</v>
+        <v>90</v>
       </c>
       <c r="J47" s="3" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="K47" s="3" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="L47" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="M47" s="3" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="N47" s="4">
-        <v>0.54</v>
+        <v>0.1</v>
       </c>
       <c r="O47" s="4">
-        <v>0.54</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.25">
@@ -3479,179 +3518,179 @@
         <v>15</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>160</v>
+        <v>168</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>161</v>
+        <v>169</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="E48" s="4"/>
       <c r="F48" s="4">
         <v>1</v>
       </c>
       <c r="G48" s="3" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="H48" s="3" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="I48" s="3" t="s">
-        <v>25</v>
+        <v>186</v>
       </c>
       <c r="J48" s="3" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="K48" s="3" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="L48" s="3" t="s">
-        <v>166</v>
+        <v>27</v>
       </c>
       <c r="M48" s="3" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="N48" s="4">
-        <v>3.0000000000000001E-3</v>
+        <v>0.54</v>
       </c>
       <c r="O48" s="4">
-        <v>3.0000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
+        <v>0.54</v>
+      </c>
+    </row>
+    <row r="49" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
         <v>15</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>160</v>
+        <v>168</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>231</v>
+        <v>169</v>
       </c>
       <c r="D49" s="3" t="s">
         <v>232</v>
       </c>
       <c r="E49" s="4"/>
       <c r="F49" s="4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G49" s="3" t="s">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="H49" s="3" t="s">
-        <v>170</v>
+        <v>233</v>
       </c>
       <c r="I49" s="3" t="s">
-        <v>25</v>
+        <v>90</v>
       </c>
       <c r="J49" s="3" t="s">
-        <v>171</v>
+        <v>234</v>
       </c>
       <c r="K49" s="3" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="L49" s="3" t="s">
-        <v>166</v>
+        <v>63</v>
       </c>
       <c r="M49" s="3" t="s">
-        <v>172</v>
+        <v>234</v>
       </c>
       <c r="N49" s="4">
-        <v>3.0000000000000001E-3</v>
+        <v>5.5300000000000002E-2</v>
       </c>
       <c r="O49" s="4">
-        <v>8.9999999999999993E-3</v>
-      </c>
-    </row>
-    <row r="50" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+        <v>5.5300000000000002E-2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
         <v>15</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>160</v>
+        <v>168</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>161</v>
+        <v>235</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="E50" s="4"/>
       <c r="F50" s="4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G50" s="3" t="s">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="H50" s="3" t="s">
-        <v>234</v>
+        <v>176</v>
       </c>
       <c r="I50" s="3" t="s">
-        <v>25</v>
+        <v>90</v>
       </c>
       <c r="J50" s="3" t="s">
-        <v>235</v>
+        <v>177</v>
       </c>
       <c r="K50" s="3" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="L50" s="3" t="s">
-        <v>79</v>
+        <v>178</v>
       </c>
       <c r="M50" s="3" t="s">
-        <v>235</v>
+        <v>179</v>
       </c>
       <c r="N50" s="4">
-        <v>1.61E-2</v>
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="O50" s="4">
-        <v>1.61E-2</v>
-      </c>
-    </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
+        <v>8.9999999999999993E-3</v>
+      </c>
+    </row>
+    <row r="51" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
         <v>15</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>160</v>
+        <v>168</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>231</v>
+        <v>169</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="E51" s="4"/>
       <c r="F51" s="4">
         <v>1</v>
       </c>
       <c r="G51" s="3" t="s">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="H51" s="3" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="I51" s="3" t="s">
-        <v>179</v>
+        <v>90</v>
       </c>
       <c r="J51" s="3" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="K51" s="3" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="L51" s="3" t="s">
-        <v>166</v>
+        <v>63</v>
       </c>
       <c r="M51" s="3" t="s">
         <v>239</v>
       </c>
       <c r="N51" s="4">
-        <v>1E-3</v>
+        <v>1.6199999999999999E-2</v>
       </c>
       <c r="O51" s="4">
-        <v>1E-3</v>
+        <v>1.6199999999999999E-2</v>
       </c>
     </row>
     <row r="52" spans="1:15" x14ac:dyDescent="0.25">
@@ -3659,10 +3698,10 @@
         <v>15</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>160</v>
+        <v>168</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>161</v>
+        <v>235</v>
       </c>
       <c r="D52" s="3" t="s">
         <v>240</v>
@@ -3672,31 +3711,31 @@
         <v>1</v>
       </c>
       <c r="G52" s="3" t="s">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="H52" s="3" t="s">
         <v>241</v>
       </c>
       <c r="I52" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="J52" s="3" t="s">
         <v>242</v>
       </c>
-      <c r="J52" s="3" t="s">
+      <c r="K52" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="L52" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="M52" s="3" t="s">
         <v>243</v>
       </c>
-      <c r="K52" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="L52" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="M52" s="3" t="s">
-        <v>244</v>
-      </c>
       <c r="N52" s="4">
-        <v>8.9999999999999993E-3</v>
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="O52" s="4">
-        <v>8.9999999999999993E-3</v>
+        <v>3.0000000000000001E-3</v>
       </c>
     </row>
     <row r="53" spans="1:15" ht="30" x14ac:dyDescent="0.25">
@@ -3704,89 +3743,89 @@
         <v>15</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>160</v>
+        <v>168</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>231</v>
+        <v>169</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="E53" s="4"/>
       <c r="F53" s="4">
         <v>1</v>
       </c>
       <c r="G53" s="3" t="s">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="H53" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="I53" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="J53" s="3" t="s">
         <v>246</v>
       </c>
-      <c r="I53" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="J53" s="3" t="s">
+      <c r="K53" s="3" t="s">
         <v>247</v>
       </c>
-      <c r="K53" s="3" t="s">
-        <v>41</v>
-      </c>
       <c r="L53" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="M53" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="N53" s="4">
+        <v>2.1100000000000001E-2</v>
+      </c>
+      <c r="O53" s="4">
+        <v>2.1100000000000001E-2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+      <c r="A54" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B54" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="C54" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="D54" s="3" t="s">
         <v>248</v>
-      </c>
-      <c r="M53" s="3" t="s">
-        <v>249</v>
-      </c>
-      <c r="N53" s="4">
-        <v>9.8000000000000004E-2</v>
-      </c>
-      <c r="O53" s="4">
-        <v>9.8000000000000004E-2</v>
-      </c>
-    </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A54" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B54" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="C54" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="D54" s="3" t="s">
-        <v>250</v>
       </c>
       <c r="E54" s="4"/>
       <c r="F54" s="4">
         <v>1</v>
       </c>
       <c r="G54" s="3" t="s">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="H54" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="I54" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="J54" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="K54" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="L54" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="M54" s="3" t="s">
         <v>251</v>
       </c>
-      <c r="I54" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="J54" s="3" t="s">
-        <v>252</v>
-      </c>
-      <c r="K54" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="L54" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="M54" s="3" t="s">
-        <v>253</v>
-      </c>
       <c r="N54" s="4">
-        <v>0.09</v>
+        <v>9.8000000000000004E-2</v>
       </c>
       <c r="O54" s="4">
-        <v>0.09</v>
+        <v>9.8000000000000004E-2</v>
       </c>
     </row>
     <row r="55" spans="1:15" ht="30" x14ac:dyDescent="0.25">
@@ -3794,89 +3833,89 @@
         <v>15</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>160</v>
+        <v>168</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>231</v>
+        <v>169</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="E55" s="4"/>
       <c r="F55" s="4">
         <v>1</v>
       </c>
       <c r="G55" s="3" t="s">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="H55" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="I55" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="J55" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="K55" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="L55" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="M55" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="N55" s="4">
+        <v>9.5899999999999999E-2</v>
+      </c>
+      <c r="O55" s="4">
+        <v>9.5899999999999999E-2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+      <c r="A56" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B56" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="C56" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="D56" s="3" t="s">
         <v>255</v>
-      </c>
-      <c r="I55" s="3" t="s">
-        <v>179</v>
-      </c>
-      <c r="J55" s="3" t="s">
-        <v>256</v>
-      </c>
-      <c r="K55" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="L55" s="3" t="s">
-        <v>257</v>
-      </c>
-      <c r="M55" s="3" t="s">
-        <v>258</v>
-      </c>
-      <c r="N55" s="4">
-        <v>1.2999999999999999E-2</v>
-      </c>
-      <c r="O55" s="4">
-        <v>1.2999999999999999E-2</v>
-      </c>
-    </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A56" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B56" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="C56" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="D56" s="3" t="s">
-        <v>259</v>
       </c>
       <c r="E56" s="4"/>
       <c r="F56" s="4">
         <v>1</v>
       </c>
       <c r="G56" s="3" t="s">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="H56" s="3" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="I56" s="3" t="s">
-        <v>25</v>
+        <v>186</v>
       </c>
       <c r="J56" s="3" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="K56" s="3" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="L56" s="3" t="s">
-        <v>28</v>
+        <v>258</v>
       </c>
       <c r="M56" s="3" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="N56" s="4">
-        <v>0.1</v>
+        <v>1.2999999999999999E-2</v>
       </c>
       <c r="O56" s="4">
-        <v>0.1</v>
+        <v>1.2999999999999999E-2</v>
       </c>
     </row>
     <row r="57" spans="1:15" x14ac:dyDescent="0.25">
@@ -3884,38 +3923,38 @@
         <v>15</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>160</v>
+        <v>168</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>161</v>
+        <v>169</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="E57" s="4"/>
       <c r="F57" s="4">
         <v>1</v>
       </c>
       <c r="G57" s="3" t="s">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="H57" s="3" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="I57" s="3" t="s">
-        <v>25</v>
+        <v>90</v>
       </c>
       <c r="J57" s="3" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="K57" s="3" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="L57" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="M57" s="3" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="N57" s="4">
         <v>0.1</v>
@@ -3929,44 +3968,44 @@
         <v>15</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>160</v>
+        <v>168</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>161</v>
+        <v>169</v>
       </c>
       <c r="D58" s="3" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="E58" s="4"/>
       <c r="F58" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G58" s="3" t="s">
-        <v>163</v>
+        <v>22</v>
       </c>
       <c r="H58" s="3" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="I58" s="3" t="s">
-        <v>25</v>
+        <v>90</v>
       </c>
       <c r="J58" s="3" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="K58" s="3" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="L58" s="3" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="M58" s="3" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="N58" s="4">
-        <v>1.2E-2</v>
+        <v>0.1</v>
       </c>
       <c r="O58" s="4">
-        <v>0.12</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="59" spans="1:15" x14ac:dyDescent="0.25">
@@ -3974,44 +4013,44 @@
         <v>15</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>160</v>
+        <v>168</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>161</v>
+        <v>169</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="E59" s="4"/>
       <c r="F59" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G59" s="3" t="s">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="H59" s="3" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="I59" s="3" t="s">
-        <v>25</v>
+        <v>90</v>
       </c>
       <c r="J59" s="3" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="K59" s="3" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="L59" s="3" t="s">
-        <v>28</v>
+        <v>83</v>
       </c>
       <c r="M59" s="3" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="N59" s="4">
-        <v>0.1</v>
+        <v>1.2E-2</v>
       </c>
       <c r="O59" s="4">
-        <v>0.1</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="60" spans="1:15" x14ac:dyDescent="0.25">
@@ -4019,38 +4058,38 @@
         <v>15</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="D60" s="3" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="E60" s="4"/>
       <c r="F60" s="4">
         <v>1</v>
       </c>
       <c r="G60" s="3" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="H60" s="3" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="I60" s="3" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="J60" s="3" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="K60" s="3" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="L60" s="3" t="s">
-        <v>166</v>
+        <v>178</v>
       </c>
       <c r="M60" s="3" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="N60" s="4">
         <v>0.111</v>
@@ -4064,38 +4103,38 @@
         <v>15</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="C61" s="3" t="s">
         <v>15</v>
       </c>
       <c r="D61" s="3" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="E61" s="4"/>
       <c r="F61" s="4">
         <v>1</v>
       </c>
       <c r="G61" s="3" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="H61" s="3" t="s">
+        <v>278</v>
+      </c>
+      <c r="I61" s="3" t="s">
         <v>281</v>
       </c>
-      <c r="I61" s="3" t="s">
-        <v>284</v>
-      </c>
       <c r="J61" s="3" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="K61" s="3" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="L61" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="M61" s="3" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="N61" s="4">
         <v>6.44</v>
@@ -4109,44 +4148,44 @@
         <v>15</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="C62" s="3" t="s">
         <v>15</v>
       </c>
       <c r="D62" s="3" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="E62" s="4"/>
       <c r="F62" s="4">
         <v>3</v>
       </c>
       <c r="G62" s="3" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="H62" s="3" t="s">
         <v>7</v>
       </c>
       <c r="I62" s="3" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="J62" s="3" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="K62" s="3" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="L62" s="3" t="s">
-        <v>28</v>
+        <v>63</v>
       </c>
       <c r="M62" s="3" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="N62" s="4">
-        <v>4.4800000000000004</v>
+        <v>4.2300000000000004</v>
       </c>
       <c r="O62" s="4">
-        <v>13.44</v>
+        <v>12.69</v>
       </c>
     </row>
     <row r="63" spans="1:15" ht="30" x14ac:dyDescent="0.25">
@@ -4154,38 +4193,38 @@
         <v>15</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="C63" s="3" t="s">
         <v>15</v>
       </c>
       <c r="D63" s="3" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="E63" s="4"/>
       <c r="F63" s="4">
         <v>1</v>
       </c>
       <c r="G63" s="3" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="H63" s="3" t="s">
+        <v>286</v>
+      </c>
+      <c r="I63" s="3" t="s">
+        <v>281</v>
+      </c>
+      <c r="J63" s="3" t="s">
+        <v>286</v>
+      </c>
+      <c r="K63" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="L63" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="M63" s="3" t="s">
         <v>290</v>
-      </c>
-      <c r="I63" s="3" t="s">
-        <v>284</v>
-      </c>
-      <c r="J63" s="3" t="s">
-        <v>290</v>
-      </c>
-      <c r="K63" s="3" t="s">
-        <v>293</v>
-      </c>
-      <c r="L63" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="M63" s="3" t="s">
-        <v>294</v>
       </c>
       <c r="N63" s="4">
         <v>1</v>
@@ -4199,38 +4238,38 @@
         <v>15</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="C64" s="3" t="s">
         <v>15</v>
       </c>
       <c r="D64" s="3" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="E64" s="4"/>
       <c r="F64" s="4">
         <v>1</v>
       </c>
       <c r="G64" s="3" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="H64" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="I64" s="3" t="s">
+        <v>294</v>
+      </c>
+      <c r="J64" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="K64" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="L64" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="M64" s="3" t="s">
         <v>295</v>
-      </c>
-      <c r="I64" s="3" t="s">
-        <v>298</v>
-      </c>
-      <c r="J64" s="3" t="s">
-        <v>295</v>
-      </c>
-      <c r="K64" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="L64" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="M64" s="3" t="s">
-        <v>299</v>
       </c>
       <c r="N64" s="4">
         <v>2.54</v>
@@ -4244,13 +4283,13 @@
         <v>15</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="C65" s="3" t="s">
         <v>15</v>
       </c>
       <c r="D65" s="3" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="E65" s="4"/>
       <c r="F65" s="4">
@@ -4261,25 +4300,25 @@
       </c>
       <c r="H65" s="4"/>
       <c r="I65" s="3" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="J65" s="3" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="K65" s="3" t="s">
-        <v>15</v>
+        <v>247</v>
       </c>
       <c r="L65" s="3" t="s">
-        <v>166</v>
+        <v>83</v>
       </c>
       <c r="M65" s="3" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="N65" s="4">
-        <v>7.66</v>
+        <v>7.67</v>
       </c>
       <c r="O65" s="4">
-        <v>7.66</v>
+        <v>7.67</v>
       </c>
     </row>
     <row r="66" spans="1:15" ht="135" x14ac:dyDescent="0.25">
@@ -4287,38 +4326,38 @@
         <v>15</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="D66" s="3" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="E66" s="3" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="F66" s="4">
         <v>2</v>
       </c>
       <c r="G66" s="3" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="H66" s="4"/>
       <c r="I66" s="3" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="J66" s="3" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="K66" s="3" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="L66" s="3" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="M66" s="3" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="N66" s="4">
         <v>0.15035000000000001</v>
@@ -4332,36 +4371,36 @@
         <v>15</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="D67" s="3" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="E67" s="4"/>
       <c r="F67" s="4">
         <v>1</v>
       </c>
       <c r="G67" s="3" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="H67" s="4"/>
       <c r="I67" s="3" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="J67" s="3" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="K67" s="3" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="L67" s="3" t="s">
-        <v>79</v>
+        <v>63</v>
       </c>
       <c r="M67" s="3" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="N67" s="4">
         <v>0.2301</v>
@@ -4375,44 +4414,44 @@
         <v>15</v>
       </c>
       <c r="B68" s="3" t="s">
+        <v>311</v>
+      </c>
+      <c r="C68" s="3" t="s">
+        <v>312</v>
+      </c>
+      <c r="D68" s="3" t="s">
+        <v>313</v>
+      </c>
+      <c r="E68" s="3" t="s">
+        <v>314</v>
+      </c>
+      <c r="F68" s="4">
+        <v>1</v>
+      </c>
+      <c r="G68" s="3" t="s">
         <v>315</v>
-      </c>
-      <c r="C68" s="3" t="s">
-        <v>316</v>
-      </c>
-      <c r="D68" s="3" t="s">
-        <v>317</v>
-      </c>
-      <c r="E68" s="3" t="s">
-        <v>318</v>
-      </c>
-      <c r="F68" s="4">
-        <v>1</v>
-      </c>
-      <c r="G68" s="3" t="s">
-        <v>319</v>
       </c>
       <c r="H68" s="4"/>
       <c r="I68" s="3" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="J68" s="3" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="K68" s="3" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="L68" s="3" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="M68" s="3" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="N68" s="4">
-        <v>1.74</v>
+        <v>1.78</v>
       </c>
       <c r="O68" s="4">
-        <v>1.74</v>
+        <v>1.78</v>
       </c>
     </row>
     <row r="69" spans="1:15" ht="105" x14ac:dyDescent="0.25">
@@ -4420,44 +4459,44 @@
         <v>15</v>
       </c>
       <c r="B69" s="3" t="s">
+        <v>318</v>
+      </c>
+      <c r="C69" s="3" t="s">
+        <v>319</v>
+      </c>
+      <c r="D69" s="3" t="s">
+        <v>320</v>
+      </c>
+      <c r="E69" s="3" t="s">
+        <v>321</v>
+      </c>
+      <c r="F69" s="4">
+        <v>1</v>
+      </c>
+      <c r="G69" s="3" t="s">
         <v>322</v>
-      </c>
-      <c r="C69" s="3" t="s">
-        <v>323</v>
-      </c>
-      <c r="D69" s="3" t="s">
-        <v>324</v>
-      </c>
-      <c r="E69" s="3" t="s">
-        <v>325</v>
-      </c>
-      <c r="F69" s="4">
-        <v>1</v>
-      </c>
-      <c r="G69" s="3" t="s">
-        <v>326</v>
       </c>
       <c r="H69" s="4"/>
       <c r="I69" s="3" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="J69" s="3" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="K69" s="3" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="L69" s="3" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="M69" s="3" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="N69" s="4">
-        <v>1.26</v>
+        <v>1.28</v>
       </c>
       <c r="O69" s="4">
-        <v>1.26</v>
+        <v>1.28</v>
       </c>
     </row>
     <row r="70" spans="1:15" ht="45" x14ac:dyDescent="0.25">
@@ -4465,38 +4504,38 @@
         <v>15</v>
       </c>
       <c r="B70" s="3" t="s">
+        <v>324</v>
+      </c>
+      <c r="C70" s="3" t="s">
+        <v>325</v>
+      </c>
+      <c r="D70" s="3" t="s">
+        <v>326</v>
+      </c>
+      <c r="E70" s="3" t="s">
+        <v>327</v>
+      </c>
+      <c r="F70" s="4">
+        <v>1</v>
+      </c>
+      <c r="G70" s="3" t="s">
         <v>328</v>
-      </c>
-      <c r="C70" s="3" t="s">
-        <v>329</v>
-      </c>
-      <c r="D70" s="3" t="s">
-        <v>330</v>
-      </c>
-      <c r="E70" s="3" t="s">
-        <v>331</v>
-      </c>
-      <c r="F70" s="4">
-        <v>1</v>
-      </c>
-      <c r="G70" s="3" t="s">
-        <v>332</v>
       </c>
       <c r="H70" s="4"/>
       <c r="I70" s="3" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="J70" s="3" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="K70" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="L70" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="L70" s="3" t="s">
-        <v>28</v>
-      </c>
       <c r="M70" s="3" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="N70" s="4">
         <v>2.92</v>
@@ -4510,38 +4549,38 @@
         <v>15</v>
       </c>
       <c r="B71" s="3" t="s">
+        <v>331</v>
+      </c>
+      <c r="C71" s="3" t="s">
+        <v>332</v>
+      </c>
+      <c r="D71" s="3" t="s">
+        <v>333</v>
+      </c>
+      <c r="E71" s="3" t="s">
+        <v>334</v>
+      </c>
+      <c r="F71" s="4">
+        <v>1</v>
+      </c>
+      <c r="G71" s="3" t="s">
         <v>335</v>
-      </c>
-      <c r="C71" s="3" t="s">
-        <v>336</v>
-      </c>
-      <c r="D71" s="3" t="s">
-        <v>337</v>
-      </c>
-      <c r="E71" s="3" t="s">
-        <v>338</v>
-      </c>
-      <c r="F71" s="4">
-        <v>1</v>
-      </c>
-      <c r="G71" s="3" t="s">
-        <v>339</v>
       </c>
       <c r="H71" s="4"/>
       <c r="I71" s="3" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="J71" s="3" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="K71" s="3" t="s">
-        <v>340</v>
+        <v>247</v>
       </c>
       <c r="L71" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="M71" s="3" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="N71" s="4">
         <v>0.9</v>
@@ -4553,6 +4592,6 @@
   </sheetData>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.30555555555555558" right="0.30555555555555558" top="0.30555555555555558" bottom="0.30555555555555558" header="0" footer="0"/>
-  <pageSetup scale="31" orientation="landscape" blackAndWhite="1" r:id="rId1"/>
+  <pageSetup scale="28" orientation="landscape" blackAndWhite="1" r:id="rId1"/>
 </worksheet>
 </file>
--- a/PMS/Project Outputs for PMS/PMS.xlsx
+++ b/PMS/Project Outputs for PMS/PMS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pr3de\Documents\MASA\2020-21-PCBs\PMS\Project Outputs for PMS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4B80856C-E8E4-48D6-91E0-776D01D7C30C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1C1E3AA3-2FBE-4BD2-8CA3-0902C08CBD2F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="7200" yWindow="4215" windowWidth="21600" windowHeight="11385" xr2:uid="{D24AC2E5-4D69-4F47-9D68-7C6EF3866D9C}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="154">
   <si>
     <t>Name</t>
   </si>
@@ -84,27 +84,24 @@
     <t>TPS54622RHLR</t>
   </si>
   <si>
+    <t>D5V0L2B3W-7</t>
+  </si>
+  <si>
+    <t>MCP2515-I/SO</t>
+  </si>
+  <si>
     <t>BQ29200DRBT</t>
   </si>
   <si>
+    <t>TCAN334DR</t>
+  </si>
+  <si>
     <t>PIC18F25K50-I/ML</t>
   </si>
   <si>
     <t>fuck you</t>
   </si>
   <si>
-    <t>SN74LVC1T45DBVR</t>
-  </si>
-  <si>
-    <t>D5V0L2B3W-7</t>
-  </si>
-  <si>
-    <t>MCP2515-I/SO</t>
-  </si>
-  <si>
-    <t>SN65HVD1050D</t>
-  </si>
-  <si>
     <t>LSM6DSMTR</t>
   </si>
   <si>
@@ -147,18 +144,12 @@
     <t>Thermistor</t>
   </si>
   <si>
-    <t>Single-Bit Dual-Supply Bus Transceiver with Configurable Voltage Translation and 3-State Outputs, DBV0006A, LARGE T&amp;R</t>
-  </si>
-  <si>
     <t>No Description Available</t>
   </si>
   <si>
     <t>Stand-Alone CAN Controller With SPI Interface, 18-Pin SOIC, Industrial Temperature</t>
   </si>
   <si>
-    <t>High-Speed EMC Optimized CAN Transceiver, 70 mA, 5 V, -40 to 125 degC, 8-pin SOIC (D), Green (RoHS &amp; no Sb/Br)</t>
-  </si>
-  <si>
     <t>IMU ACCEL/GYRO I2C/SPI 14LGA</t>
   </si>
   <si>
@@ -174,6 +165,9 @@
     <t>GRM155R71H473KE14D</t>
   </si>
   <si>
+    <t>CC0402KRX7R9BB102</t>
+  </si>
+  <si>
     <t>GCM155R71H153KA55D</t>
   </si>
   <si>
@@ -201,7 +195,7 @@
     <t>CL05B392KB5NNNC</t>
   </si>
   <si>
-    <t>GRM219R61E475KA73D</t>
+    <t>CL21A475KAQNNNG</t>
   </si>
   <si>
     <t>TMK105BJ223KV-F</t>
@@ -213,12 +207,12 @@
     <t>CL21B334KBFNNNE</t>
   </si>
   <si>
-    <t>CC0402KRX7R7BB102</t>
-  </si>
-  <si>
     <t>CC0402KRX7R9BB681</t>
   </si>
   <si>
+    <t>150060RS75000</t>
+  </si>
+  <si>
     <t>BAT60AE6327HTSA1</t>
   </si>
   <si>
@@ -309,15 +303,15 @@
     <t>RC0402FR-074K3L</t>
   </si>
   <si>
+    <t>RC0402FR-0720KL</t>
+  </si>
+  <si>
     <t>RC0402JR-07160RL</t>
   </si>
   <si>
     <t>RC0402FR-07261RL</t>
   </si>
   <si>
-    <t>RC0402FR-0760R4L</t>
-  </si>
-  <si>
     <t>NTCG163JF103FT1S</t>
   </si>
   <si>
@@ -333,6 +327,9 @@
     <t>1608[0603]</t>
   </si>
   <si>
+    <t>0402-A, 1608[0603]</t>
+  </si>
+  <si>
     <t>0402-A</t>
   </si>
   <si>
@@ -342,6 +339,9 @@
     <t>C1210</t>
   </si>
   <si>
+    <t>X3-WLB1608-2</t>
+  </si>
+  <si>
     <t>HSEC8-120-01-L-PV-4-1 Gold Fingers</t>
   </si>
   <si>
@@ -354,24 +354,21 @@
     <t>RHL0014A</t>
   </si>
   <si>
+    <t>SOT-323_DIO</t>
+  </si>
+  <si>
+    <t>SOIC-SO18_L</t>
+  </si>
+  <si>
     <t>DRB8_1P6X2P4</t>
   </si>
   <si>
+    <t>D0008A_N</t>
+  </si>
+  <si>
     <t>QFN28_6X6MC_MCH</t>
   </si>
   <si>
-    <t>DBV0006A_L</t>
-  </si>
-  <si>
-    <t>SOT-323_DIO</t>
-  </si>
-  <si>
-    <t>SOIC-SO18_L</t>
-  </si>
-  <si>
-    <t>D0008A_N</t>
-  </si>
-  <si>
     <t>FP-LGA-14L-DM00249496-MFG</t>
   </si>
   <si>
@@ -390,6 +387,9 @@
     <t>47nF</t>
   </si>
   <si>
+    <t>1nF</t>
+  </si>
+  <si>
     <t>15nF</t>
   </si>
   <si>
@@ -427,9 +427,6 @@
   </si>
   <si>
     <t>330nF</t>
-  </si>
-  <si>
-    <t>1nF</t>
   </si>
   <si>
     <t>680pF</t>
@@ -874,7 +871,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89A74CBD-EB5E-4691-BC08-A422B7428F5D}">
-  <dimension ref="A1:H70"/>
+  <dimension ref="A1:H67"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="H6" sqref="H6"/>
@@ -887,25 +884,25 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>153</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -913,16 +910,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D2">
         <v>9</v>
       </c>
       <c r="E2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="F2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -930,19 +927,19 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D3">
         <v>25</v>
       </c>
       <c r="E3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G3">
         <v>3.3000000000000002E-2</v>
@@ -956,19 +953,19 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D4">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G4">
         <v>2.9000000000000001E-2</v>
@@ -982,25 +979,25 @@
         <v>1</v>
       </c>
       <c r="B5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E5" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="F5" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G5">
-        <v>0.1</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="H5">
-        <v>0.3</v>
+        <v>5.0000000000000001E-3</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -1008,25 +1005,25 @@
         <v>1</v>
       </c>
       <c r="B6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="D6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G6">
         <v>0.1</v>
       </c>
       <c r="H6">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -1034,25 +1031,25 @@
         <v>1</v>
       </c>
       <c r="B7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D7">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="E7" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F7" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G7">
-        <v>0.157</v>
+        <v>0.1</v>
       </c>
       <c r="H7">
-        <v>1.88</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -1060,25 +1057,25 @@
         <v>1</v>
       </c>
       <c r="B8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D8">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="E8" t="s">
         <v>99</v>
       </c>
       <c r="F8" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G8">
-        <v>0.11</v>
+        <v>0.157</v>
       </c>
       <c r="H8">
-        <v>0.55000000000000004</v>
+        <v>1.88</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -1086,25 +1083,25 @@
         <v>1</v>
       </c>
       <c r="B9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D9">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E9" t="s">
         <v>98</v>
       </c>
       <c r="F9" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G9">
-        <v>0.16</v>
+        <v>0.11</v>
       </c>
       <c r="H9">
-        <v>0.16</v>
+        <v>0.55000000000000004</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
@@ -1112,25 +1109,25 @@
         <v>1</v>
       </c>
       <c r="B10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D10">
         <v>1</v>
       </c>
       <c r="E10" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="F10" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G10">
-        <v>0.1</v>
+        <v>0.16</v>
       </c>
       <c r="H10">
-        <v>0.1</v>
+        <v>0.16</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
@@ -1138,25 +1135,25 @@
         <v>1</v>
       </c>
       <c r="B11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D11">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E11" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F11" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G11">
-        <v>0.1022</v>
+        <v>0.1</v>
       </c>
       <c r="H11">
-        <v>0.30659999999999998</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
@@ -1164,25 +1161,25 @@
         <v>1</v>
       </c>
       <c r="B12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D12">
         <v>3</v>
       </c>
       <c r="E12" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="F12" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G12">
-        <v>1.1000000000000001</v>
+        <v>0.1115</v>
       </c>
       <c r="H12">
-        <v>3.31</v>
+        <v>0.33450000000000002</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
@@ -1190,25 +1187,25 @@
         <v>1</v>
       </c>
       <c r="B13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D13">
         <v>3</v>
       </c>
       <c r="E13" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F13" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G13">
-        <v>5.6599999999999998E-2</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="H13">
-        <v>0.16980000000000001</v>
+        <v>3.31</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
@@ -1216,25 +1213,25 @@
         <v>1</v>
       </c>
       <c r="B14" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D14">
         <v>3</v>
       </c>
       <c r="E14" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F14" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G14">
-        <v>0.27</v>
+        <v>5.6599999999999998E-2</v>
       </c>
       <c r="H14">
-        <v>0.81</v>
+        <v>0.16980000000000001</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
@@ -1242,25 +1239,25 @@
         <v>1</v>
       </c>
       <c r="B15" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C15" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E15" t="s">
         <v>99</v>
       </c>
       <c r="F15" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G15">
-        <v>5.6000000000000001E-2</v>
+        <v>9.6000000000000002E-2</v>
       </c>
       <c r="H15">
-        <v>5.6000000000000001E-2</v>
+        <v>0.28799999999999998</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
@@ -1268,25 +1265,25 @@
         <v>1</v>
       </c>
       <c r="B16" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C16" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="D16">
         <v>1</v>
       </c>
       <c r="E16" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F16" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G16">
-        <v>0.1</v>
+        <v>5.6000000000000001E-2</v>
       </c>
       <c r="H16">
-        <v>0.1</v>
+        <v>5.6000000000000001E-2</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
@@ -1294,25 +1291,25 @@
         <v>1</v>
       </c>
       <c r="B17" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C17" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="D17">
         <v>1</v>
       </c>
       <c r="E17" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F17" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G17">
-        <v>4.8599999999999997E-2</v>
+        <v>0.1</v>
       </c>
       <c r="H17">
-        <v>4.8599999999999997E-2</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
@@ -1320,25 +1317,25 @@
         <v>1</v>
       </c>
       <c r="B18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C18" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E18" t="s">
         <v>99</v>
       </c>
       <c r="F18" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G18">
-        <v>2.3599999999999999E-2</v>
+        <v>4.8599999999999997E-2</v>
       </c>
       <c r="H18">
-        <v>4.7199999999999999E-2</v>
+        <v>4.8599999999999997E-2</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
@@ -1346,36 +1343,45 @@
         <v>1</v>
       </c>
       <c r="B19" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C19" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="D19">
         <v>1</v>
       </c>
       <c r="E19" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F19" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G19">
-        <v>9.8000000000000004E-2</v>
+        <v>2.4799999999999999E-2</v>
       </c>
       <c r="H19">
-        <v>9.8000000000000004E-2</v>
+        <v>2.4799999999999999E-2</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>2</v>
       </c>
+      <c r="C20" t="s">
+        <v>58</v>
+      </c>
       <c r="D20">
         <v>7</v>
       </c>
       <c r="E20" t="s">
-        <v>98</v>
+        <v>96</v>
+      </c>
+      <c r="G20">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="H20">
+        <v>0.98</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
@@ -1383,10 +1389,10 @@
         <v>3</v>
       </c>
       <c r="B21" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C21" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D21">
         <v>2</v>
@@ -1406,16 +1412,16 @@
         <v>4</v>
       </c>
       <c r="B22" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C22" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D22">
         <v>1</v>
       </c>
       <c r="E22" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="G22">
         <v>0.41</v>
@@ -1429,10 +1435,10 @@
         <v>5</v>
       </c>
       <c r="B23" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C23" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D23">
         <v>1</v>
@@ -1463,13 +1469,13 @@
         <v>7</v>
       </c>
       <c r="C25" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D25">
         <v>1</v>
       </c>
       <c r="F25" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G25">
         <v>1.45</v>
@@ -1486,13 +1492,13 @@
         <v>7</v>
       </c>
       <c r="C26" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D26">
         <v>1</v>
       </c>
       <c r="F26" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G26">
         <v>0.44619999999999999</v>
@@ -1515,7 +1521,7 @@
         <v>1</v>
       </c>
       <c r="F27" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G27">
         <v>2.12</v>
@@ -1532,13 +1538,13 @@
         <v>7</v>
       </c>
       <c r="C28" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D28">
         <v>1</v>
       </c>
       <c r="F28" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="G28">
         <v>0.44619999999999999</v>
@@ -1552,10 +1558,10 @@
         <v>8</v>
       </c>
       <c r="B29" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C29" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D29">
         <v>4</v>
@@ -1572,10 +1578,10 @@
         <v>9</v>
       </c>
       <c r="B30" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C30" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D30">
         <v>1</v>
@@ -1592,19 +1598,19 @@
         <v>10</v>
       </c>
       <c r="B31" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C31" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D31">
         <v>1</v>
       </c>
       <c r="G31">
-        <v>0.375</v>
+        <v>0.245</v>
       </c>
       <c r="H31">
-        <v>0.375</v>
+        <v>0.245</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
@@ -1612,10 +1618,10 @@
         <v>11</v>
       </c>
       <c r="B32" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C32" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D32">
         <v>2</v>
@@ -1632,10 +1638,10 @@
         <v>12</v>
       </c>
       <c r="B33" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C33" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D33">
         <v>4</v>
@@ -1658,25 +1664,25 @@
         <v>12</v>
       </c>
       <c r="B34" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C34" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D34">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E34" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F34" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G34">
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="H34">
-        <v>4.4999999999999998E-2</v>
+        <v>5.0999999999999997E-2</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
@@ -1684,19 +1690,19 @@
         <v>12</v>
       </c>
       <c r="B35" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C35" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D35">
         <v>3</v>
       </c>
       <c r="E35" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F35" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G35">
         <v>3.0000000000000001E-3</v>
@@ -1710,16 +1716,16 @@
         <v>12</v>
       </c>
       <c r="B36" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C36" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D36">
         <v>1</v>
       </c>
       <c r="E36" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F36">
         <v>36</v>
@@ -1736,19 +1742,19 @@
         <v>12</v>
       </c>
       <c r="B37" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C37" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D37">
         <v>1</v>
       </c>
       <c r="E37" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F37" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G37">
         <v>2.23E-2</v>
@@ -1762,19 +1768,19 @@
         <v>12</v>
       </c>
       <c r="B38" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C38" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D38">
         <v>1</v>
       </c>
       <c r="E38" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F38" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G38">
         <v>5.1499999999999997E-2</v>
@@ -1788,16 +1794,16 @@
         <v>12</v>
       </c>
       <c r="B39" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C39" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D39">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E39" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F39">
         <v>0</v>
@@ -1814,25 +1820,25 @@
         <v>12</v>
       </c>
       <c r="B40" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C40" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D40">
         <v>1</v>
       </c>
       <c r="E40" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F40" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G40">
-        <v>9.4130000000000005E-2</v>
+        <v>9.5570000000000002E-2</v>
       </c>
       <c r="H40">
-        <v>9.4130000000000005E-2</v>
+        <v>9.5570000000000002E-2</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
@@ -1840,19 +1846,19 @@
         <v>12</v>
       </c>
       <c r="B41" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C41" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D41">
         <v>6</v>
       </c>
       <c r="E41" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F41" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G41">
         <v>4.0000000000000001E-3</v>
@@ -1866,16 +1872,16 @@
         <v>12</v>
       </c>
       <c r="B42" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C42" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D42">
         <v>5</v>
       </c>
       <c r="E42" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F42">
         <v>100</v>
@@ -1892,19 +1898,19 @@
         <v>12</v>
       </c>
       <c r="B43" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C43" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D43">
         <v>1</v>
       </c>
       <c r="E43" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F43" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G43">
         <v>3.0000000000000001E-3</v>
@@ -1918,19 +1924,19 @@
         <v>12</v>
       </c>
       <c r="B44" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C44" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D44">
         <v>1</v>
       </c>
       <c r="E44" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F44" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="G44">
         <v>0.1</v>
@@ -1944,16 +1950,16 @@
         <v>12</v>
       </c>
       <c r="B45" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C45" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D45">
         <v>1</v>
       </c>
       <c r="E45" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F45">
         <v>2</v>
@@ -1970,16 +1976,16 @@
         <v>12</v>
       </c>
       <c r="B46" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C46" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D46">
         <v>1</v>
       </c>
       <c r="E46" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F46">
         <v>10</v>
@@ -1996,19 +2002,19 @@
         <v>12</v>
       </c>
       <c r="B47" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C47" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D47">
         <v>1</v>
       </c>
       <c r="E47" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F47" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G47">
         <v>0.44529999999999997</v>
@@ -2022,25 +2028,25 @@
         <v>12</v>
       </c>
       <c r="B48" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C48" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D48">
         <v>1</v>
       </c>
       <c r="E48" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F48" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G48">
-        <v>5.5300000000000002E-2</v>
+        <v>5.74E-2</v>
       </c>
       <c r="H48">
-        <v>5.5300000000000002E-2</v>
+        <v>5.74E-2</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
@@ -2048,25 +2054,25 @@
         <v>12</v>
       </c>
       <c r="B49" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C49" t="s">
-        <v>71</v>
+        <v>84</v>
       </c>
       <c r="D49">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E49" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F49" t="s">
-        <v>137</v>
+        <v>146</v>
       </c>
       <c r="G49">
-        <v>3.0000000000000001E-3</v>
+        <v>1.6199999999999999E-2</v>
       </c>
       <c r="H49">
-        <v>8.9999999999999993E-3</v>
+        <v>1.6199999999999999E-2</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
@@ -2077,22 +2083,22 @@
         <v>34</v>
       </c>
       <c r="C50" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D50">
         <v>1</v>
       </c>
       <c r="E50" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F50" t="s">
         <v>147</v>
       </c>
       <c r="G50">
-        <v>1.6199999999999999E-2</v>
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="H50">
-        <v>1.6199999999999999E-2</v>
+        <v>3.0000000000000001E-3</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
@@ -2100,25 +2106,25 @@
         <v>12</v>
       </c>
       <c r="B51" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C51" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D51">
         <v>1</v>
       </c>
       <c r="E51" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F51" t="s">
         <v>148</v>
       </c>
       <c r="G51">
-        <v>3.0000000000000001E-3</v>
+        <v>5.1499999999999997E-2</v>
       </c>
       <c r="H51">
-        <v>3.0000000000000001E-3</v>
+        <v>5.1499999999999997E-2</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
@@ -2129,22 +2135,22 @@
         <v>34</v>
       </c>
       <c r="C52" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D52">
         <v>1</v>
       </c>
       <c r="E52" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F52" t="s">
         <v>149</v>
       </c>
       <c r="G52">
-        <v>2.1100000000000001E-2</v>
+        <v>9.8000000000000004E-2</v>
       </c>
       <c r="H52">
-        <v>2.1100000000000001E-2</v>
+        <v>9.8000000000000004E-2</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
@@ -2152,25 +2158,25 @@
         <v>12</v>
       </c>
       <c r="B53" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C53" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D53">
         <v>1</v>
       </c>
       <c r="E53" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F53" t="s">
         <v>150</v>
       </c>
       <c r="G53">
-        <v>9.8000000000000004E-2</v>
+        <v>9.5899999999999999E-2</v>
       </c>
       <c r="H53">
-        <v>9.8000000000000004E-2</v>
+        <v>9.5899999999999999E-2</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
@@ -2178,25 +2184,25 @@
         <v>12</v>
       </c>
       <c r="B54" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C54" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D54">
         <v>1</v>
       </c>
       <c r="E54" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F54" t="s">
         <v>151</v>
       </c>
       <c r="G54">
-        <v>9.5899999999999999E-2</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="H54">
-        <v>9.5899999999999999E-2</v>
+        <v>4.0000000000000001E-3</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
@@ -2204,16 +2210,25 @@
         <v>12</v>
       </c>
       <c r="B55" t="s">
-        <v>34</v>
+        <v>33</v>
+      </c>
+      <c r="C55" t="s">
+        <v>90</v>
       </c>
       <c r="D55">
         <v>1</v>
       </c>
       <c r="E55" t="s">
-        <v>99</v>
-      </c>
-      <c r="F55" t="s">
-        <v>152</v>
+        <v>98</v>
+      </c>
+      <c r="F55">
+        <v>160</v>
+      </c>
+      <c r="G55">
+        <v>0.1</v>
+      </c>
+      <c r="H55">
+        <v>0.1</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
@@ -2221,7 +2236,7 @@
         <v>12</v>
       </c>
       <c r="B56" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C56" t="s">
         <v>91</v>
@@ -2230,10 +2245,10 @@
         <v>1</v>
       </c>
       <c r="E56" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F56">
-        <v>160</v>
+        <v>260</v>
       </c>
       <c r="G56">
         <v>0.1</v>
@@ -2244,10 +2259,10 @@
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B57" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C57" t="s">
         <v>92</v>
@@ -2256,131 +2271,125 @@
         <v>1</v>
       </c>
       <c r="E57" t="s">
-        <v>99</v>
-      </c>
-      <c r="F57">
-        <v>260</v>
+        <v>96</v>
+      </c>
+      <c r="F57" t="s">
+        <v>136</v>
       </c>
       <c r="G57">
-        <v>0.1</v>
+        <v>0.111</v>
       </c>
       <c r="H57">
-        <v>0.1</v>
+        <v>0.111</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>12</v>
-      </c>
-      <c r="B58" t="s">
-        <v>34</v>
+        <v>14</v>
       </c>
       <c r="C58" t="s">
-        <v>93</v>
+        <v>14</v>
       </c>
       <c r="D58">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E58" t="s">
-        <v>99</v>
-      </c>
-      <c r="F58">
-        <v>60</v>
+        <v>104</v>
+      </c>
+      <c r="F58" t="s">
+        <v>14</v>
       </c>
       <c r="G58">
-        <v>1.2E-2</v>
+        <v>6.44</v>
       </c>
       <c r="H58">
-        <v>0.12</v>
+        <v>6.44</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>13</v>
-      </c>
-      <c r="B59" t="s">
-        <v>36</v>
+        <v>15</v>
       </c>
       <c r="C59" t="s">
-        <v>94</v>
+        <v>15</v>
       </c>
       <c r="D59">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E59" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="F59" t="s">
-        <v>137</v>
+        <v>113</v>
       </c>
       <c r="G59">
-        <v>0.111</v>
+        <v>4.2300000000000004</v>
       </c>
       <c r="H59">
-        <v>0.111</v>
+        <v>12.69</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>14</v>
+        <v>16</v>
+      </c>
+      <c r="B60" t="s">
+        <v>36</v>
       </c>
       <c r="C60" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D60">
         <v>1</v>
       </c>
       <c r="E60" t="s">
-        <v>104</v>
-      </c>
-      <c r="F60" t="s">
-        <v>14</v>
+        <v>106</v>
       </c>
       <c r="G60">
-        <v>6.44</v>
+        <v>0.2301</v>
       </c>
       <c r="H60">
-        <v>6.44</v>
+        <v>0.2301</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>15</v>
+        <v>17</v>
+      </c>
+      <c r="B61" t="s">
+        <v>37</v>
       </c>
       <c r="C61" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D61">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E61" t="s">
-        <v>105</v>
-      </c>
-      <c r="F61" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="G61">
-        <v>4.2300000000000004</v>
+        <v>1.78</v>
       </c>
       <c r="H61">
-        <v>12.69</v>
+        <v>1.78</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C62" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D62">
         <v>1</v>
       </c>
       <c r="E62" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="F62" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G62">
         <v>1</v>
@@ -2391,179 +2400,113 @@
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>17</v>
+        <v>19</v>
+      </c>
+      <c r="B63" t="s">
+        <v>36</v>
       </c>
       <c r="C63" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D63">
         <v>1</v>
       </c>
       <c r="E63" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="F63" t="s">
-        <v>17</v>
+        <v>113</v>
       </c>
       <c r="G63">
-        <v>2.54</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="H63">
-        <v>2.54</v>
+        <v>2.2999999999999998</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C64" t="s">
-        <v>95</v>
+        <v>20</v>
       </c>
       <c r="D64">
         <v>1</v>
       </c>
+      <c r="E64" t="s">
+        <v>110</v>
+      </c>
+      <c r="F64" t="s">
+        <v>20</v>
+      </c>
       <c r="G64">
-        <v>7.67</v>
+        <v>2.54</v>
       </c>
       <c r="H64">
-        <v>7.67</v>
+        <v>2.54</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>19</v>
-      </c>
-      <c r="B65" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="C65" t="s">
-        <v>19</v>
+        <v>93</v>
       </c>
       <c r="D65">
-        <v>2</v>
-      </c>
-      <c r="E65" t="s">
-        <v>108</v>
+        <v>1</v>
       </c>
       <c r="G65">
-        <v>0.15035000000000001</v>
+        <v>7.67</v>
       </c>
       <c r="H65">
-        <v>0.30070000000000002</v>
+        <v>7.67</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B66" t="s">
         <v>38</v>
       </c>
       <c r="C66" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D66">
         <v>1</v>
       </c>
       <c r="E66" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="G66">
-        <v>0.2301</v>
+        <v>2.92</v>
       </c>
       <c r="H66">
-        <v>0.2301</v>
+        <v>2.92</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B67" t="s">
         <v>39</v>
       </c>
       <c r="C67" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D67">
         <v>1</v>
       </c>
       <c r="E67" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="G67">
-        <v>1.78</v>
+        <v>0.9</v>
       </c>
       <c r="H67">
-        <v>1.78</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A68" t="s">
-        <v>22</v>
-      </c>
-      <c r="B68" t="s">
-        <v>40</v>
-      </c>
-      <c r="C68" t="s">
-        <v>22</v>
-      </c>
-      <c r="D68">
-        <v>1</v>
-      </c>
-      <c r="E68" t="s">
-        <v>111</v>
-      </c>
-      <c r="G68">
-        <v>1.29</v>
-      </c>
-      <c r="H68">
-        <v>1.29</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A69" t="s">
-        <v>23</v>
-      </c>
-      <c r="B69" t="s">
-        <v>41</v>
-      </c>
-      <c r="C69" t="s">
-        <v>23</v>
-      </c>
-      <c r="D69">
-        <v>1</v>
-      </c>
-      <c r="E69" t="s">
-        <v>112</v>
-      </c>
-      <c r="G69">
-        <v>2.92</v>
-      </c>
-      <c r="H69">
-        <v>2.92</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A70" t="s">
-        <v>24</v>
-      </c>
-      <c r="B70" t="s">
-        <v>42</v>
-      </c>
-      <c r="C70" t="s">
-        <v>24</v>
-      </c>
-      <c r="D70">
-        <v>1</v>
-      </c>
-      <c r="E70" t="s">
-        <v>113</v>
-      </c>
-      <c r="G70">
-        <v>0.9</v>
-      </c>
-      <c r="H70">
         <v>0.9</v>
       </c>
     </row>

--- a/PMS/Project Outputs for PMS/PMS.xlsx
+++ b/PMS/Project Outputs for PMS/PMS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pr3de\Documents\MASA\2020-21-PCBs\PMS\Project Outputs for PMS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1C1E3AA3-2FBE-4BD2-8CA3-0902C08CBD2F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4BD4A335-B331-4D7D-A7A6-B15A5B09D87F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7200" yWindow="4215" windowWidth="21600" windowHeight="11385" xr2:uid="{D24AC2E5-4D69-4F47-9D68-7C6EF3866D9C}"/>
+    <workbookView xWindow="7200" yWindow="3405" windowWidth="21600" windowHeight="11385" xr2:uid="{D24AC2E5-4D69-4F47-9D68-7C6EF3866D9C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="157">
   <si>
     <t>Name</t>
   </si>
@@ -78,6 +78,9 @@
     <t>Res Thermal</t>
   </si>
   <si>
+    <t>P9221</t>
+  </si>
+  <si>
     <t>BQ24617RGET</t>
   </si>
   <si>
@@ -99,9 +102,6 @@
     <t>PIC18F25K50-I/ML</t>
   </si>
   <si>
-    <t>fuck you</t>
-  </si>
-  <si>
     <t>LSM6DSMTR</t>
   </si>
   <si>
@@ -162,6 +162,9 @@
     <t>GRM155R71H104KE14J</t>
   </si>
   <si>
+    <t>CL10B104KA8NNNC</t>
+  </si>
+  <si>
     <t>GRM155R71H473KE14D</t>
   </si>
   <si>
@@ -234,9 +237,6 @@
     <t>2-1445050-3</t>
   </si>
   <si>
-    <t>GRPB051VWVN-RC</t>
-  </si>
-  <si>
     <t>SIS412DN-T1-GE3</t>
   </si>
   <si>
@@ -327,9 +327,6 @@
     <t>1608[0603]</t>
   </si>
   <si>
-    <t>0402-A, 1608[0603]</t>
-  </si>
-  <si>
     <t>0402-A</t>
   </si>
   <si>
@@ -342,10 +339,25 @@
     <t>X3-WLB1608-2</t>
   </si>
   <si>
+    <t>CONN_3557-2_KEY</t>
+  </si>
+  <si>
     <t>HSEC8-120-01-L-PV-4-1 Gold Fingers</t>
   </si>
   <si>
-    <t>1608[0603], 0402-A</t>
+    <t>IND_BOURNS_SRR1260</t>
+  </si>
+  <si>
+    <t>conn3_2-1445050-3_TEC</t>
+  </si>
+  <si>
+    <t>HDR1X5</t>
+  </si>
+  <si>
+    <t>POWERPAK_1212-8</t>
+  </si>
+  <si>
+    <t>BGA52C40P6X9_264X394X65</t>
   </si>
   <si>
     <t>RGE24_2P45X2P45</t>
@@ -435,13 +447,10 @@
     <t>6.8uH</t>
   </si>
   <si>
-    <t>11uH</t>
+    <t>12uH</t>
   </si>
   <si>
     <t>7.5uH</t>
-  </si>
-  <si>
-    <t>13uH</t>
   </si>
   <si>
     <t>10k</t>
@@ -871,7 +880,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89A74CBD-EB5E-4691-BC08-A422B7428F5D}">
-  <dimension ref="A1:H67"/>
+  <dimension ref="A1:H68"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="H6" sqref="H6"/>
@@ -896,13 +905,13 @@
         <v>95</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -919,7 +928,7 @@
         <v>96</v>
       </c>
       <c r="F2" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -933,19 +942,19 @@
         <v>41</v>
       </c>
       <c r="D3">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E3" t="s">
         <v>97</v>
       </c>
       <c r="F3" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="G3">
-        <v>3.3000000000000002E-2</v>
+        <v>3.1E-2</v>
       </c>
       <c r="H3">
-        <v>0.82499999999999996</v>
+        <v>0.68200000000000005</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -962,16 +971,16 @@
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="F4" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="G4">
-        <v>2.9000000000000001E-2</v>
+        <v>2.7E-2</v>
       </c>
       <c r="H4">
-        <v>0.28999999999999998</v>
+        <v>0.27</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -985,19 +994,19 @@
         <v>43</v>
       </c>
       <c r="D5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E5" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F5" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="G5">
-        <v>5.0000000000000001E-3</v>
+        <v>3.5999999999999997E-2</v>
       </c>
       <c r="H5">
-        <v>5.0000000000000001E-3</v>
+        <v>0.108</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -1011,19 +1020,19 @@
         <v>44</v>
       </c>
       <c r="D6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E6" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="F6" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="G6">
-        <v>0.1</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="H6">
-        <v>0.3</v>
+        <v>5.0000000000000001E-3</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -1037,19 +1046,19 @@
         <v>45</v>
       </c>
       <c r="D7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F7" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="G7">
-        <v>0.1</v>
+        <v>6.25E-2</v>
       </c>
       <c r="H7">
-        <v>0.1</v>
+        <v>0.1875</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -1063,19 +1072,19 @@
         <v>46</v>
       </c>
       <c r="D8">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="E8" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F8" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="G8">
-        <v>0.157</v>
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="H8">
-        <v>1.88</v>
+        <v>3.0000000000000001E-3</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -1089,19 +1098,19 @@
         <v>47</v>
       </c>
       <c r="D9">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="E9" t="s">
         <v>98</v>
       </c>
       <c r="F9" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="G9">
-        <v>0.11</v>
+        <v>0.104</v>
       </c>
       <c r="H9">
-        <v>0.55000000000000004</v>
+        <v>1.25</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
@@ -1115,19 +1124,19 @@
         <v>48</v>
       </c>
       <c r="D10">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E10" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F10" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="G10">
-        <v>0.16</v>
+        <v>6.6000000000000003E-2</v>
       </c>
       <c r="H10">
-        <v>0.16</v>
+        <v>0.33</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
@@ -1144,16 +1153,16 @@
         <v>1</v>
       </c>
       <c r="E11" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="F11" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="G11">
-        <v>0.1</v>
+        <v>9.7000000000000003E-2</v>
       </c>
       <c r="H11">
-        <v>0.1</v>
+        <v>9.7000000000000003E-2</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
@@ -1167,19 +1176,19 @@
         <v>50</v>
       </c>
       <c r="D12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E12" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F12" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="G12">
-        <v>0.1115</v>
+        <v>0.1</v>
       </c>
       <c r="H12">
-        <v>0.33450000000000002</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
@@ -1196,16 +1205,16 @@
         <v>3</v>
       </c>
       <c r="E13" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="F13" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="G13">
-        <v>1.1000000000000001</v>
+        <v>0.1115</v>
       </c>
       <c r="H13">
-        <v>3.31</v>
+        <v>0.33450000000000002</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
@@ -1222,16 +1231,16 @@
         <v>3</v>
       </c>
       <c r="E14" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F14" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="G14">
-        <v>5.6599999999999998E-2</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="H14">
-        <v>0.16980000000000001</v>
+        <v>3.31</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
@@ -1248,16 +1257,16 @@
         <v>3</v>
       </c>
       <c r="E15" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F15" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="G15">
-        <v>9.6000000000000002E-2</v>
+        <v>5.6599999999999998E-2</v>
       </c>
       <c r="H15">
-        <v>0.28799999999999998</v>
+        <v>0.16980000000000001</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
@@ -1271,19 +1280,19 @@
         <v>54</v>
       </c>
       <c r="D16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E16" t="s">
         <v>98</v>
       </c>
       <c r="F16" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="G16">
-        <v>5.6000000000000001E-2</v>
+        <v>9.6000000000000002E-2</v>
       </c>
       <c r="H16">
-        <v>5.6000000000000001E-2</v>
+        <v>0.28799999999999998</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
@@ -1300,16 +1309,16 @@
         <v>1</v>
       </c>
       <c r="E17" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F17" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="G17">
-        <v>0.1</v>
+        <v>5.6000000000000001E-2</v>
       </c>
       <c r="H17">
-        <v>0.1</v>
+        <v>5.6000000000000001E-2</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
@@ -1326,16 +1335,16 @@
         <v>1</v>
       </c>
       <c r="E18" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F18" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="G18">
-        <v>4.8599999999999997E-2</v>
+        <v>0.1</v>
       </c>
       <c r="H18">
-        <v>4.8599999999999997E-2</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
@@ -1355,87 +1364,90 @@
         <v>98</v>
       </c>
       <c r="F19" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="G19">
-        <v>2.4799999999999999E-2</v>
+        <v>4.8599999999999997E-2</v>
       </c>
       <c r="H19">
-        <v>2.4799999999999999E-2</v>
+        <v>4.8599999999999997E-2</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
       </c>
       <c r="C20" t="s">
         <v>58</v>
       </c>
       <c r="D20">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="E20" t="s">
-        <v>96</v>
+        <v>97</v>
+      </c>
+      <c r="F20" t="s">
+        <v>135</v>
       </c>
       <c r="G20">
-        <v>0.14000000000000001</v>
+        <v>2.4799999999999999E-2</v>
       </c>
       <c r="H20">
-        <v>0.98</v>
+        <v>2.4799999999999999E-2</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>3</v>
-      </c>
-      <c r="B21" t="s">
-        <v>26</v>
+        <v>2</v>
       </c>
       <c r="C21" t="s">
         <v>59</v>
       </c>
       <c r="D21">
-        <v>2</v>
-      </c>
-      <c r="E21">
-        <v>425</v>
+        <v>7</v>
+      </c>
+      <c r="E21" t="s">
+        <v>96</v>
       </c>
       <c r="G21">
-        <v>0.46</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="H21">
-        <v>0.92</v>
+        <v>0.98</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B22" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C22" t="s">
         <v>60</v>
       </c>
       <c r="D22">
-        <v>1</v>
-      </c>
-      <c r="E22" t="s">
-        <v>101</v>
+        <v>2</v>
+      </c>
+      <c r="E22">
+        <v>425</v>
       </c>
       <c r="G22">
-        <v>0.41</v>
+        <v>5.0999999999999997E-2</v>
       </c>
       <c r="H22">
-        <v>0.41</v>
+        <v>0.10199999999999999</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B23" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C23" t="s">
         <v>61</v>
@@ -1443,45 +1455,48 @@
       <c r="D23">
         <v>1</v>
       </c>
+      <c r="E23" t="s">
+        <v>100</v>
+      </c>
       <c r="G23">
-        <v>1.1599999999999999</v>
+        <v>0.08</v>
       </c>
       <c r="H23">
-        <v>1.1599999999999999</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>6</v>
+        <v>5</v>
+      </c>
+      <c r="B24" t="s">
+        <v>28</v>
+      </c>
+      <c r="C24" t="s">
+        <v>62</v>
       </c>
       <c r="D24">
         <v>1</v>
       </c>
       <c r="E24" t="s">
-        <v>102</v>
+        <v>101</v>
+      </c>
+      <c r="G24">
+        <v>0.84499999999999997</v>
+      </c>
+      <c r="H24">
+        <v>0.84499999999999997</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>7</v>
-      </c>
-      <c r="B25" t="s">
-        <v>7</v>
-      </c>
-      <c r="C25" t="s">
-        <v>62</v>
+        <v>6</v>
       </c>
       <c r="D25">
         <v>1</v>
       </c>
-      <c r="F25" t="s">
-        <v>132</v>
-      </c>
-      <c r="G25">
-        <v>1.45</v>
-      </c>
-      <c r="H25">
-        <v>1.45</v>
+      <c r="E25" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
@@ -1497,14 +1512,17 @@
       <c r="D26">
         <v>1</v>
       </c>
+      <c r="E26" t="s">
+        <v>63</v>
+      </c>
       <c r="F26" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="G26">
-        <v>0.44619999999999999</v>
+        <v>1.45</v>
       </c>
       <c r="H26">
-        <v>0.44619999999999999</v>
+        <v>1.45</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
@@ -1514,20 +1532,23 @@
       <c r="B27" t="s">
         <v>7</v>
       </c>
-      <c r="C27">
-        <v>744771008</v>
+      <c r="C27" t="s">
+        <v>64</v>
       </c>
       <c r="D27">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="E27" t="s">
+        <v>103</v>
       </c>
       <c r="F27" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="G27">
-        <v>2.12</v>
+        <v>0.85</v>
       </c>
       <c r="H27">
-        <v>2.12</v>
+        <v>1.7</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
@@ -1537,20 +1558,23 @@
       <c r="B28" t="s">
         <v>7</v>
       </c>
-      <c r="C28" t="s">
-        <v>63</v>
+      <c r="C28">
+        <v>744771008</v>
       </c>
       <c r="D28">
         <v>1</v>
       </c>
+      <c r="E28">
+        <v>744771008</v>
+      </c>
       <c r="F28" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="G28">
-        <v>0.44619999999999999</v>
+        <v>2.12</v>
       </c>
       <c r="H28">
-        <v>0.44619999999999999</v>
+        <v>2.12</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
@@ -1561,10 +1585,13 @@
         <v>29</v>
       </c>
       <c r="C29" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D29">
         <v>4</v>
+      </c>
+      <c r="E29" t="s">
+        <v>65</v>
       </c>
       <c r="G29">
         <v>1.33</v>
@@ -1581,10 +1608,13 @@
         <v>30</v>
       </c>
       <c r="C30" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D30">
         <v>1</v>
+      </c>
+      <c r="E30" t="s">
+        <v>104</v>
       </c>
       <c r="G30">
         <v>0.9</v>
@@ -1600,17 +1630,11 @@
       <c r="B31" t="s">
         <v>31</v>
       </c>
-      <c r="C31" t="s">
-        <v>66</v>
-      </c>
       <c r="D31">
         <v>1</v>
       </c>
-      <c r="G31">
-        <v>0.245</v>
-      </c>
-      <c r="H31">
-        <v>0.245</v>
+      <c r="E31" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
@@ -1626,11 +1650,14 @@
       <c r="D32">
         <v>2</v>
       </c>
+      <c r="E32" t="s">
+        <v>106</v>
+      </c>
       <c r="G32">
-        <v>0.56000000000000005</v>
+        <v>0.47970000000000002</v>
       </c>
       <c r="H32">
-        <v>1.1200000000000001</v>
+        <v>0.95940000000000003</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
@@ -1644,19 +1671,19 @@
         <v>68</v>
       </c>
       <c r="D33">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E33" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="F33">
         <v>470</v>
       </c>
       <c r="G33">
-        <v>1.4E-2</v>
+        <v>1.2E-2</v>
       </c>
       <c r="H33">
-        <v>0.14000000000000001</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
@@ -1673,16 +1700,16 @@
         <v>17</v>
       </c>
       <c r="E34" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F34" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="G34">
-        <v>3.0000000000000001E-3</v>
+        <v>1.2999999999999999E-2</v>
       </c>
       <c r="H34">
-        <v>5.0999999999999997E-2</v>
+        <v>0.221</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
@@ -1699,16 +1726,16 @@
         <v>3</v>
       </c>
       <c r="E35" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F35" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="G35">
-        <v>3.0000000000000001E-3</v>
+        <v>8.3000000000000001E-3</v>
       </c>
       <c r="H35">
-        <v>8.9999999999999993E-3</v>
+        <v>8.3000000000000004E-2</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
@@ -1725,16 +1752,16 @@
         <v>1</v>
       </c>
       <c r="E36" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F36">
         <v>36</v>
       </c>
       <c r="G36">
-        <v>0.1</v>
+        <v>6.3299999999999995E-2</v>
       </c>
       <c r="H36">
-        <v>0.1</v>
+        <v>6.3299999999999995E-2</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
@@ -1751,10 +1778,10 @@
         <v>1</v>
       </c>
       <c r="E37" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F37" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="G37">
         <v>2.23E-2</v>
@@ -1777,10 +1804,10 @@
         <v>1</v>
       </c>
       <c r="E38" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F38" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="G38">
         <v>5.1499999999999997E-2</v>
@@ -1803,16 +1830,16 @@
         <v>2</v>
       </c>
       <c r="E39" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F39">
         <v>0</v>
       </c>
       <c r="G39">
-        <v>1.2E-2</v>
+        <v>2E-3</v>
       </c>
       <c r="H39">
-        <v>0.12</v>
+        <v>4.0000000000000001E-3</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
@@ -1829,16 +1856,16 @@
         <v>1</v>
       </c>
       <c r="E40" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F40" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="G40">
-        <v>9.5570000000000002E-2</v>
+        <v>9.4570000000000001E-2</v>
       </c>
       <c r="H40">
-        <v>9.5570000000000002E-2</v>
+        <v>9.4570000000000001E-2</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
@@ -1855,10 +1882,10 @@
         <v>6</v>
       </c>
       <c r="E41" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F41" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="G41">
         <v>4.0000000000000001E-3</v>
@@ -1881,16 +1908,16 @@
         <v>5</v>
       </c>
       <c r="E42" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F42">
         <v>100</v>
       </c>
       <c r="G42">
-        <v>1.4E-2</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="H42">
-        <v>0.14000000000000001</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
@@ -1907,16 +1934,16 @@
         <v>1</v>
       </c>
       <c r="E43" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F43" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="G43">
-        <v>3.0000000000000001E-3</v>
+        <v>2.9000000000000001E-2</v>
       </c>
       <c r="H43">
-        <v>3.0000000000000001E-3</v>
+        <v>2.9000000000000001E-2</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
@@ -1933,10 +1960,10 @@
         <v>1</v>
       </c>
       <c r="E44" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F44" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="G44">
         <v>0.1</v>
@@ -1959,16 +1986,16 @@
         <v>1</v>
       </c>
       <c r="E45" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F45">
         <v>2</v>
       </c>
       <c r="G45">
-        <v>0.1</v>
+        <v>5.0700000000000002E-2</v>
       </c>
       <c r="H45">
-        <v>0.1</v>
+        <v>5.0700000000000002E-2</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
@@ -1985,16 +2012,16 @@
         <v>1</v>
       </c>
       <c r="E46" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F46">
         <v>10</v>
       </c>
       <c r="G46">
-        <v>0.1</v>
+        <v>9.8000000000000004E-2</v>
       </c>
       <c r="H46">
-        <v>0.1</v>
+        <v>9.8000000000000004E-2</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
@@ -2011,16 +2038,16 @@
         <v>1</v>
       </c>
       <c r="E47" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F47" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="G47">
-        <v>0.44529999999999997</v>
+        <v>0.44590000000000002</v>
       </c>
       <c r="H47">
-        <v>0.44529999999999997</v>
+        <v>0.44590000000000002</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
@@ -2037,10 +2064,10 @@
         <v>1</v>
       </c>
       <c r="E48" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F48" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="G48">
         <v>5.74E-2</v>
@@ -2063,10 +2090,10 @@
         <v>1</v>
       </c>
       <c r="E49" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F49" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="G49">
         <v>1.6199999999999999E-2</v>
@@ -2089,16 +2116,16 @@
         <v>1</v>
       </c>
       <c r="E50" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F50" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="G50">
-        <v>3.0000000000000001E-3</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="H50">
-        <v>3.0000000000000001E-3</v>
+        <v>4.0000000000000001E-3</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
@@ -2115,10 +2142,10 @@
         <v>1</v>
       </c>
       <c r="E51" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F51" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="G51">
         <v>5.1499999999999997E-2</v>
@@ -2141,10 +2168,10 @@
         <v>1</v>
       </c>
       <c r="E52" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F52" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="G52">
         <v>9.8000000000000004E-2</v>
@@ -2167,10 +2194,10 @@
         <v>1</v>
       </c>
       <c r="E53" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F53" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="G53">
         <v>9.5899999999999999E-2</v>
@@ -2193,10 +2220,10 @@
         <v>1</v>
       </c>
       <c r="E54" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F54" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="G54">
         <v>4.0000000000000001E-3</v>
@@ -2219,16 +2246,16 @@
         <v>1</v>
       </c>
       <c r="E55" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F55">
         <v>160</v>
       </c>
       <c r="G55">
-        <v>0.1</v>
+        <v>4.8500000000000001E-2</v>
       </c>
       <c r="H55">
-        <v>0.1</v>
+        <v>4.8500000000000001E-2</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
@@ -2245,268 +2272,297 @@
         <v>1</v>
       </c>
       <c r="E56" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F56">
         <v>260</v>
       </c>
       <c r="G56">
-        <v>0.1</v>
+        <v>9.5899999999999999E-2</v>
       </c>
       <c r="H56">
-        <v>0.1</v>
+        <v>9.5899999999999999E-2</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B57" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C57" t="s">
-        <v>92</v>
+        <v>68</v>
       </c>
       <c r="D57">
         <v>1</v>
       </c>
       <c r="E57" t="s">
-        <v>96</v>
-      </c>
-      <c r="F57" t="s">
-        <v>136</v>
+        <v>97</v>
+      </c>
+      <c r="F57">
+        <v>470</v>
       </c>
       <c r="G57">
-        <v>0.111</v>
+        <v>9.8000000000000004E-2</v>
       </c>
       <c r="H57">
-        <v>0.111</v>
+        <v>9.8000000000000004E-2</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>14</v>
+        <v>13</v>
+      </c>
+      <c r="B58" t="s">
+        <v>35</v>
       </c>
       <c r="C58" t="s">
-        <v>14</v>
+        <v>92</v>
       </c>
       <c r="D58">
         <v>1</v>
       </c>
       <c r="E58" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="F58" t="s">
-        <v>14</v>
+        <v>139</v>
       </c>
       <c r="G58">
-        <v>6.44</v>
+        <v>0.252</v>
       </c>
       <c r="H58">
-        <v>6.44</v>
+        <v>0.252</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C59" t="s">
-        <v>15</v>
+        <v>93</v>
       </c>
       <c r="D59">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E59" t="s">
-        <v>105</v>
-      </c>
-      <c r="F59" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="G59">
-        <v>4.2300000000000004</v>
+        <v>7.67</v>
       </c>
       <c r="H59">
-        <v>12.69</v>
+        <v>7.67</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>16</v>
-      </c>
-      <c r="B60" t="s">
-        <v>36</v>
+        <v>15</v>
       </c>
       <c r="C60" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D60">
         <v>1</v>
       </c>
       <c r="E60" t="s">
-        <v>106</v>
+        <v>108</v>
+      </c>
+      <c r="F60" t="s">
+        <v>15</v>
       </c>
       <c r="G60">
-        <v>0.2301</v>
+        <v>6.44</v>
       </c>
       <c r="H60">
-        <v>0.2301</v>
+        <v>6.44</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>17</v>
-      </c>
-      <c r="B61" t="s">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="C61" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D61">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E61" t="s">
-        <v>107</v>
+        <v>109</v>
+      </c>
+      <c r="F61" t="s">
+        <v>117</v>
       </c>
       <c r="G61">
-        <v>1.78</v>
+        <v>4.2300000000000004</v>
       </c>
       <c r="H61">
-        <v>1.78</v>
+        <v>12.69</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>18</v>
+        <v>17</v>
+      </c>
+      <c r="B62" t="s">
+        <v>36</v>
       </c>
       <c r="C62" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D62">
         <v>1</v>
       </c>
       <c r="E62" t="s">
-        <v>108</v>
-      </c>
-      <c r="F62" t="s">
-        <v>18</v>
+        <v>110</v>
       </c>
       <c r="G62">
-        <v>1</v>
+        <v>0.2301</v>
       </c>
       <c r="H62">
-        <v>1</v>
+        <v>0.2301</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B63" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C63" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D63">
         <v>1</v>
       </c>
       <c r="E63" t="s">
-        <v>109</v>
-      </c>
-      <c r="F63" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="G63">
-        <v>2.2999999999999998</v>
+        <v>1.78</v>
       </c>
       <c r="H63">
-        <v>2.2999999999999998</v>
+        <v>1.78</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C64" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D64">
         <v>1</v>
       </c>
       <c r="E64" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="F64" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G64">
-        <v>2.54</v>
+        <v>0.80242999999999998</v>
       </c>
       <c r="H64">
-        <v>2.54</v>
+        <v>0.80242999999999998</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>21</v>
+        <v>20</v>
+      </c>
+      <c r="B65" t="s">
+        <v>36</v>
       </c>
       <c r="C65" t="s">
-        <v>93</v>
+        <v>20</v>
       </c>
       <c r="D65">
         <v>1</v>
       </c>
+      <c r="E65" t="s">
+        <v>113</v>
+      </c>
+      <c r="F65" t="s">
+        <v>117</v>
+      </c>
       <c r="G65">
-        <v>7.67</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="H65">
-        <v>7.67</v>
+        <v>2.2999999999999998</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>22</v>
-      </c>
-      <c r="B66" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="C66" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D66">
         <v>1</v>
       </c>
       <c r="E66" t="s">
-        <v>111</v>
+        <v>114</v>
+      </c>
+      <c r="F66" t="s">
+        <v>21</v>
       </c>
       <c r="G66">
-        <v>2.92</v>
+        <v>1.66</v>
       </c>
       <c r="H66">
-        <v>2.92</v>
+        <v>1.66</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
+        <v>22</v>
+      </c>
+      <c r="B67" t="s">
+        <v>38</v>
+      </c>
+      <c r="C67" t="s">
+        <v>22</v>
+      </c>
+      <c r="D67">
+        <v>1</v>
+      </c>
+      <c r="E67" t="s">
+        <v>115</v>
+      </c>
+      <c r="G67">
+        <v>2.92</v>
+      </c>
+      <c r="H67">
+        <v>2.92</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
         <v>23</v>
       </c>
-      <c r="B67" t="s">
+      <c r="B68" t="s">
         <v>39</v>
       </c>
-      <c r="C67" t="s">
+      <c r="C68" t="s">
         <v>23</v>
       </c>
-      <c r="D67">
-        <v>1</v>
-      </c>
-      <c r="E67" t="s">
-        <v>112</v>
-      </c>
-      <c r="G67">
+      <c r="D68">
+        <v>1</v>
+      </c>
+      <c r="E68" t="s">
+        <v>116</v>
+      </c>
+      <c r="G68">
         <v>0.9</v>
       </c>
-      <c r="H67">
+      <c r="H68">
         <v>0.9</v>
       </c>
     </row>

--- a/PMS/Project Outputs for PMS/PMS.xlsx
+++ b/PMS/Project Outputs for PMS/PMS.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pr3de\Documents\MASA\2020-21-PCBs\PMS\Project Outputs for PMS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4BD4A335-B331-4D7D-A7A6-B15A5B09D87F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4681629F-2AC2-4D67-B190-A96E8CAF96AC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7200" yWindow="3405" windowWidth="21600" windowHeight="11385" xr2:uid="{D24AC2E5-4D69-4F47-9D68-7C6EF3866D9C}"/>
+    <workbookView xWindow="3720" yWindow="3720" windowWidth="21600" windowHeight="11385" xr2:uid="{D24AC2E5-4D69-4F47-9D68-7C6EF3866D9C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -977,10 +977,10 @@
         <v>119</v>
       </c>
       <c r="G4">
-        <v>2.7E-2</v>
+        <v>2.5700000000000001E-2</v>
       </c>
       <c r="H4">
-        <v>0.27</v>
+        <v>0.25700000000000001</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -1029,10 +1029,10 @@
         <v>121</v>
       </c>
       <c r="G6">
-        <v>5.0000000000000001E-3</v>
+        <v>9.8000000000000004E-2</v>
       </c>
       <c r="H6">
-        <v>5.0000000000000001E-3</v>
+        <v>9.8000000000000004E-2</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -1055,10 +1055,10 @@
         <v>122</v>
       </c>
       <c r="G7">
-        <v>6.25E-2</v>
+        <v>6.2100000000000002E-2</v>
       </c>
       <c r="H7">
-        <v>0.1875</v>
+        <v>0.18629999999999999</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -1107,10 +1107,10 @@
         <v>124</v>
       </c>
       <c r="G9">
-        <v>0.104</v>
+        <v>9.4E-2</v>
       </c>
       <c r="H9">
-        <v>1.25</v>
+        <v>1.1299999999999999</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
@@ -1159,10 +1159,10 @@
         <v>126</v>
       </c>
       <c r="G11">
-        <v>9.7000000000000003E-2</v>
+        <v>0.10589999999999999</v>
       </c>
       <c r="H11">
-        <v>9.7000000000000003E-2</v>
+        <v>0.10589999999999999</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
@@ -1482,10 +1482,10 @@
         <v>101</v>
       </c>
       <c r="G24">
-        <v>0.84499999999999997</v>
+        <v>0.74319999999999997</v>
       </c>
       <c r="H24">
-        <v>0.84499999999999997</v>
+        <v>0.74319999999999997</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
@@ -1545,10 +1545,10 @@
         <v>137</v>
       </c>
       <c r="G27">
-        <v>0.85</v>
+        <v>0.43490000000000001</v>
       </c>
       <c r="H27">
-        <v>1.7</v>
+        <v>0.86980000000000002</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
@@ -1617,10 +1617,10 @@
         <v>104</v>
       </c>
       <c r="G30">
-        <v>0.9</v>
+        <v>0.75860000000000005</v>
       </c>
       <c r="H30">
-        <v>0.9</v>
+        <v>0.75860000000000005</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
@@ -1654,10 +1654,10 @@
         <v>106</v>
       </c>
       <c r="G32">
-        <v>0.47970000000000002</v>
+        <v>0.47620000000000001</v>
       </c>
       <c r="H32">
-        <v>0.95940000000000003</v>
+        <v>0.95240000000000002</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
@@ -1732,10 +1732,10 @@
         <v>140</v>
       </c>
       <c r="G35">
-        <v>8.3000000000000001E-3</v>
+        <v>8.6999999999999994E-3</v>
       </c>
       <c r="H35">
-        <v>8.3000000000000004E-2</v>
+        <v>8.6999999999999994E-2</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
@@ -1758,10 +1758,10 @@
         <v>36</v>
       </c>
       <c r="G36">
-        <v>6.3299999999999995E-2</v>
+        <v>6.8900000000000003E-2</v>
       </c>
       <c r="H36">
-        <v>6.3299999999999995E-2</v>
+        <v>6.8900000000000003E-2</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
@@ -1784,10 +1784,10 @@
         <v>141</v>
       </c>
       <c r="G37">
-        <v>2.23E-2</v>
+        <v>9.2899999999999996E-2</v>
       </c>
       <c r="H37">
-        <v>2.23E-2</v>
+        <v>9.2899999999999996E-2</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
@@ -1836,10 +1836,10 @@
         <v>0</v>
       </c>
       <c r="G39">
-        <v>2E-3</v>
+        <v>0.01</v>
       </c>
       <c r="H39">
-        <v>4.0000000000000001E-3</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
@@ -1862,10 +1862,10 @@
         <v>143</v>
       </c>
       <c r="G40">
-        <v>9.4570000000000001E-2</v>
+        <v>9.5500000000000002E-2</v>
       </c>
       <c r="H40">
-        <v>9.4570000000000001E-2</v>
+        <v>9.5500000000000002E-2</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
@@ -1888,10 +1888,10 @@
         <v>144</v>
       </c>
       <c r="G41">
-        <v>4.0000000000000001E-3</v>
+        <v>1.2E-2</v>
       </c>
       <c r="H41">
-        <v>2.4E-2</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
@@ -1914,10 +1914,10 @@
         <v>100</v>
       </c>
       <c r="G42">
-        <v>4.0000000000000001E-3</v>
+        <v>1.2E-2</v>
       </c>
       <c r="H42">
-        <v>0.02</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
@@ -1940,10 +1940,10 @@
         <v>145</v>
       </c>
       <c r="G43">
-        <v>2.9000000000000001E-2</v>
+        <v>6.0999999999999999E-2</v>
       </c>
       <c r="H43">
-        <v>2.9000000000000001E-2</v>
+        <v>6.0999999999999999E-2</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
@@ -2044,10 +2044,10 @@
         <v>147</v>
       </c>
       <c r="G47">
-        <v>0.44590000000000002</v>
+        <v>0.4461</v>
       </c>
       <c r="H47">
-        <v>0.44590000000000002</v>
+        <v>0.4461</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
@@ -2148,10 +2148,10 @@
         <v>151</v>
       </c>
       <c r="G51">
-        <v>5.1499999999999997E-2</v>
+        <v>5.0900000000000001E-2</v>
       </c>
       <c r="H51">
-        <v>5.1499999999999997E-2</v>
+        <v>5.0900000000000001E-2</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
@@ -2226,10 +2226,10 @@
         <v>154</v>
       </c>
       <c r="G54">
-        <v>4.0000000000000001E-3</v>
+        <v>9.8000000000000004E-2</v>
       </c>
       <c r="H54">
-        <v>4.0000000000000001E-3</v>
+        <v>9.8000000000000004E-2</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
@@ -2252,10 +2252,10 @@
         <v>160</v>
       </c>
       <c r="G55">
-        <v>4.8500000000000001E-2</v>
+        <v>4.65E-2</v>
       </c>
       <c r="H55">
-        <v>4.8500000000000001E-2</v>
+        <v>4.65E-2</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
@@ -2442,10 +2442,10 @@
         <v>111</v>
       </c>
       <c r="G63">
-        <v>1.78</v>
+        <v>1.71</v>
       </c>
       <c r="H63">
-        <v>1.78</v>
+        <v>1.71</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.25">
@@ -2465,10 +2465,10 @@
         <v>19</v>
       </c>
       <c r="G64">
-        <v>0.80242999999999998</v>
+        <v>0.81235999999999997</v>
       </c>
       <c r="H64">
-        <v>0.80242999999999998</v>
+        <v>0.81235999999999997</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.25">

--- a/PMS/Project Outputs for PMS/PMS.xlsx
+++ b/PMS/Project Outputs for PMS/PMS.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pr3de\Documents\MASA\2020-21-PCBs\PMS\Project Outputs for PMS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4681629F-2AC2-4D67-B190-A96E8CAF96AC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{EB84C106-6F13-425A-8761-12FA959A1576}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3720" yWindow="3720" windowWidth="21600" windowHeight="11385" xr2:uid="{D24AC2E5-4D69-4F47-9D68-7C6EF3866D9C}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="371" uniqueCount="175">
   <si>
     <t>Name</t>
   </si>
@@ -51,7 +51,7 @@
     <t>Diode</t>
   </si>
   <si>
-    <t>Fuse 1</t>
+    <t>3557-2</t>
   </si>
   <si>
     <t>HSEC8-120-01-L-PV-4-1</t>
@@ -63,10 +63,13 @@
     <t>Header 2</t>
   </si>
   <si>
+    <t>Header 5</t>
+  </si>
+  <si>
     <t>Header 3</t>
   </si>
   <si>
-    <t>Header 5</t>
+    <t>SIS412DN-T1-GE3</t>
   </si>
   <si>
     <t>NMOS-2</t>
@@ -78,7 +81,7 @@
     <t>Res Thermal</t>
   </si>
   <si>
-    <t>P9221</t>
+    <t>PIC16F18325-I/JQ</t>
   </si>
   <si>
     <t>BQ24617RGET</t>
@@ -87,19 +90,22 @@
     <t>TPS54622RHLR</t>
   </si>
   <si>
+    <t>BQ29200DRBT</t>
+  </si>
+  <si>
+    <t>PIC18F25K50-I/ML</t>
+  </si>
+  <si>
+    <t>TCAN334DR</t>
+  </si>
+  <si>
     <t>D5V0L2B3W-7</t>
   </si>
   <si>
     <t>MCP2515-I/SO</t>
   </si>
   <si>
-    <t>BQ29200DRBT</t>
-  </si>
-  <si>
-    <t>TCAN334DR</t>
-  </si>
-  <si>
-    <t>PIC18F25K50-I/ML</t>
+    <t>MCP6021T-E/OT</t>
   </si>
   <si>
     <t>LSM6DSMTR</t>
@@ -120,18 +126,18 @@
     <t>Default Diode</t>
   </si>
   <si>
-    <t>Fuse</t>
+    <t>No Description Available</t>
   </si>
   <si>
     <t>Header, 2-Pin</t>
   </si>
   <si>
+    <t>Header, 5-Pin</t>
+  </si>
+  <si>
     <t>Header, 3-Pin</t>
   </si>
   <si>
-    <t>Header, 5-Pin</t>
-  </si>
-  <si>
     <t>N-Channel Power MOSFET</t>
   </si>
   <si>
@@ -144,12 +150,12 @@
     <t>Thermistor</t>
   </si>
   <si>
-    <t>No Description Available</t>
-  </si>
-  <si>
     <t>Stand-Alone CAN Controller With SPI Interface, 18-Pin SOIC, Industrial Temperature</t>
   </si>
   <si>
+    <t>Rail-to-Rail Input/Output, 10 MHz Operational Amplifier, 5-Pin SOT-23, Extended Temperature, Tape and Reel</t>
+  </si>
+  <si>
     <t>IMU ACCEL/GYRO I2C/SPI 14LGA</t>
   </si>
   <si>
@@ -159,51 +165,60 @@
     <t>Manufacturer Part Number 1</t>
   </si>
   <si>
+    <t>CC1206KKX7R0BB104</t>
+  </si>
+  <si>
+    <t>UMK325AB7106MM-T</t>
+  </si>
+  <si>
+    <t>CC0402KRX7R9BB102</t>
+  </si>
+  <si>
+    <t>CL21B473KCCWPNC</t>
+  </si>
+  <si>
+    <t>C0603C680J1GACTU</t>
+  </si>
+  <si>
+    <t>CL10B104KA8NNNC</t>
+  </si>
+  <si>
     <t>GRM155R71H104KE14J</t>
   </si>
   <si>
-    <t>CL10B104KA8NNNC</t>
+    <t>GRM155R61E105KA12D</t>
+  </si>
+  <si>
+    <t>GRM21BR61E106KA73K</t>
+  </si>
+  <si>
+    <t>GRM188R61E225KA12D</t>
   </si>
   <si>
     <t>GRM155R71H473KE14D</t>
   </si>
   <si>
-    <t>CC0402KRX7R9BB102</t>
+    <t>C0402C220K5GACTU</t>
+  </si>
+  <si>
+    <t>GRT155R61E474ME01D</t>
+  </si>
+  <si>
+    <t>GRM32ER61A107ME20K</t>
+  </si>
+  <si>
+    <t>CL05B392KB5NNNC</t>
+  </si>
+  <si>
+    <t>CL21A475KAQNNNG</t>
+  </si>
+  <si>
+    <t>TMK105BJ223KV-F</t>
   </si>
   <si>
     <t>GCM155R71H153KA55D</t>
   </si>
   <si>
-    <t>C0402C332K5RACTU</t>
-  </si>
-  <si>
-    <t>GRM21BR61E106KA73K</t>
-  </si>
-  <si>
-    <t>GRM155R61E105KA12D</t>
-  </si>
-  <si>
-    <t>GRM188R61E225KA12D</t>
-  </si>
-  <si>
-    <t>C0402C220K5GACTU</t>
-  </si>
-  <si>
-    <t>GRT155R61E474ME01D</t>
-  </si>
-  <si>
-    <t>GRM32ER61A107ME20K</t>
-  </si>
-  <si>
-    <t>CL05B392KB5NNNC</t>
-  </si>
-  <si>
-    <t>CL21A475KAQNNNG</t>
-  </si>
-  <si>
-    <t>TMK105BJ223KV-F</t>
-  </si>
-  <si>
     <t>TMK105BJ333KV-F</t>
   </si>
   <si>
@@ -216,15 +231,15 @@
     <t>150060RS75000</t>
   </si>
   <si>
+    <t>PMEG6045ETPX</t>
+  </si>
+  <si>
     <t>BAT60AE6327HTSA1</t>
   </si>
   <si>
     <t>SDM2U40CSP-7B</t>
   </si>
   <si>
-    <t>3557-2</t>
-  </si>
-  <si>
     <t>IHLP2525CZER6R8MA1</t>
   </si>
   <si>
@@ -237,45 +252,60 @@
     <t>2-1445050-3</t>
   </si>
   <si>
-    <t>SIS412DN-T1-GE3</t>
+    <t>2N7002-7-F</t>
   </si>
   <si>
     <t>RC0402FR-07470RL</t>
   </si>
   <si>
+    <t>ERJ-3EKF1102V</t>
+  </si>
+  <si>
+    <t>CRCW1206330RFKTA</t>
+  </si>
+  <si>
+    <t>SDR03EZPJ102</t>
+  </si>
+  <si>
+    <t>WSLP1206R0500FEA</t>
+  </si>
+  <si>
+    <t>RC0603FR-0720KL</t>
+  </si>
+  <si>
+    <t>ERJ-3EKF2203V</t>
+  </si>
+  <si>
+    <t>CRCW060311K3FKEA</t>
+  </si>
+  <si>
+    <t>CPF0603F10KC1</t>
+  </si>
+  <si>
+    <t>CRCW0603510RFKEA</t>
+  </si>
+  <si>
+    <t>RC0402JR-079K1L</t>
+  </si>
+  <si>
+    <t>RC0402JR-070RL</t>
+  </si>
+  <si>
+    <t>RC0402FR-072K2L</t>
+  </si>
+  <si>
+    <t>RC0402FR-07100KL</t>
+  </si>
+  <si>
+    <t>RC0402FR-07100RL</t>
+  </si>
+  <si>
+    <t>ERJ-2RKF2491X</t>
+  </si>
+  <si>
     <t>RC0402FR-0710KL</t>
   </si>
   <si>
-    <t>RC0402FR-075K1L</t>
-  </si>
-  <si>
-    <t>ERJ-P06J360V</t>
-  </si>
-  <si>
-    <t>RMCF0402FT21K0</t>
-  </si>
-  <si>
-    <t>RC0402JR-079K1L</t>
-  </si>
-  <si>
-    <t>RC0402JR-070RL</t>
-  </si>
-  <si>
-    <t>RC0402FR-072K2L</t>
-  </si>
-  <si>
-    <t>RC0402FR-07100KL</t>
-  </si>
-  <si>
-    <t>RC0402FR-07100RL</t>
-  </si>
-  <si>
-    <t>ERJ-2RKF2491X</t>
-  </si>
-  <si>
-    <t>RMCF0402FT26K1</t>
-  </si>
-  <si>
     <t>RC0805FR-072RL</t>
   </si>
   <si>
@@ -312,12 +342,12 @@
     <t>RC0402FR-07261RL</t>
   </si>
   <si>
+    <t>RC0402FR-0716KL</t>
+  </si>
+  <si>
     <t>NTCG163JF103FT1S</t>
   </si>
   <si>
-    <t>P9221-RAHGI8</t>
-  </si>
-  <si>
     <t>Quantity</t>
   </si>
   <si>
@@ -327,13 +357,19 @@
     <t>1608[0603]</t>
   </si>
   <si>
+    <t>C1206</t>
+  </si>
+  <si>
+    <t>6-0805_M</t>
+  </si>
+  <si>
+    <t>C1210</t>
+  </si>
+  <si>
     <t>0402-A</t>
   </si>
   <si>
-    <t>6-0805_M</t>
-  </si>
-  <si>
-    <t>C1210</t>
+    <t>DIO_RB050LAM_ROM</t>
   </si>
   <si>
     <t>X3-WLB1608-2</t>
@@ -348,16 +384,19 @@
     <t>IND_BOURNS_SRR1260</t>
   </si>
   <si>
+    <t>HDR1X5</t>
+  </si>
+  <si>
     <t>conn3_2-1445050-3_TEC</t>
   </si>
   <si>
-    <t>HDR1X5</t>
-  </si>
-  <si>
     <t>POWERPAK_1212-8</t>
   </si>
   <si>
-    <t>BGA52C40P6X9_264X394X65</t>
+    <t>SOT-23_M</t>
+  </si>
+  <si>
+    <t>UQFN16_JQ_MCH</t>
   </si>
   <si>
     <t>RGE24_2P45X2P45</t>
@@ -366,19 +405,22 @@
     <t>RHL0014A</t>
   </si>
   <si>
+    <t>DRB8_1P6X2P4</t>
+  </si>
+  <si>
+    <t>QFN28_6X6MC_MCH</t>
+  </si>
+  <si>
+    <t>D0008A_N</t>
+  </si>
+  <si>
     <t>SOT-323_DIO</t>
   </si>
   <si>
     <t>SOIC-SO18_L</t>
   </si>
   <si>
-    <t>DRB8_1P6X2P4</t>
-  </si>
-  <si>
-    <t>D0008A_N</t>
-  </si>
-  <si>
-    <t>QFN28_6X6MC_MCH</t>
+    <t>SOT-23-OT5_N</t>
   </si>
   <si>
     <t>FP-LGA-14L-DM00249496-MFG</t>
@@ -396,45 +438,48 @@
     <t>100nF</t>
   </si>
   <si>
+    <t>3.3nF</t>
+  </si>
+  <si>
+    <t>10uF</t>
+  </si>
+  <si>
+    <t>1nF</t>
+  </si>
+  <si>
     <t>47nF</t>
   </si>
   <si>
-    <t>1nF</t>
+    <t>68pF</t>
+  </si>
+  <si>
+    <t>1uF</t>
+  </si>
+  <si>
+    <t>2.2uF</t>
+  </si>
+  <si>
+    <t>22pF</t>
+  </si>
+  <si>
+    <t>470nF</t>
+  </si>
+  <si>
+    <t>100uF</t>
+  </si>
+  <si>
+    <t>3.9nF</t>
+  </si>
+  <si>
+    <t>4.7uF</t>
+  </si>
+  <si>
+    <t>22nF</t>
   </si>
   <si>
     <t>15nF</t>
   </si>
   <si>
-    <t>3.3nF</t>
-  </si>
-  <si>
-    <t>10uF</t>
-  </si>
-  <si>
-    <t>1uF</t>
-  </si>
-  <si>
-    <t>2.2uF</t>
-  </si>
-  <si>
-    <t>22pF</t>
-  </si>
-  <si>
-    <t>470nF</t>
-  </si>
-  <si>
-    <t>100uF</t>
-  </si>
-  <si>
-    <t>3.9nF</t>
-  </si>
-  <si>
-    <t>4.7uF</t>
-  </si>
-  <si>
-    <t>22nF</t>
-  </si>
-  <si>
     <t>33nF</t>
   </si>
   <si>
@@ -453,15 +498,24 @@
     <t>7.5uH</t>
   </si>
   <si>
+    <t>11k</t>
+  </si>
+  <si>
+    <t>1k</t>
+  </si>
+  <si>
+    <t>20k</t>
+  </si>
+  <si>
+    <t>220k</t>
+  </si>
+  <si>
+    <t>11.3k</t>
+  </si>
+  <si>
     <t>10k</t>
   </si>
   <si>
-    <t>5.1k</t>
-  </si>
-  <si>
-    <t>21k</t>
-  </si>
-  <si>
     <t>9.1k</t>
   </si>
   <si>
@@ -474,7 +528,7 @@
     <t>2.49k</t>
   </si>
   <si>
-    <t>26k</t>
+    <t>26.1k</t>
   </si>
   <si>
     <t>10m</t>
@@ -498,7 +552,7 @@
     <t>4.3k</t>
   </si>
   <si>
-    <t>20k</t>
+    <t>16k</t>
   </si>
   <si>
     <t>Supplier Unit Price 1</t>
@@ -880,7 +934,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89A74CBD-EB5E-4691-BC08-A422B7428F5D}">
-  <dimension ref="A1:H68"/>
+  <dimension ref="A1:H82"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="H6" sqref="H6"/>
@@ -893,25 +947,25 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>94</v>
+        <v>104</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>95</v>
+        <v>105</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>117</v>
+        <v>131</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>155</v>
+        <v>173</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>156</v>
+        <v>174</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -919,16 +973,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D2">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E2" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="F2" t="s">
-        <v>118</v>
+        <v>132</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -936,25 +990,25 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C3" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D3">
-        <v>22</v>
+        <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="F3" t="s">
-        <v>119</v>
+        <v>133</v>
       </c>
       <c r="G3">
-        <v>3.1E-2</v>
+        <v>0.1176</v>
       </c>
       <c r="H3">
-        <v>0.68200000000000005</v>
+        <v>0.23519999999999999</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -962,25 +1016,25 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
-      </c>
-      <c r="C4" t="s">
-        <v>42</v>
+        <v>27</v>
+      </c>
+      <c r="C4">
+        <v>885012007066</v>
       </c>
       <c r="D4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E4" t="s">
-        <v>96</v>
+        <v>108</v>
       </c>
       <c r="F4" t="s">
-        <v>119</v>
+        <v>134</v>
       </c>
       <c r="G4">
-        <v>2.5700000000000001E-2</v>
+        <v>0.19</v>
       </c>
       <c r="H4">
-        <v>0.25700000000000001</v>
+        <v>0.19</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -988,25 +1042,25 @@
         <v>1</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>97</v>
+        <v>109</v>
       </c>
       <c r="F5" t="s">
-        <v>120</v>
+        <v>135</v>
       </c>
       <c r="G5">
-        <v>3.5999999999999997E-2</v>
+        <v>0.57720000000000005</v>
       </c>
       <c r="H5">
-        <v>0.108</v>
+        <v>2.31</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -1014,25 +1068,25 @@
         <v>1</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E6" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="F6" t="s">
-        <v>121</v>
+        <v>136</v>
       </c>
       <c r="G6">
-        <v>9.8000000000000004E-2</v>
+        <v>3.5999999999999999E-3</v>
       </c>
       <c r="H6">
-        <v>9.8000000000000004E-2</v>
+        <v>7.1999999999999998E-3</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -1040,25 +1094,25 @@
         <v>1</v>
       </c>
       <c r="B7" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E7" t="s">
-        <v>97</v>
+        <v>108</v>
       </c>
       <c r="F7" t="s">
-        <v>122</v>
+        <v>137</v>
       </c>
       <c r="G7">
-        <v>6.2100000000000002E-2</v>
+        <v>1.49E-2</v>
       </c>
       <c r="H7">
-        <v>0.18629999999999999</v>
+        <v>2.98E-2</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -1066,25 +1120,25 @@
         <v>1</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E8" t="s">
-        <v>97</v>
+        <v>106</v>
       </c>
       <c r="F8" t="s">
-        <v>123</v>
+        <v>138</v>
       </c>
       <c r="G8">
-        <v>3.0000000000000001E-3</v>
+        <v>2.3E-2</v>
       </c>
       <c r="H8">
-        <v>3.0000000000000001E-3</v>
+        <v>4.5999999999999999E-2</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -1092,25 +1146,25 @@
         <v>1</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D9">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="E9" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="F9" t="s">
-        <v>124</v>
+        <v>133</v>
       </c>
       <c r="G9">
-        <v>9.4E-2</v>
+        <v>7.7000000000000002E-3</v>
       </c>
       <c r="H9">
-        <v>1.1299999999999999</v>
+        <v>4.6199999999999998E-2</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
@@ -1118,22 +1172,22 @@
         <v>1</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C10" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D10">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="E10" t="s">
-        <v>97</v>
+        <v>110</v>
       </c>
       <c r="F10" t="s">
-        <v>125</v>
+        <v>133</v>
       </c>
       <c r="G10">
-        <v>6.6000000000000003E-2</v>
+        <v>2.1999999999999999E-2</v>
       </c>
       <c r="H10">
         <v>0.33</v>
@@ -1144,25 +1198,25 @@
         <v>1</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C11" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E11" t="s">
-        <v>96</v>
+        <v>110</v>
       </c>
       <c r="F11" t="s">
-        <v>126</v>
+        <v>139</v>
       </c>
       <c r="G11">
-        <v>0.10589999999999999</v>
+        <v>2.3699999999999999E-2</v>
       </c>
       <c r="H11">
-        <v>0.10589999999999999</v>
+        <v>7.1099999999999997E-2</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
@@ -1170,25 +1224,25 @@
         <v>1</v>
       </c>
       <c r="B12" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C12" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D12">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="E12" t="s">
-        <v>97</v>
+        <v>108</v>
       </c>
       <c r="F12" t="s">
-        <v>127</v>
+        <v>135</v>
       </c>
       <c r="G12">
-        <v>0.1</v>
+        <v>7.3700000000000002E-2</v>
       </c>
       <c r="H12">
-        <v>0.1</v>
+        <v>0.51590000000000003</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
@@ -1196,25 +1250,25 @@
         <v>1</v>
       </c>
       <c r="B13" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C13" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D13">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E13" t="s">
-        <v>97</v>
+        <v>106</v>
       </c>
       <c r="F13" t="s">
-        <v>128</v>
+        <v>140</v>
       </c>
       <c r="G13">
-        <v>0.1115</v>
+        <v>0.1036</v>
       </c>
       <c r="H13">
-        <v>0.33450000000000002</v>
+        <v>0.1036</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
@@ -1222,25 +1276,25 @@
         <v>1</v>
       </c>
       <c r="B14" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C14" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D14">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E14" t="s">
-        <v>99</v>
+        <v>110</v>
       </c>
       <c r="F14" t="s">
-        <v>129</v>
+        <v>137</v>
       </c>
       <c r="G14">
-        <v>1.1000000000000001</v>
+        <v>3.5999999999999997E-2</v>
       </c>
       <c r="H14">
-        <v>3.31</v>
+        <v>3.5999999999999997E-2</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
@@ -1248,25 +1302,25 @@
         <v>1</v>
       </c>
       <c r="B15" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C15" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D15">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E15" t="s">
-        <v>97</v>
+        <v>110</v>
       </c>
       <c r="F15" t="s">
-        <v>130</v>
+        <v>141</v>
       </c>
       <c r="G15">
-        <v>5.6599999999999998E-2</v>
+        <v>0.04</v>
       </c>
       <c r="H15">
-        <v>0.16980000000000001</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
@@ -1274,25 +1328,25 @@
         <v>1</v>
       </c>
       <c r="B16" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C16" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D16">
         <v>3</v>
       </c>
       <c r="E16" t="s">
-        <v>98</v>
+        <v>110</v>
       </c>
       <c r="F16" t="s">
-        <v>131</v>
+        <v>142</v>
       </c>
       <c r="G16">
-        <v>9.6000000000000002E-2</v>
+        <v>0.1103</v>
       </c>
       <c r="H16">
-        <v>0.28799999999999998</v>
+        <v>0.33090000000000003</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
@@ -1300,25 +1354,25 @@
         <v>1</v>
       </c>
       <c r="B17" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C17" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E17" t="s">
-        <v>97</v>
+        <v>109</v>
       </c>
       <c r="F17" t="s">
-        <v>132</v>
+        <v>143</v>
       </c>
       <c r="G17">
-        <v>5.6000000000000001E-2</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="H17">
-        <v>5.6000000000000001E-2</v>
+        <v>3.31</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
@@ -1326,25 +1380,25 @@
         <v>1</v>
       </c>
       <c r="B18" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C18" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E18" t="s">
-        <v>97</v>
+        <v>110</v>
       </c>
       <c r="F18" t="s">
-        <v>133</v>
+        <v>144</v>
       </c>
       <c r="G18">
-        <v>0.1</v>
+        <v>4.8500000000000001E-2</v>
       </c>
       <c r="H18">
-        <v>0.1</v>
+        <v>0.14549999999999999</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
@@ -1352,25 +1406,25 @@
         <v>1</v>
       </c>
       <c r="B19" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C19" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E19" t="s">
-        <v>98</v>
+        <v>108</v>
       </c>
       <c r="F19" t="s">
-        <v>134</v>
+        <v>145</v>
       </c>
       <c r="G19">
-        <v>4.8599999999999997E-2</v>
+        <v>9.6000000000000002E-2</v>
       </c>
       <c r="H19">
-        <v>4.8599999999999997E-2</v>
+        <v>0.28799999999999998</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
@@ -1378,369 +1432,366 @@
         <v>1</v>
       </c>
       <c r="B20" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C20" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D20">
         <v>1</v>
       </c>
       <c r="E20" t="s">
-        <v>97</v>
+        <v>110</v>
       </c>
       <c r="F20" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
       <c r="G20">
-        <v>2.4799999999999999E-2</v>
+        <v>5.6000000000000001E-2</v>
       </c>
       <c r="H20">
-        <v>2.4799999999999999E-2</v>
+        <v>5.6000000000000001E-2</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="B21" t="s">
+        <v>27</v>
       </c>
       <c r="C21" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D21">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="E21" t="s">
-        <v>96</v>
-      </c>
-      <c r="G21">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="H21">
-        <v>0.98</v>
+        <v>110</v>
+      </c>
+      <c r="F21" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B22" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C22" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D22">
-        <v>2</v>
-      </c>
-      <c r="E22">
-        <v>425</v>
+        <v>1</v>
+      </c>
+      <c r="E22" t="s">
+        <v>110</v>
+      </c>
+      <c r="F22" t="s">
+        <v>148</v>
       </c>
       <c r="G22">
-        <v>5.0999999999999997E-2</v>
+        <v>0.1</v>
       </c>
       <c r="H22">
-        <v>0.10199999999999999</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B23" t="s">
         <v>27</v>
       </c>
       <c r="C23" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D23">
         <v>1</v>
       </c>
       <c r="E23" t="s">
-        <v>100</v>
+        <v>108</v>
+      </c>
+      <c r="F23" t="s">
+        <v>149</v>
       </c>
       <c r="G23">
-        <v>0.08</v>
+        <v>1.5599999999999999E-2</v>
       </c>
       <c r="H23">
-        <v>0.08</v>
+        <v>1.5599999999999999E-2</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B24" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C24" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D24">
         <v>1</v>
       </c>
       <c r="E24" t="s">
-        <v>101</v>
+        <v>110</v>
+      </c>
+      <c r="F24" t="s">
+        <v>150</v>
       </c>
       <c r="G24">
-        <v>0.74319999999999997</v>
+        <v>2.4299999999999999E-2</v>
       </c>
       <c r="H24">
-        <v>0.74319999999999997</v>
+        <v>2.4299999999999999E-2</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>6</v>
+        <v>2</v>
+      </c>
+      <c r="C25" t="s">
+        <v>64</v>
       </c>
       <c r="D25">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="E25" t="s">
-        <v>102</v>
+        <v>106</v>
+      </c>
+      <c r="G25">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="H25">
+        <v>0.98</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B26" t="s">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="C26" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D26">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E26" t="s">
-        <v>63</v>
-      </c>
-      <c r="F26" t="s">
-        <v>136</v>
+        <v>111</v>
       </c>
       <c r="G26">
-        <v>1.45</v>
+        <v>0.48</v>
       </c>
       <c r="H26">
-        <v>1.45</v>
+        <v>1.92</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B27" t="s">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="C27" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D27">
         <v>2</v>
       </c>
-      <c r="E27" t="s">
-        <v>103</v>
-      </c>
-      <c r="F27" t="s">
-        <v>137</v>
+      <c r="E27">
+        <v>425</v>
       </c>
       <c r="G27">
-        <v>0.43490000000000001</v>
+        <v>5.0999999999999997E-2</v>
       </c>
       <c r="H27">
-        <v>0.86980000000000002</v>
+        <v>0.10199999999999999</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B28" t="s">
-        <v>7</v>
-      </c>
-      <c r="C28">
-        <v>744771008</v>
+        <v>29</v>
+      </c>
+      <c r="C28" t="s">
+        <v>67</v>
       </c>
       <c r="D28">
         <v>1</v>
       </c>
-      <c r="E28">
-        <v>744771008</v>
-      </c>
-      <c r="F28" t="s">
-        <v>138</v>
+      <c r="E28" t="s">
+        <v>112</v>
       </c>
       <c r="G28">
-        <v>2.12</v>
+        <v>0.08</v>
       </c>
       <c r="H28">
-        <v>2.12</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B29" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C29" t="s">
-        <v>65</v>
+        <v>5</v>
       </c>
       <c r="D29">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E29" t="s">
-        <v>65</v>
+        <v>113</v>
       </c>
       <c r="G29">
-        <v>1.33</v>
+        <v>0.88</v>
       </c>
       <c r="H29">
-        <v>5.32</v>
+        <v>0.88</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>9</v>
-      </c>
-      <c r="B30" t="s">
-        <v>30</v>
-      </c>
-      <c r="C30" t="s">
-        <v>66</v>
+        <v>6</v>
       </c>
       <c r="D30">
         <v>1</v>
       </c>
       <c r="E30" t="s">
-        <v>104</v>
-      </c>
-      <c r="G30">
-        <v>0.75860000000000005</v>
-      </c>
-      <c r="H30">
-        <v>0.75860000000000005</v>
+        <v>114</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B31" t="s">
-        <v>31</v>
+        <v>7</v>
+      </c>
+      <c r="C31" t="s">
+        <v>68</v>
       </c>
       <c r="D31">
         <v>1</v>
       </c>
       <c r="E31" t="s">
-        <v>105</v>
+        <v>68</v>
+      </c>
+      <c r="F31" t="s">
+        <v>151</v>
+      </c>
+      <c r="G31">
+        <v>1.45</v>
+      </c>
+      <c r="H31">
+        <v>1.45</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B32" t="s">
-        <v>32</v>
+        <v>7</v>
       </c>
       <c r="C32" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D32">
         <v>2</v>
       </c>
       <c r="E32" t="s">
-        <v>106</v>
+        <v>115</v>
+      </c>
+      <c r="F32" t="s">
+        <v>152</v>
       </c>
       <c r="G32">
-        <v>0.47620000000000001</v>
+        <v>0.5292</v>
       </c>
       <c r="H32">
-        <v>0.95240000000000002</v>
+        <v>1.06</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="B33" t="s">
-        <v>33</v>
-      </c>
-      <c r="C33" t="s">
-        <v>68</v>
+        <v>7</v>
+      </c>
+      <c r="C33">
+        <v>744771008</v>
       </c>
       <c r="D33">
-        <v>3</v>
-      </c>
-      <c r="E33" t="s">
-        <v>96</v>
-      </c>
-      <c r="F33">
-        <v>470</v>
+        <v>1</v>
+      </c>
+      <c r="E33">
+        <v>744771008</v>
+      </c>
+      <c r="F33" t="s">
+        <v>153</v>
       </c>
       <c r="G33">
-        <v>1.2E-2</v>
+        <v>2.12</v>
       </c>
       <c r="H33">
-        <v>0.12</v>
+        <v>2.12</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B34" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C34" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D34">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="E34" t="s">
-        <v>97</v>
-      </c>
-      <c r="F34" t="s">
-        <v>139</v>
+        <v>70</v>
       </c>
       <c r="G34">
-        <v>1.2999999999999999E-2</v>
+        <v>1.33</v>
       </c>
       <c r="H34">
-        <v>0.221</v>
+        <v>3.99</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B35" t="s">
-        <v>33</v>
-      </c>
-      <c r="C35" t="s">
-        <v>70</v>
+        <v>32</v>
       </c>
       <c r="D35">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E35" t="s">
-        <v>97</v>
-      </c>
-      <c r="F35" t="s">
-        <v>140</v>
-      </c>
-      <c r="G35">
-        <v>8.6999999999999994E-3</v>
-      </c>
-      <c r="H35">
-        <v>8.6999999999999994E-2</v>
+        <v>116</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B36" t="s">
         <v>33</v>
@@ -1752,42 +1803,36 @@
         <v>1</v>
       </c>
       <c r="E36" t="s">
-        <v>98</v>
-      </c>
-      <c r="F36">
-        <v>36</v>
+        <v>117</v>
       </c>
       <c r="G36">
-        <v>6.8900000000000003E-2</v>
+        <v>0.76349999999999996</v>
       </c>
       <c r="H36">
-        <v>6.8900000000000003E-2</v>
+        <v>0.76349999999999996</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B37" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C37" t="s">
-        <v>72</v>
+        <v>11</v>
       </c>
       <c r="D37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E37" t="s">
-        <v>97</v>
-      </c>
-      <c r="F37" t="s">
-        <v>141</v>
+        <v>118</v>
       </c>
       <c r="G37">
-        <v>9.2899999999999996E-2</v>
+        <v>0.4677</v>
       </c>
       <c r="H37">
-        <v>9.2899999999999996E-2</v>
+        <v>0.93540000000000001</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
@@ -1795,519 +1840,507 @@
         <v>12</v>
       </c>
       <c r="B38" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C38" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D38">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E38" t="s">
-        <v>97</v>
-      </c>
-      <c r="F38" t="s">
-        <v>142</v>
+        <v>119</v>
       </c>
       <c r="G38">
-        <v>5.1499999999999997E-2</v>
+        <v>5.2999999999999999E-2</v>
       </c>
       <c r="H38">
-        <v>5.1499999999999997E-2</v>
+        <v>0.106</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B39" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C39" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D39">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E39" t="s">
-        <v>97</v>
+        <v>106</v>
       </c>
       <c r="F39">
-        <v>0</v>
+        <v>470</v>
       </c>
       <c r="G39">
-        <v>0.01</v>
+        <v>1.2E-2</v>
       </c>
       <c r="H39">
-        <v>0.1</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B40" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C40" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D40">
         <v>1</v>
       </c>
       <c r="E40" t="s">
-        <v>97</v>
+        <v>106</v>
       </c>
       <c r="F40" t="s">
-        <v>143</v>
+        <v>154</v>
       </c>
       <c r="G40">
-        <v>9.5500000000000002E-2</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="H40">
-        <v>9.5500000000000002E-2</v>
+        <v>4.0000000000000001E-3</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B41" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C41" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D41">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E41" t="s">
-        <v>97</v>
-      </c>
-      <c r="F41" t="s">
-        <v>144</v>
+        <v>107</v>
+      </c>
+      <c r="F41">
+        <v>330</v>
       </c>
       <c r="G41">
-        <v>1.2E-2</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="H41">
-        <v>0.12</v>
+        <v>0.14000000000000001</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B42" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C42" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D42">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E42" t="s">
-        <v>97</v>
-      </c>
-      <c r="F42">
-        <v>100</v>
+        <v>106</v>
+      </c>
+      <c r="F42" t="s">
+        <v>155</v>
       </c>
       <c r="G42">
-        <v>1.2E-2</v>
+        <v>0.1</v>
       </c>
       <c r="H42">
-        <v>0.12</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B43" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C43" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D43">
         <v>1</v>
       </c>
       <c r="E43" t="s">
-        <v>97</v>
-      </c>
-      <c r="F43" t="s">
-        <v>145</v>
+        <v>107</v>
+      </c>
+      <c r="F43">
+        <v>0.05</v>
       </c>
       <c r="G43">
-        <v>6.0999999999999999E-2</v>
+        <v>0.46</v>
       </c>
       <c r="H43">
-        <v>6.0999999999999999E-2</v>
+        <v>0.46</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B44" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C44" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D44">
         <v>1</v>
       </c>
       <c r="E44" t="s">
-        <v>97</v>
+        <v>106</v>
       </c>
       <c r="F44" t="s">
-        <v>146</v>
+        <v>156</v>
       </c>
       <c r="G44">
-        <v>0.1</v>
+        <v>3.0999999999999999E-3</v>
       </c>
       <c r="H44">
-        <v>0.1</v>
+        <v>3.0999999999999999E-3</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B45" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C45" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D45">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E45" t="s">
-        <v>98</v>
-      </c>
-      <c r="F45">
-        <v>2</v>
+        <v>106</v>
+      </c>
+      <c r="F45" t="s">
+        <v>157</v>
       </c>
       <c r="G45">
-        <v>5.0700000000000002E-2</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="H45">
-        <v>5.0700000000000002E-2</v>
+        <v>8.0000000000000002E-3</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B46" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C46" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D46">
         <v>1</v>
       </c>
       <c r="E46" t="s">
-        <v>97</v>
-      </c>
-      <c r="F46">
-        <v>10</v>
+        <v>106</v>
+      </c>
+      <c r="F46" t="s">
+        <v>158</v>
       </c>
       <c r="G46">
-        <v>9.8000000000000004E-2</v>
+        <v>1.6E-2</v>
       </c>
       <c r="H46">
-        <v>9.8000000000000004E-2</v>
+        <v>1.6E-2</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B47" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C47" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D47">
         <v>1</v>
       </c>
       <c r="E47" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="F47" t="s">
-        <v>147</v>
+        <v>159</v>
       </c>
       <c r="G47">
-        <v>0.4461</v>
+        <v>4.0599999999999997E-2</v>
       </c>
       <c r="H47">
-        <v>0.4461</v>
+        <v>4.0599999999999997E-2</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B48" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C48" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D48">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E48" t="s">
-        <v>97</v>
-      </c>
-      <c r="F48" t="s">
-        <v>148</v>
+        <v>106</v>
+      </c>
+      <c r="F48">
+        <v>510</v>
       </c>
       <c r="G48">
-        <v>5.74E-2</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="H48">
-        <v>5.74E-2</v>
+        <v>8.0000000000000002E-3</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B49" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C49" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D49">
         <v>1</v>
       </c>
       <c r="E49" t="s">
-        <v>97</v>
+        <v>110</v>
       </c>
       <c r="F49" t="s">
-        <v>149</v>
+        <v>160</v>
       </c>
       <c r="G49">
-        <v>1.6199999999999999E-2</v>
+        <v>5.1499999999999997E-2</v>
       </c>
       <c r="H49">
-        <v>1.6199999999999999E-2</v>
+        <v>5.1499999999999997E-2</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B50" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C50" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D50">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E50" t="s">
-        <v>97</v>
-      </c>
-      <c r="F50" t="s">
-        <v>150</v>
+        <v>110</v>
+      </c>
+      <c r="F50">
+        <v>0</v>
       </c>
       <c r="G50">
-        <v>4.0000000000000001E-3</v>
+        <v>1.6000000000000001E-3</v>
       </c>
       <c r="H50">
-        <v>4.0000000000000001E-3</v>
+        <v>3.2000000000000002E-3</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B51" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C51" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D51">
         <v>1</v>
       </c>
       <c r="E51" t="s">
-        <v>97</v>
+        <v>110</v>
       </c>
       <c r="F51" t="s">
-        <v>151</v>
+        <v>161</v>
       </c>
       <c r="G51">
-        <v>5.0900000000000001E-2</v>
+        <v>1.1000000000000001E-3</v>
       </c>
       <c r="H51">
-        <v>5.0900000000000001E-2</v>
+        <v>1.1000000000000001E-3</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B52" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C52" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D52">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E52" t="s">
-        <v>97</v>
+        <v>110</v>
       </c>
       <c r="F52" t="s">
-        <v>152</v>
+        <v>162</v>
       </c>
       <c r="G52">
-        <v>9.8000000000000004E-2</v>
+        <v>1.2E-2</v>
       </c>
       <c r="H52">
-        <v>9.8000000000000004E-2</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B53" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C53" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D53">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E53" t="s">
-        <v>97</v>
-      </c>
-      <c r="F53" t="s">
-        <v>153</v>
+        <v>110</v>
+      </c>
+      <c r="F53">
+        <v>100</v>
       </c>
       <c r="G53">
-        <v>9.5899999999999999E-2</v>
+        <v>1.2E-2</v>
       </c>
       <c r="H53">
-        <v>9.5899999999999999E-2</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B54" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C54" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D54">
         <v>1</v>
       </c>
       <c r="E54" t="s">
-        <v>97</v>
+        <v>110</v>
       </c>
       <c r="F54" t="s">
-        <v>154</v>
+        <v>163</v>
       </c>
       <c r="G54">
-        <v>9.8000000000000004E-2</v>
+        <v>4.8999999999999998E-3</v>
       </c>
       <c r="H54">
-        <v>9.8000000000000004E-2</v>
+        <v>4.8999999999999998E-3</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B55" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C55" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D55">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="E55" t="s">
-        <v>97</v>
-      </c>
-      <c r="F55">
-        <v>160</v>
+        <v>110</v>
+      </c>
+      <c r="F55" t="s">
+        <v>159</v>
       </c>
       <c r="G55">
-        <v>4.65E-2</v>
+        <v>1.2999999999999999E-2</v>
       </c>
       <c r="H55">
-        <v>4.65E-2</v>
+        <v>0.13</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B56" t="s">
-        <v>33</v>
-      </c>
-      <c r="C56" t="s">
-        <v>91</v>
+        <v>35</v>
       </c>
       <c r="D56">
         <v>1</v>
       </c>
       <c r="E56" t="s">
-        <v>97</v>
-      </c>
-      <c r="F56">
-        <v>260</v>
-      </c>
-      <c r="G56">
-        <v>9.5899999999999999E-2</v>
-      </c>
-      <c r="H56">
-        <v>9.5899999999999999E-2</v>
+        <v>110</v>
+      </c>
+      <c r="F56" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B57" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C57" t="s">
-        <v>68</v>
+        <v>90</v>
       </c>
       <c r="D57">
         <v>1</v>
       </c>
       <c r="E57" t="s">
-        <v>97</v>
+        <v>108</v>
       </c>
       <c r="F57">
-        <v>470</v>
+        <v>2</v>
       </c>
       <c r="G57">
-        <v>9.8000000000000004E-2</v>
+        <v>1.3100000000000001E-2</v>
       </c>
       <c r="H57">
-        <v>9.8000000000000004E-2</v>
+        <v>1.3100000000000001E-2</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
@@ -2318,99 +2351,111 @@
         <v>35</v>
       </c>
       <c r="C58" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D58">
         <v>1</v>
       </c>
       <c r="E58" t="s">
-        <v>96</v>
-      </c>
-      <c r="F58" t="s">
-        <v>139</v>
+        <v>110</v>
+      </c>
+      <c r="F58">
+        <v>10</v>
       </c>
       <c r="G58">
-        <v>0.252</v>
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="H58">
-        <v>0.252</v>
+        <v>3.0000000000000001E-3</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>14</v>
+        <v>13</v>
+      </c>
+      <c r="B59" t="s">
+        <v>35</v>
       </c>
       <c r="C59" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D59">
         <v>1</v>
       </c>
       <c r="E59" t="s">
-        <v>107</v>
+        <v>108</v>
+      </c>
+      <c r="F59" t="s">
+        <v>165</v>
       </c>
       <c r="G59">
-        <v>7.67</v>
+        <v>0.32300000000000001</v>
       </c>
       <c r="H59">
-        <v>7.67</v>
+        <v>0.32300000000000001</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>15</v>
+        <v>13</v>
+      </c>
+      <c r="B60" t="s">
+        <v>35</v>
       </c>
       <c r="C60" t="s">
-        <v>15</v>
+        <v>93</v>
       </c>
       <c r="D60">
         <v>1</v>
       </c>
       <c r="E60" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="F60" t="s">
-        <v>15</v>
+        <v>166</v>
       </c>
       <c r="G60">
-        <v>6.44</v>
+        <v>5.7700000000000001E-2</v>
       </c>
       <c r="H60">
-        <v>6.44</v>
+        <v>5.7700000000000001E-2</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>16</v>
+        <v>13</v>
+      </c>
+      <c r="B61" t="s">
+        <v>35</v>
       </c>
       <c r="C61" t="s">
-        <v>16</v>
+        <v>94</v>
       </c>
       <c r="D61">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E61" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F61" t="s">
-        <v>117</v>
+        <v>167</v>
       </c>
       <c r="G61">
-        <v>4.2300000000000004</v>
+        <v>1.61E-2</v>
       </c>
       <c r="H61">
-        <v>12.69</v>
+        <v>1.61E-2</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B62" t="s">
         <v>36</v>
       </c>
       <c r="C62" t="s">
-        <v>17</v>
+        <v>95</v>
       </c>
       <c r="D62">
         <v>1</v>
@@ -2418,151 +2463,503 @@
       <c r="E62" t="s">
         <v>110</v>
       </c>
+      <c r="F62" t="s">
+        <v>168</v>
+      </c>
       <c r="G62">
-        <v>0.2301</v>
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="H62">
-        <v>0.2301</v>
+        <v>3.0000000000000001E-3</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="B63" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C63" t="s">
-        <v>18</v>
+        <v>96</v>
       </c>
       <c r="D63">
         <v>1</v>
       </c>
       <c r="E63" t="s">
-        <v>111</v>
+        <v>110</v>
+      </c>
+      <c r="F63" t="s">
+        <v>169</v>
       </c>
       <c r="G63">
-        <v>1.71</v>
+        <v>5.1499999999999997E-2</v>
       </c>
       <c r="H63">
-        <v>1.71</v>
+        <v>5.1499999999999997E-2</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>19</v>
+        <v>13</v>
+      </c>
+      <c r="B64" t="s">
+        <v>36</v>
       </c>
       <c r="C64" t="s">
-        <v>19</v>
+        <v>97</v>
       </c>
       <c r="D64">
         <v>1</v>
       </c>
       <c r="E64" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="F64" t="s">
-        <v>19</v>
+        <v>170</v>
       </c>
       <c r="G64">
-        <v>0.81235999999999997</v>
+        <v>9.8000000000000004E-2</v>
       </c>
       <c r="H64">
-        <v>0.81235999999999997</v>
+        <v>9.8000000000000004E-2</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="B65" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C65" t="s">
-        <v>20</v>
+        <v>98</v>
       </c>
       <c r="D65">
         <v>1</v>
       </c>
       <c r="E65" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="F65" t="s">
-        <v>117</v>
+        <v>171</v>
       </c>
       <c r="G65">
-        <v>2.2999999999999998</v>
+        <v>1.8E-3</v>
       </c>
       <c r="H65">
-        <v>2.2999999999999998</v>
+        <v>1.8E-3</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>21</v>
+        <v>13</v>
+      </c>
+      <c r="B66" t="s">
+        <v>35</v>
       </c>
       <c r="C66" t="s">
-        <v>21</v>
+        <v>99</v>
       </c>
       <c r="D66">
         <v>1</v>
       </c>
       <c r="E66" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="F66" t="s">
-        <v>21</v>
+        <v>156</v>
       </c>
       <c r="G66">
-        <v>1.66</v>
+        <v>9.8000000000000004E-2</v>
       </c>
       <c r="H66">
-        <v>1.66</v>
+        <v>9.8000000000000004E-2</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="B67" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C67" t="s">
-        <v>22</v>
+        <v>100</v>
       </c>
       <c r="D67">
         <v>1</v>
       </c>
       <c r="E67" t="s">
-        <v>115</v>
+        <v>110</v>
+      </c>
+      <c r="F67">
+        <v>160</v>
       </c>
       <c r="G67">
-        <v>2.92</v>
+        <v>4.65E-2</v>
       </c>
       <c r="H67">
-        <v>2.92</v>
+        <v>4.65E-2</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
+        <v>13</v>
+      </c>
+      <c r="B68" t="s">
+        <v>35</v>
+      </c>
+      <c r="C68" t="s">
+        <v>101</v>
+      </c>
+      <c r="D68">
+        <v>1</v>
+      </c>
+      <c r="E68" t="s">
+        <v>110</v>
+      </c>
+      <c r="F68">
+        <v>260</v>
+      </c>
+      <c r="G68">
+        <v>9.5899999999999999E-2</v>
+      </c>
+      <c r="H68">
+        <v>9.5899999999999999E-2</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>13</v>
+      </c>
+      <c r="B69" t="s">
+        <v>35</v>
+      </c>
+      <c r="C69" t="s">
+        <v>73</v>
+      </c>
+      <c r="D69">
+        <v>1</v>
+      </c>
+      <c r="E69" t="s">
+        <v>110</v>
+      </c>
+      <c r="F69">
+        <v>470</v>
+      </c>
+      <c r="G69">
+        <v>9.8000000000000004E-2</v>
+      </c>
+      <c r="H69">
+        <v>9.8000000000000004E-2</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>13</v>
+      </c>
+      <c r="B70" t="s">
+        <v>35</v>
+      </c>
+      <c r="C70" t="s">
+        <v>102</v>
+      </c>
+      <c r="D70">
+        <v>1</v>
+      </c>
+      <c r="E70" t="s">
+        <v>110</v>
+      </c>
+      <c r="F70" t="s">
+        <v>172</v>
+      </c>
+      <c r="G70">
+        <v>0.1</v>
+      </c>
+      <c r="H70">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>14</v>
+      </c>
+      <c r="B71" t="s">
+        <v>37</v>
+      </c>
+      <c r="C71" t="s">
+        <v>103</v>
+      </c>
+      <c r="D71">
+        <v>1</v>
+      </c>
+      <c r="E71" t="s">
+        <v>106</v>
+      </c>
+      <c r="F71" t="s">
+        <v>159</v>
+      </c>
+      <c r="G71">
+        <v>0.26100000000000001</v>
+      </c>
+      <c r="H71">
+        <v>0.26100000000000001</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>15</v>
+      </c>
+      <c r="B72" t="s">
+        <v>30</v>
+      </c>
+      <c r="C72" t="s">
+        <v>15</v>
+      </c>
+      <c r="D72">
+        <v>1</v>
+      </c>
+      <c r="E72" t="s">
+        <v>120</v>
+      </c>
+      <c r="G72">
+        <v>1.01</v>
+      </c>
+      <c r="H72">
+        <v>1.01</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>16</v>
+      </c>
+      <c r="C73" t="s">
+        <v>16</v>
+      </c>
+      <c r="D73">
+        <v>1</v>
+      </c>
+      <c r="E73" t="s">
+        <v>121</v>
+      </c>
+      <c r="F73" t="s">
+        <v>16</v>
+      </c>
+      <c r="G73">
+        <v>3.63</v>
+      </c>
+      <c r="H73">
+        <v>3.63</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>17</v>
+      </c>
+      <c r="C74" t="s">
+        <v>17</v>
+      </c>
+      <c r="D74">
+        <v>3</v>
+      </c>
+      <c r="E74" t="s">
+        <v>122</v>
+      </c>
+      <c r="F74" t="s">
+        <v>131</v>
+      </c>
+      <c r="G74">
+        <v>4.03</v>
+      </c>
+      <c r="H74">
+        <v>12.09</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>18</v>
+      </c>
+      <c r="C75" t="s">
+        <v>18</v>
+      </c>
+      <c r="D75">
+        <v>1</v>
+      </c>
+      <c r="E75" t="s">
+        <v>123</v>
+      </c>
+      <c r="F75" t="s">
+        <v>18</v>
+      </c>
+      <c r="G75">
+        <v>0.99587000000000003</v>
+      </c>
+      <c r="H75">
+        <v>0.99587000000000003</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>19</v>
+      </c>
+      <c r="C76" t="s">
+        <v>19</v>
+      </c>
+      <c r="D76">
+        <v>1</v>
+      </c>
+      <c r="E76" t="s">
+        <v>124</v>
+      </c>
+      <c r="F76" t="s">
+        <v>19</v>
+      </c>
+      <c r="G76">
+        <v>1.66</v>
+      </c>
+      <c r="H76">
+        <v>1.66</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>20</v>
+      </c>
+      <c r="B77" t="s">
+        <v>30</v>
+      </c>
+      <c r="C77" t="s">
+        <v>20</v>
+      </c>
+      <c r="D77">
+        <v>1</v>
+      </c>
+      <c r="E77" t="s">
+        <v>125</v>
+      </c>
+      <c r="F77" t="s">
+        <v>131</v>
+      </c>
+      <c r="G77">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="H77">
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>21</v>
+      </c>
+      <c r="B78" t="s">
+        <v>30</v>
+      </c>
+      <c r="C78" t="s">
+        <v>21</v>
+      </c>
+      <c r="D78">
+        <v>1</v>
+      </c>
+      <c r="E78" t="s">
+        <v>126</v>
+      </c>
+      <c r="G78">
+        <v>0.2301</v>
+      </c>
+      <c r="H78">
+        <v>0.2301</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>22</v>
+      </c>
+      <c r="B79" t="s">
+        <v>38</v>
+      </c>
+      <c r="C79" t="s">
+        <v>22</v>
+      </c>
+      <c r="D79">
+        <v>1</v>
+      </c>
+      <c r="E79" t="s">
+        <v>127</v>
+      </c>
+      <c r="G79">
+        <v>1.79</v>
+      </c>
+      <c r="H79">
+        <v>1.79</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
         <v>23</v>
       </c>
-      <c r="B68" t="s">
+      <c r="B80" t="s">
         <v>39</v>
       </c>
-      <c r="C68" t="s">
+      <c r="C80" t="s">
         <v>23</v>
       </c>
-      <c r="D68">
-        <v>1</v>
-      </c>
-      <c r="E68" t="s">
-        <v>116</v>
-      </c>
-      <c r="G68">
+      <c r="D80">
+        <v>1</v>
+      </c>
+      <c r="E80" t="s">
+        <v>128</v>
+      </c>
+      <c r="G80">
+        <v>0.75</v>
+      </c>
+      <c r="H80">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>24</v>
+      </c>
+      <c r="B81" t="s">
+        <v>40</v>
+      </c>
+      <c r="C81" t="s">
+        <v>24</v>
+      </c>
+      <c r="D81">
+        <v>1</v>
+      </c>
+      <c r="E81" t="s">
+        <v>129</v>
+      </c>
+      <c r="G81">
+        <v>2.92</v>
+      </c>
+      <c r="H81">
+        <v>2.92</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>25</v>
+      </c>
+      <c r="B82" t="s">
+        <v>41</v>
+      </c>
+      <c r="C82" t="s">
+        <v>25</v>
+      </c>
+      <c r="D82">
+        <v>1</v>
+      </c>
+      <c r="E82" t="s">
+        <v>130</v>
+      </c>
+      <c r="G82">
         <v>0.9</v>
       </c>
-      <c r="H68">
+      <c r="H82">
         <v>0.9</v>
       </c>
     </row>

--- a/PMS/Project Outputs for PMS/PMS.xlsx
+++ b/PMS/Project Outputs for PMS/PMS.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pr3de\Documents\MASA\2020-21-PCBs\PMS\Project Outputs for PMS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EB84C106-6F13-425A-8761-12FA959A1576}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B642328D-B1F8-4C29-8045-8DF19075634A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3720" yWindow="3720" windowWidth="21600" windowHeight="11385" xr2:uid="{D24AC2E5-4D69-4F47-9D68-7C6EF3866D9C}"/>
+    <workbookView xWindow="4065" yWindow="4065" windowWidth="21600" windowHeight="11385" xr2:uid="{D24AC2E5-4D69-4F47-9D68-7C6EF3866D9C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -261,7 +261,7 @@
     <t>ERJ-3EKF1102V</t>
   </si>
   <si>
-    <t>CRCW1206330RFKTA</t>
+    <t>RC1206FR-07330RL</t>
   </si>
   <si>
     <t>SDR03EZPJ102</t>
@@ -1109,10 +1109,10 @@
         <v>137</v>
       </c>
       <c r="G7">
-        <v>1.49E-2</v>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="H7">
-        <v>2.98E-2</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -1720,10 +1720,10 @@
         <v>152</v>
       </c>
       <c r="G32">
-        <v>0.5292</v>
+        <v>0.54090000000000005</v>
       </c>
       <c r="H32">
-        <v>1.06</v>
+        <v>1.08</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
@@ -1806,10 +1806,10 @@
         <v>117</v>
       </c>
       <c r="G36">
-        <v>0.76349999999999996</v>
+        <v>0.76859999999999995</v>
       </c>
       <c r="H36">
-        <v>0.76349999999999996</v>
+        <v>0.76859999999999995</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
@@ -1930,10 +1930,10 @@
         <v>330</v>
       </c>
       <c r="G41">
-        <v>0.14000000000000001</v>
+        <v>9.1000000000000004E-3</v>
       </c>
       <c r="H41">
-        <v>0.14000000000000001</v>
+        <v>9.1000000000000004E-3</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
@@ -2112,10 +2112,10 @@
         <v>510</v>
       </c>
       <c r="G48">
-        <v>4.0000000000000001E-3</v>
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="H48">
-        <v>8.0000000000000002E-3</v>
+        <v>6.0000000000000001E-3</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
@@ -2623,10 +2623,10 @@
         <v>260</v>
       </c>
       <c r="G68">
-        <v>9.5899999999999999E-2</v>
+        <v>0.1</v>
       </c>
       <c r="H68">
-        <v>9.5899999999999999E-2</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.25">
@@ -2793,10 +2793,10 @@
         <v>18</v>
       </c>
       <c r="G75">
-        <v>0.99587000000000003</v>
+        <v>0.99317999999999995</v>
       </c>
       <c r="H75">
-        <v>0.99587000000000003</v>
+        <v>0.99317999999999995</v>
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.25">

--- a/PMS/Project Outputs for PMS/PMS.xlsx
+++ b/PMS/Project Outputs for PMS/PMS.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pr3de\Documents\MASA\2020-21-PCBs\PMS\Project Outputs for PMS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4681629F-2AC2-4D67-B190-A96E8CAF96AC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B642328D-B1F8-4C29-8045-8DF19075634A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3720" yWindow="3720" windowWidth="21600" windowHeight="11385" xr2:uid="{D24AC2E5-4D69-4F47-9D68-7C6EF3866D9C}"/>
+    <workbookView xWindow="4065" yWindow="4065" windowWidth="21600" windowHeight="11385" xr2:uid="{D24AC2E5-4D69-4F47-9D68-7C6EF3866D9C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="371" uniqueCount="175">
   <si>
     <t>Name</t>
   </si>
@@ -51,7 +51,7 @@
     <t>Diode</t>
   </si>
   <si>
-    <t>Fuse 1</t>
+    <t>3557-2</t>
   </si>
   <si>
     <t>HSEC8-120-01-L-PV-4-1</t>
@@ -63,10 +63,13 @@
     <t>Header 2</t>
   </si>
   <si>
+    <t>Header 5</t>
+  </si>
+  <si>
     <t>Header 3</t>
   </si>
   <si>
-    <t>Header 5</t>
+    <t>SIS412DN-T1-GE3</t>
   </si>
   <si>
     <t>NMOS-2</t>
@@ -78,7 +81,7 @@
     <t>Res Thermal</t>
   </si>
   <si>
-    <t>P9221</t>
+    <t>PIC16F18325-I/JQ</t>
   </si>
   <si>
     <t>BQ24617RGET</t>
@@ -87,19 +90,22 @@
     <t>TPS54622RHLR</t>
   </si>
   <si>
+    <t>BQ29200DRBT</t>
+  </si>
+  <si>
+    <t>PIC18F25K50-I/ML</t>
+  </si>
+  <si>
+    <t>TCAN334DR</t>
+  </si>
+  <si>
     <t>D5V0L2B3W-7</t>
   </si>
   <si>
     <t>MCP2515-I/SO</t>
   </si>
   <si>
-    <t>BQ29200DRBT</t>
-  </si>
-  <si>
-    <t>TCAN334DR</t>
-  </si>
-  <si>
-    <t>PIC18F25K50-I/ML</t>
+    <t>MCP6021T-E/OT</t>
   </si>
   <si>
     <t>LSM6DSMTR</t>
@@ -120,18 +126,18 @@
     <t>Default Diode</t>
   </si>
   <si>
-    <t>Fuse</t>
+    <t>No Description Available</t>
   </si>
   <si>
     <t>Header, 2-Pin</t>
   </si>
   <si>
+    <t>Header, 5-Pin</t>
+  </si>
+  <si>
     <t>Header, 3-Pin</t>
   </si>
   <si>
-    <t>Header, 5-Pin</t>
-  </si>
-  <si>
     <t>N-Channel Power MOSFET</t>
   </si>
   <si>
@@ -144,12 +150,12 @@
     <t>Thermistor</t>
   </si>
   <si>
-    <t>No Description Available</t>
-  </si>
-  <si>
     <t>Stand-Alone CAN Controller With SPI Interface, 18-Pin SOIC, Industrial Temperature</t>
   </si>
   <si>
+    <t>Rail-to-Rail Input/Output, 10 MHz Operational Amplifier, 5-Pin SOT-23, Extended Temperature, Tape and Reel</t>
+  </si>
+  <si>
     <t>IMU ACCEL/GYRO I2C/SPI 14LGA</t>
   </si>
   <si>
@@ -159,51 +165,60 @@
     <t>Manufacturer Part Number 1</t>
   </si>
   <si>
+    <t>CC1206KKX7R0BB104</t>
+  </si>
+  <si>
+    <t>UMK325AB7106MM-T</t>
+  </si>
+  <si>
+    <t>CC0402KRX7R9BB102</t>
+  </si>
+  <si>
+    <t>CL21B473KCCWPNC</t>
+  </si>
+  <si>
+    <t>C0603C680J1GACTU</t>
+  </si>
+  <si>
+    <t>CL10B104KA8NNNC</t>
+  </si>
+  <si>
     <t>GRM155R71H104KE14J</t>
   </si>
   <si>
-    <t>CL10B104KA8NNNC</t>
+    <t>GRM155R61E105KA12D</t>
+  </si>
+  <si>
+    <t>GRM21BR61E106KA73K</t>
+  </si>
+  <si>
+    <t>GRM188R61E225KA12D</t>
   </si>
   <si>
     <t>GRM155R71H473KE14D</t>
   </si>
   <si>
-    <t>CC0402KRX7R9BB102</t>
+    <t>C0402C220K5GACTU</t>
+  </si>
+  <si>
+    <t>GRT155R61E474ME01D</t>
+  </si>
+  <si>
+    <t>GRM32ER61A107ME20K</t>
+  </si>
+  <si>
+    <t>CL05B392KB5NNNC</t>
+  </si>
+  <si>
+    <t>CL21A475KAQNNNG</t>
+  </si>
+  <si>
+    <t>TMK105BJ223KV-F</t>
   </si>
   <si>
     <t>GCM155R71H153KA55D</t>
   </si>
   <si>
-    <t>C0402C332K5RACTU</t>
-  </si>
-  <si>
-    <t>GRM21BR61E106KA73K</t>
-  </si>
-  <si>
-    <t>GRM155R61E105KA12D</t>
-  </si>
-  <si>
-    <t>GRM188R61E225KA12D</t>
-  </si>
-  <si>
-    <t>C0402C220K5GACTU</t>
-  </si>
-  <si>
-    <t>GRT155R61E474ME01D</t>
-  </si>
-  <si>
-    <t>GRM32ER61A107ME20K</t>
-  </si>
-  <si>
-    <t>CL05B392KB5NNNC</t>
-  </si>
-  <si>
-    <t>CL21A475KAQNNNG</t>
-  </si>
-  <si>
-    <t>TMK105BJ223KV-F</t>
-  </si>
-  <si>
     <t>TMK105BJ333KV-F</t>
   </si>
   <si>
@@ -216,15 +231,15 @@
     <t>150060RS75000</t>
   </si>
   <si>
+    <t>PMEG6045ETPX</t>
+  </si>
+  <si>
     <t>BAT60AE6327HTSA1</t>
   </si>
   <si>
     <t>SDM2U40CSP-7B</t>
   </si>
   <si>
-    <t>3557-2</t>
-  </si>
-  <si>
     <t>IHLP2525CZER6R8MA1</t>
   </si>
   <si>
@@ -237,45 +252,60 @@
     <t>2-1445050-3</t>
   </si>
   <si>
-    <t>SIS412DN-T1-GE3</t>
+    <t>2N7002-7-F</t>
   </si>
   <si>
     <t>RC0402FR-07470RL</t>
   </si>
   <si>
+    <t>ERJ-3EKF1102V</t>
+  </si>
+  <si>
+    <t>RC1206FR-07330RL</t>
+  </si>
+  <si>
+    <t>SDR03EZPJ102</t>
+  </si>
+  <si>
+    <t>WSLP1206R0500FEA</t>
+  </si>
+  <si>
+    <t>RC0603FR-0720KL</t>
+  </si>
+  <si>
+    <t>ERJ-3EKF2203V</t>
+  </si>
+  <si>
+    <t>CRCW060311K3FKEA</t>
+  </si>
+  <si>
+    <t>CPF0603F10KC1</t>
+  </si>
+  <si>
+    <t>CRCW0603510RFKEA</t>
+  </si>
+  <si>
+    <t>RC0402JR-079K1L</t>
+  </si>
+  <si>
+    <t>RC0402JR-070RL</t>
+  </si>
+  <si>
+    <t>RC0402FR-072K2L</t>
+  </si>
+  <si>
+    <t>RC0402FR-07100KL</t>
+  </si>
+  <si>
+    <t>RC0402FR-07100RL</t>
+  </si>
+  <si>
+    <t>ERJ-2RKF2491X</t>
+  </si>
+  <si>
     <t>RC0402FR-0710KL</t>
   </si>
   <si>
-    <t>RC0402FR-075K1L</t>
-  </si>
-  <si>
-    <t>ERJ-P06J360V</t>
-  </si>
-  <si>
-    <t>RMCF0402FT21K0</t>
-  </si>
-  <si>
-    <t>RC0402JR-079K1L</t>
-  </si>
-  <si>
-    <t>RC0402JR-070RL</t>
-  </si>
-  <si>
-    <t>RC0402FR-072K2L</t>
-  </si>
-  <si>
-    <t>RC0402FR-07100KL</t>
-  </si>
-  <si>
-    <t>RC0402FR-07100RL</t>
-  </si>
-  <si>
-    <t>ERJ-2RKF2491X</t>
-  </si>
-  <si>
-    <t>RMCF0402FT26K1</t>
-  </si>
-  <si>
     <t>RC0805FR-072RL</t>
   </si>
   <si>
@@ -312,12 +342,12 @@
     <t>RC0402FR-07261RL</t>
   </si>
   <si>
+    <t>RC0402FR-0716KL</t>
+  </si>
+  <si>
     <t>NTCG163JF103FT1S</t>
   </si>
   <si>
-    <t>P9221-RAHGI8</t>
-  </si>
-  <si>
     <t>Quantity</t>
   </si>
   <si>
@@ -327,13 +357,19 @@
     <t>1608[0603]</t>
   </si>
   <si>
+    <t>C1206</t>
+  </si>
+  <si>
+    <t>6-0805_M</t>
+  </si>
+  <si>
+    <t>C1210</t>
+  </si>
+  <si>
     <t>0402-A</t>
   </si>
   <si>
-    <t>6-0805_M</t>
-  </si>
-  <si>
-    <t>C1210</t>
+    <t>DIO_RB050LAM_ROM</t>
   </si>
   <si>
     <t>X3-WLB1608-2</t>
@@ -348,16 +384,19 @@
     <t>IND_BOURNS_SRR1260</t>
   </si>
   <si>
+    <t>HDR1X5</t>
+  </si>
+  <si>
     <t>conn3_2-1445050-3_TEC</t>
   </si>
   <si>
-    <t>HDR1X5</t>
-  </si>
-  <si>
     <t>POWERPAK_1212-8</t>
   </si>
   <si>
-    <t>BGA52C40P6X9_264X394X65</t>
+    <t>SOT-23_M</t>
+  </si>
+  <si>
+    <t>UQFN16_JQ_MCH</t>
   </si>
   <si>
     <t>RGE24_2P45X2P45</t>
@@ -366,19 +405,22 @@
     <t>RHL0014A</t>
   </si>
   <si>
+    <t>DRB8_1P6X2P4</t>
+  </si>
+  <si>
+    <t>QFN28_6X6MC_MCH</t>
+  </si>
+  <si>
+    <t>D0008A_N</t>
+  </si>
+  <si>
     <t>SOT-323_DIO</t>
   </si>
   <si>
     <t>SOIC-SO18_L</t>
   </si>
   <si>
-    <t>DRB8_1P6X2P4</t>
-  </si>
-  <si>
-    <t>D0008A_N</t>
-  </si>
-  <si>
-    <t>QFN28_6X6MC_MCH</t>
+    <t>SOT-23-OT5_N</t>
   </si>
   <si>
     <t>FP-LGA-14L-DM00249496-MFG</t>
@@ -396,45 +438,48 @@
     <t>100nF</t>
   </si>
   <si>
+    <t>3.3nF</t>
+  </si>
+  <si>
+    <t>10uF</t>
+  </si>
+  <si>
+    <t>1nF</t>
+  </si>
+  <si>
     <t>47nF</t>
   </si>
   <si>
-    <t>1nF</t>
+    <t>68pF</t>
+  </si>
+  <si>
+    <t>1uF</t>
+  </si>
+  <si>
+    <t>2.2uF</t>
+  </si>
+  <si>
+    <t>22pF</t>
+  </si>
+  <si>
+    <t>470nF</t>
+  </si>
+  <si>
+    <t>100uF</t>
+  </si>
+  <si>
+    <t>3.9nF</t>
+  </si>
+  <si>
+    <t>4.7uF</t>
+  </si>
+  <si>
+    <t>22nF</t>
   </si>
   <si>
     <t>15nF</t>
   </si>
   <si>
-    <t>3.3nF</t>
-  </si>
-  <si>
-    <t>10uF</t>
-  </si>
-  <si>
-    <t>1uF</t>
-  </si>
-  <si>
-    <t>2.2uF</t>
-  </si>
-  <si>
-    <t>22pF</t>
-  </si>
-  <si>
-    <t>470nF</t>
-  </si>
-  <si>
-    <t>100uF</t>
-  </si>
-  <si>
-    <t>3.9nF</t>
-  </si>
-  <si>
-    <t>4.7uF</t>
-  </si>
-  <si>
-    <t>22nF</t>
-  </si>
-  <si>
     <t>33nF</t>
   </si>
   <si>
@@ -453,15 +498,24 @@
     <t>7.5uH</t>
   </si>
   <si>
+    <t>11k</t>
+  </si>
+  <si>
+    <t>1k</t>
+  </si>
+  <si>
+    <t>20k</t>
+  </si>
+  <si>
+    <t>220k</t>
+  </si>
+  <si>
+    <t>11.3k</t>
+  </si>
+  <si>
     <t>10k</t>
   </si>
   <si>
-    <t>5.1k</t>
-  </si>
-  <si>
-    <t>21k</t>
-  </si>
-  <si>
     <t>9.1k</t>
   </si>
   <si>
@@ -474,7 +528,7 @@
     <t>2.49k</t>
   </si>
   <si>
-    <t>26k</t>
+    <t>26.1k</t>
   </si>
   <si>
     <t>10m</t>
@@ -498,7 +552,7 @@
     <t>4.3k</t>
   </si>
   <si>
-    <t>20k</t>
+    <t>16k</t>
   </si>
   <si>
     <t>Supplier Unit Price 1</t>
@@ -880,7 +934,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89A74CBD-EB5E-4691-BC08-A422B7428F5D}">
-  <dimension ref="A1:H68"/>
+  <dimension ref="A1:H82"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="H6" sqref="H6"/>
@@ -893,25 +947,25 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>94</v>
+        <v>104</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>95</v>
+        <v>105</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>117</v>
+        <v>131</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>155</v>
+        <v>173</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>156</v>
+        <v>174</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -919,16 +973,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D2">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E2" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="F2" t="s">
-        <v>118</v>
+        <v>132</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -936,25 +990,25 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C3" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D3">
-        <v>22</v>
+        <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="F3" t="s">
-        <v>119</v>
+        <v>133</v>
       </c>
       <c r="G3">
-        <v>3.1E-2</v>
+        <v>0.1176</v>
       </c>
       <c r="H3">
-        <v>0.68200000000000005</v>
+        <v>0.23519999999999999</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -962,25 +1016,25 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
-      </c>
-      <c r="C4" t="s">
-        <v>42</v>
+        <v>27</v>
+      </c>
+      <c r="C4">
+        <v>885012007066</v>
       </c>
       <c r="D4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E4" t="s">
-        <v>96</v>
+        <v>108</v>
       </c>
       <c r="F4" t="s">
-        <v>119</v>
+        <v>134</v>
       </c>
       <c r="G4">
-        <v>2.5700000000000001E-2</v>
+        <v>0.19</v>
       </c>
       <c r="H4">
-        <v>0.25700000000000001</v>
+        <v>0.19</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -988,25 +1042,25 @@
         <v>1</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>97</v>
+        <v>109</v>
       </c>
       <c r="F5" t="s">
-        <v>120</v>
+        <v>135</v>
       </c>
       <c r="G5">
-        <v>3.5999999999999997E-2</v>
+        <v>0.57720000000000005</v>
       </c>
       <c r="H5">
-        <v>0.108</v>
+        <v>2.31</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -1014,25 +1068,25 @@
         <v>1</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E6" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="F6" t="s">
-        <v>121</v>
+        <v>136</v>
       </c>
       <c r="G6">
-        <v>9.8000000000000004E-2</v>
+        <v>3.5999999999999999E-3</v>
       </c>
       <c r="H6">
-        <v>9.8000000000000004E-2</v>
+        <v>7.1999999999999998E-3</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -1040,25 +1094,25 @@
         <v>1</v>
       </c>
       <c r="B7" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E7" t="s">
-        <v>97</v>
+        <v>108</v>
       </c>
       <c r="F7" t="s">
-        <v>122</v>
+        <v>137</v>
       </c>
       <c r="G7">
-        <v>6.2100000000000002E-2</v>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="H7">
-        <v>0.18629999999999999</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -1066,25 +1120,25 @@
         <v>1</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E8" t="s">
-        <v>97</v>
+        <v>106</v>
       </c>
       <c r="F8" t="s">
-        <v>123</v>
+        <v>138</v>
       </c>
       <c r="G8">
-        <v>3.0000000000000001E-3</v>
+        <v>2.3E-2</v>
       </c>
       <c r="H8">
-        <v>3.0000000000000001E-3</v>
+        <v>4.5999999999999999E-2</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -1092,25 +1146,25 @@
         <v>1</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D9">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="E9" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="F9" t="s">
-        <v>124</v>
+        <v>133</v>
       </c>
       <c r="G9">
-        <v>9.4E-2</v>
+        <v>7.7000000000000002E-3</v>
       </c>
       <c r="H9">
-        <v>1.1299999999999999</v>
+        <v>4.6199999999999998E-2</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
@@ -1118,22 +1172,22 @@
         <v>1</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C10" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D10">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="E10" t="s">
-        <v>97</v>
+        <v>110</v>
       </c>
       <c r="F10" t="s">
-        <v>125</v>
+        <v>133</v>
       </c>
       <c r="G10">
-        <v>6.6000000000000003E-2</v>
+        <v>2.1999999999999999E-2</v>
       </c>
       <c r="H10">
         <v>0.33</v>
@@ -1144,25 +1198,25 @@
         <v>1</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C11" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E11" t="s">
-        <v>96</v>
+        <v>110</v>
       </c>
       <c r="F11" t="s">
-        <v>126</v>
+        <v>139</v>
       </c>
       <c r="G11">
-        <v>0.10589999999999999</v>
+        <v>2.3699999999999999E-2</v>
       </c>
       <c r="H11">
-        <v>0.10589999999999999</v>
+        <v>7.1099999999999997E-2</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
@@ -1170,25 +1224,25 @@
         <v>1</v>
       </c>
       <c r="B12" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C12" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D12">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="E12" t="s">
-        <v>97</v>
+        <v>108</v>
       </c>
       <c r="F12" t="s">
-        <v>127</v>
+        <v>135</v>
       </c>
       <c r="G12">
-        <v>0.1</v>
+        <v>7.3700000000000002E-2</v>
       </c>
       <c r="H12">
-        <v>0.1</v>
+        <v>0.51590000000000003</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
@@ -1196,25 +1250,25 @@
         <v>1</v>
       </c>
       <c r="B13" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C13" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D13">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E13" t="s">
-        <v>97</v>
+        <v>106</v>
       </c>
       <c r="F13" t="s">
-        <v>128</v>
+        <v>140</v>
       </c>
       <c r="G13">
-        <v>0.1115</v>
+        <v>0.1036</v>
       </c>
       <c r="H13">
-        <v>0.33450000000000002</v>
+        <v>0.1036</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
@@ -1222,25 +1276,25 @@
         <v>1</v>
       </c>
       <c r="B14" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C14" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D14">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E14" t="s">
-        <v>99</v>
+        <v>110</v>
       </c>
       <c r="F14" t="s">
-        <v>129</v>
+        <v>137</v>
       </c>
       <c r="G14">
-        <v>1.1000000000000001</v>
+        <v>3.5999999999999997E-2</v>
       </c>
       <c r="H14">
-        <v>3.31</v>
+        <v>3.5999999999999997E-2</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
@@ -1248,25 +1302,25 @@
         <v>1</v>
       </c>
       <c r="B15" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C15" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D15">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E15" t="s">
-        <v>97</v>
+        <v>110</v>
       </c>
       <c r="F15" t="s">
-        <v>130</v>
+        <v>141</v>
       </c>
       <c r="G15">
-        <v>5.6599999999999998E-2</v>
+        <v>0.04</v>
       </c>
       <c r="H15">
-        <v>0.16980000000000001</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
@@ -1274,25 +1328,25 @@
         <v>1</v>
       </c>
       <c r="B16" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C16" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D16">
         <v>3</v>
       </c>
       <c r="E16" t="s">
-        <v>98</v>
+        <v>110</v>
       </c>
       <c r="F16" t="s">
-        <v>131</v>
+        <v>142</v>
       </c>
       <c r="G16">
-        <v>9.6000000000000002E-2</v>
+        <v>0.1103</v>
       </c>
       <c r="H16">
-        <v>0.28799999999999998</v>
+        <v>0.33090000000000003</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
@@ -1300,25 +1354,25 @@
         <v>1</v>
       </c>
       <c r="B17" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C17" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E17" t="s">
-        <v>97</v>
+        <v>109</v>
       </c>
       <c r="F17" t="s">
-        <v>132</v>
+        <v>143</v>
       </c>
       <c r="G17">
-        <v>5.6000000000000001E-2</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="H17">
-        <v>5.6000000000000001E-2</v>
+        <v>3.31</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
@@ -1326,25 +1380,25 @@
         <v>1</v>
       </c>
       <c r="B18" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C18" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E18" t="s">
-        <v>97</v>
+        <v>110</v>
       </c>
       <c r="F18" t="s">
-        <v>133</v>
+        <v>144</v>
       </c>
       <c r="G18">
-        <v>0.1</v>
+        <v>4.8500000000000001E-2</v>
       </c>
       <c r="H18">
-        <v>0.1</v>
+        <v>0.14549999999999999</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
@@ -1352,25 +1406,25 @@
         <v>1</v>
       </c>
       <c r="B19" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C19" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E19" t="s">
-        <v>98</v>
+        <v>108</v>
       </c>
       <c r="F19" t="s">
-        <v>134</v>
+        <v>145</v>
       </c>
       <c r="G19">
-        <v>4.8599999999999997E-2</v>
+        <v>9.6000000000000002E-2</v>
       </c>
       <c r="H19">
-        <v>4.8599999999999997E-2</v>
+        <v>0.28799999999999998</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
@@ -1378,369 +1432,366 @@
         <v>1</v>
       </c>
       <c r="B20" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C20" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D20">
         <v>1</v>
       </c>
       <c r="E20" t="s">
-        <v>97</v>
+        <v>110</v>
       </c>
       <c r="F20" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
       <c r="G20">
-        <v>2.4799999999999999E-2</v>
+        <v>5.6000000000000001E-2</v>
       </c>
       <c r="H20">
-        <v>2.4799999999999999E-2</v>
+        <v>5.6000000000000001E-2</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="B21" t="s">
+        <v>27</v>
       </c>
       <c r="C21" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D21">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="E21" t="s">
-        <v>96</v>
-      </c>
-      <c r="G21">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="H21">
-        <v>0.98</v>
+        <v>110</v>
+      </c>
+      <c r="F21" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B22" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C22" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D22">
-        <v>2</v>
-      </c>
-      <c r="E22">
-        <v>425</v>
+        <v>1</v>
+      </c>
+      <c r="E22" t="s">
+        <v>110</v>
+      </c>
+      <c r="F22" t="s">
+        <v>148</v>
       </c>
       <c r="G22">
-        <v>5.0999999999999997E-2</v>
+        <v>0.1</v>
       </c>
       <c r="H22">
-        <v>0.10199999999999999</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B23" t="s">
         <v>27</v>
       </c>
       <c r="C23" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D23">
         <v>1</v>
       </c>
       <c r="E23" t="s">
-        <v>100</v>
+        <v>108</v>
+      </c>
+      <c r="F23" t="s">
+        <v>149</v>
       </c>
       <c r="G23">
-        <v>0.08</v>
+        <v>1.5599999999999999E-2</v>
       </c>
       <c r="H23">
-        <v>0.08</v>
+        <v>1.5599999999999999E-2</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B24" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C24" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D24">
         <v>1</v>
       </c>
       <c r="E24" t="s">
-        <v>101</v>
+        <v>110</v>
+      </c>
+      <c r="F24" t="s">
+        <v>150</v>
       </c>
       <c r="G24">
-        <v>0.74319999999999997</v>
+        <v>2.4299999999999999E-2</v>
       </c>
       <c r="H24">
-        <v>0.74319999999999997</v>
+        <v>2.4299999999999999E-2</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>6</v>
+        <v>2</v>
+      </c>
+      <c r="C25" t="s">
+        <v>64</v>
       </c>
       <c r="D25">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="E25" t="s">
-        <v>102</v>
+        <v>106</v>
+      </c>
+      <c r="G25">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="H25">
+        <v>0.98</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B26" t="s">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="C26" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D26">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E26" t="s">
-        <v>63</v>
-      </c>
-      <c r="F26" t="s">
-        <v>136</v>
+        <v>111</v>
       </c>
       <c r="G26">
-        <v>1.45</v>
+        <v>0.48</v>
       </c>
       <c r="H26">
-        <v>1.45</v>
+        <v>1.92</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B27" t="s">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="C27" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D27">
         <v>2</v>
       </c>
-      <c r="E27" t="s">
-        <v>103</v>
-      </c>
-      <c r="F27" t="s">
-        <v>137</v>
+      <c r="E27">
+        <v>425</v>
       </c>
       <c r="G27">
-        <v>0.43490000000000001</v>
+        <v>5.0999999999999997E-2</v>
       </c>
       <c r="H27">
-        <v>0.86980000000000002</v>
+        <v>0.10199999999999999</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B28" t="s">
-        <v>7</v>
-      </c>
-      <c r="C28">
-        <v>744771008</v>
+        <v>29</v>
+      </c>
+      <c r="C28" t="s">
+        <v>67</v>
       </c>
       <c r="D28">
         <v>1</v>
       </c>
-      <c r="E28">
-        <v>744771008</v>
-      </c>
-      <c r="F28" t="s">
-        <v>138</v>
+      <c r="E28" t="s">
+        <v>112</v>
       </c>
       <c r="G28">
-        <v>2.12</v>
+        <v>0.08</v>
       </c>
       <c r="H28">
-        <v>2.12</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B29" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C29" t="s">
-        <v>65</v>
+        <v>5</v>
       </c>
       <c r="D29">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E29" t="s">
-        <v>65</v>
+        <v>113</v>
       </c>
       <c r="G29">
-        <v>1.33</v>
+        <v>0.88</v>
       </c>
       <c r="H29">
-        <v>5.32</v>
+        <v>0.88</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>9</v>
-      </c>
-      <c r="B30" t="s">
-        <v>30</v>
-      </c>
-      <c r="C30" t="s">
-        <v>66</v>
+        <v>6</v>
       </c>
       <c r="D30">
         <v>1</v>
       </c>
       <c r="E30" t="s">
-        <v>104</v>
-      </c>
-      <c r="G30">
-        <v>0.75860000000000005</v>
-      </c>
-      <c r="H30">
-        <v>0.75860000000000005</v>
+        <v>114</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B31" t="s">
-        <v>31</v>
+        <v>7</v>
+      </c>
+      <c r="C31" t="s">
+        <v>68</v>
       </c>
       <c r="D31">
         <v>1</v>
       </c>
       <c r="E31" t="s">
-        <v>105</v>
+        <v>68</v>
+      </c>
+      <c r="F31" t="s">
+        <v>151</v>
+      </c>
+      <c r="G31">
+        <v>1.45</v>
+      </c>
+      <c r="H31">
+        <v>1.45</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B32" t="s">
-        <v>32</v>
+        <v>7</v>
       </c>
       <c r="C32" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D32">
         <v>2</v>
       </c>
       <c r="E32" t="s">
-        <v>106</v>
+        <v>115</v>
+      </c>
+      <c r="F32" t="s">
+        <v>152</v>
       </c>
       <c r="G32">
-        <v>0.47620000000000001</v>
+        <v>0.54090000000000005</v>
       </c>
       <c r="H32">
-        <v>0.95240000000000002</v>
+        <v>1.08</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="B33" t="s">
-        <v>33</v>
-      </c>
-      <c r="C33" t="s">
-        <v>68</v>
+        <v>7</v>
+      </c>
+      <c r="C33">
+        <v>744771008</v>
       </c>
       <c r="D33">
-        <v>3</v>
-      </c>
-      <c r="E33" t="s">
-        <v>96</v>
-      </c>
-      <c r="F33">
-        <v>470</v>
+        <v>1</v>
+      </c>
+      <c r="E33">
+        <v>744771008</v>
+      </c>
+      <c r="F33" t="s">
+        <v>153</v>
       </c>
       <c r="G33">
-        <v>1.2E-2</v>
+        <v>2.12</v>
       </c>
       <c r="H33">
-        <v>0.12</v>
+        <v>2.12</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B34" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C34" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D34">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="E34" t="s">
-        <v>97</v>
-      </c>
-      <c r="F34" t="s">
-        <v>139</v>
+        <v>70</v>
       </c>
       <c r="G34">
-        <v>1.2999999999999999E-2</v>
+        <v>1.33</v>
       </c>
       <c r="H34">
-        <v>0.221</v>
+        <v>3.99</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B35" t="s">
-        <v>33</v>
-      </c>
-      <c r="C35" t="s">
-        <v>70</v>
+        <v>32</v>
       </c>
       <c r="D35">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E35" t="s">
-        <v>97</v>
-      </c>
-      <c r="F35" t="s">
-        <v>140</v>
-      </c>
-      <c r="G35">
-        <v>8.6999999999999994E-3</v>
-      </c>
-      <c r="H35">
-        <v>8.6999999999999994E-2</v>
+        <v>116</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B36" t="s">
         <v>33</v>
@@ -1752,42 +1803,36 @@
         <v>1</v>
       </c>
       <c r="E36" t="s">
-        <v>98</v>
-      </c>
-      <c r="F36">
-        <v>36</v>
+        <v>117</v>
       </c>
       <c r="G36">
-        <v>6.8900000000000003E-2</v>
+        <v>0.76859999999999995</v>
       </c>
       <c r="H36">
-        <v>6.8900000000000003E-2</v>
+        <v>0.76859999999999995</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B37" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C37" t="s">
-        <v>72</v>
+        <v>11</v>
       </c>
       <c r="D37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E37" t="s">
-        <v>97</v>
-      </c>
-      <c r="F37" t="s">
-        <v>141</v>
+        <v>118</v>
       </c>
       <c r="G37">
-        <v>9.2899999999999996E-2</v>
+        <v>0.4677</v>
       </c>
       <c r="H37">
-        <v>9.2899999999999996E-2</v>
+        <v>0.93540000000000001</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
@@ -1795,519 +1840,507 @@
         <v>12</v>
       </c>
       <c r="B38" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C38" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D38">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E38" t="s">
-        <v>97</v>
-      </c>
-      <c r="F38" t="s">
-        <v>142</v>
+        <v>119</v>
       </c>
       <c r="G38">
-        <v>5.1499999999999997E-2</v>
+        <v>5.2999999999999999E-2</v>
       </c>
       <c r="H38">
-        <v>5.1499999999999997E-2</v>
+        <v>0.106</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B39" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C39" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D39">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E39" t="s">
-        <v>97</v>
+        <v>106</v>
       </c>
       <c r="F39">
-        <v>0</v>
+        <v>470</v>
       </c>
       <c r="G39">
-        <v>0.01</v>
+        <v>1.2E-2</v>
       </c>
       <c r="H39">
-        <v>0.1</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B40" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C40" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D40">
         <v>1</v>
       </c>
       <c r="E40" t="s">
-        <v>97</v>
+        <v>106</v>
       </c>
       <c r="F40" t="s">
-        <v>143</v>
+        <v>154</v>
       </c>
       <c r="G40">
-        <v>9.5500000000000002E-2</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="H40">
-        <v>9.5500000000000002E-2</v>
+        <v>4.0000000000000001E-3</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B41" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C41" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D41">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E41" t="s">
-        <v>97</v>
-      </c>
-      <c r="F41" t="s">
-        <v>144</v>
+        <v>107</v>
+      </c>
+      <c r="F41">
+        <v>330</v>
       </c>
       <c r="G41">
-        <v>1.2E-2</v>
+        <v>9.1000000000000004E-3</v>
       </c>
       <c r="H41">
-        <v>0.12</v>
+        <v>9.1000000000000004E-3</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B42" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C42" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D42">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E42" t="s">
-        <v>97</v>
-      </c>
-      <c r="F42">
-        <v>100</v>
+        <v>106</v>
+      </c>
+      <c r="F42" t="s">
+        <v>155</v>
       </c>
       <c r="G42">
-        <v>1.2E-2</v>
+        <v>0.1</v>
       </c>
       <c r="H42">
-        <v>0.12</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B43" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C43" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D43">
         <v>1</v>
       </c>
       <c r="E43" t="s">
-        <v>97</v>
-      </c>
-      <c r="F43" t="s">
-        <v>145</v>
+        <v>107</v>
+      </c>
+      <c r="F43">
+        <v>0.05</v>
       </c>
       <c r="G43">
-        <v>6.0999999999999999E-2</v>
+        <v>0.46</v>
       </c>
       <c r="H43">
-        <v>6.0999999999999999E-2</v>
+        <v>0.46</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B44" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C44" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D44">
         <v>1</v>
       </c>
       <c r="E44" t="s">
-        <v>97</v>
+        <v>106</v>
       </c>
       <c r="F44" t="s">
-        <v>146</v>
+        <v>156</v>
       </c>
       <c r="G44">
-        <v>0.1</v>
+        <v>3.0999999999999999E-3</v>
       </c>
       <c r="H44">
-        <v>0.1</v>
+        <v>3.0999999999999999E-3</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B45" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C45" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D45">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E45" t="s">
-        <v>98</v>
-      </c>
-      <c r="F45">
-        <v>2</v>
+        <v>106</v>
+      </c>
+      <c r="F45" t="s">
+        <v>157</v>
       </c>
       <c r="G45">
-        <v>5.0700000000000002E-2</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="H45">
-        <v>5.0700000000000002E-2</v>
+        <v>8.0000000000000002E-3</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B46" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C46" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D46">
         <v>1</v>
       </c>
       <c r="E46" t="s">
-        <v>97</v>
-      </c>
-      <c r="F46">
-        <v>10</v>
+        <v>106</v>
+      </c>
+      <c r="F46" t="s">
+        <v>158</v>
       </c>
       <c r="G46">
-        <v>9.8000000000000004E-2</v>
+        <v>1.6E-2</v>
       </c>
       <c r="H46">
-        <v>9.8000000000000004E-2</v>
+        <v>1.6E-2</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B47" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C47" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D47">
         <v>1</v>
       </c>
       <c r="E47" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="F47" t="s">
-        <v>147</v>
+        <v>159</v>
       </c>
       <c r="G47">
-        <v>0.4461</v>
+        <v>4.0599999999999997E-2</v>
       </c>
       <c r="H47">
-        <v>0.4461</v>
+        <v>4.0599999999999997E-2</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B48" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C48" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D48">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E48" t="s">
-        <v>97</v>
-      </c>
-      <c r="F48" t="s">
-        <v>148</v>
+        <v>106</v>
+      </c>
+      <c r="F48">
+        <v>510</v>
       </c>
       <c r="G48">
-        <v>5.74E-2</v>
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="H48">
-        <v>5.74E-2</v>
+        <v>6.0000000000000001E-3</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B49" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C49" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D49">
         <v>1</v>
       </c>
       <c r="E49" t="s">
-        <v>97</v>
+        <v>110</v>
       </c>
       <c r="F49" t="s">
-        <v>149</v>
+        <v>160</v>
       </c>
       <c r="G49">
-        <v>1.6199999999999999E-2</v>
+        <v>5.1499999999999997E-2</v>
       </c>
       <c r="H49">
-        <v>1.6199999999999999E-2</v>
+        <v>5.1499999999999997E-2</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B50" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C50" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D50">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E50" t="s">
-        <v>97</v>
-      </c>
-      <c r="F50" t="s">
-        <v>150</v>
+        <v>110</v>
+      </c>
+      <c r="F50">
+        <v>0</v>
       </c>
       <c r="G50">
-        <v>4.0000000000000001E-3</v>
+        <v>1.6000000000000001E-3</v>
       </c>
       <c r="H50">
-        <v>4.0000000000000001E-3</v>
+        <v>3.2000000000000002E-3</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B51" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C51" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D51">
         <v>1</v>
       </c>
       <c r="E51" t="s">
-        <v>97</v>
+        <v>110</v>
       </c>
       <c r="F51" t="s">
-        <v>151</v>
+        <v>161</v>
       </c>
       <c r="G51">
-        <v>5.0900000000000001E-2</v>
+        <v>1.1000000000000001E-3</v>
       </c>
       <c r="H51">
-        <v>5.0900000000000001E-2</v>
+        <v>1.1000000000000001E-3</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B52" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C52" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D52">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E52" t="s">
-        <v>97</v>
+        <v>110</v>
       </c>
       <c r="F52" t="s">
-        <v>152</v>
+        <v>162</v>
       </c>
       <c r="G52">
-        <v>9.8000000000000004E-2</v>
+        <v>1.2E-2</v>
       </c>
       <c r="H52">
-        <v>9.8000000000000004E-2</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B53" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C53" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D53">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E53" t="s">
-        <v>97</v>
-      </c>
-      <c r="F53" t="s">
-        <v>153</v>
+        <v>110</v>
+      </c>
+      <c r="F53">
+        <v>100</v>
       </c>
       <c r="G53">
-        <v>9.5899999999999999E-2</v>
+        <v>1.2E-2</v>
       </c>
       <c r="H53">
-        <v>9.5899999999999999E-2</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B54" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C54" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D54">
         <v>1</v>
       </c>
       <c r="E54" t="s">
-        <v>97</v>
+        <v>110</v>
       </c>
       <c r="F54" t="s">
-        <v>154</v>
+        <v>163</v>
       </c>
       <c r="G54">
-        <v>9.8000000000000004E-2</v>
+        <v>4.8999999999999998E-3</v>
       </c>
       <c r="H54">
-        <v>9.8000000000000004E-2</v>
+        <v>4.8999999999999998E-3</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B55" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C55" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D55">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="E55" t="s">
-        <v>97</v>
-      </c>
-      <c r="F55">
-        <v>160</v>
+        <v>110</v>
+      </c>
+      <c r="F55" t="s">
+        <v>159</v>
       </c>
       <c r="G55">
-        <v>4.65E-2</v>
+        <v>1.2999999999999999E-2</v>
       </c>
       <c r="H55">
-        <v>4.65E-2</v>
+        <v>0.13</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B56" t="s">
-        <v>33</v>
-      </c>
-      <c r="C56" t="s">
-        <v>91</v>
+        <v>35</v>
       </c>
       <c r="D56">
         <v>1</v>
       </c>
       <c r="E56" t="s">
-        <v>97</v>
-      </c>
-      <c r="F56">
-        <v>260</v>
-      </c>
-      <c r="G56">
-        <v>9.5899999999999999E-2</v>
-      </c>
-      <c r="H56">
-        <v>9.5899999999999999E-2</v>
+        <v>110</v>
+      </c>
+      <c r="F56" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B57" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C57" t="s">
-        <v>68</v>
+        <v>90</v>
       </c>
       <c r="D57">
         <v>1</v>
       </c>
       <c r="E57" t="s">
-        <v>97</v>
+        <v>108</v>
       </c>
       <c r="F57">
-        <v>470</v>
+        <v>2</v>
       </c>
       <c r="G57">
-        <v>9.8000000000000004E-2</v>
+        <v>1.3100000000000001E-2</v>
       </c>
       <c r="H57">
-        <v>9.8000000000000004E-2</v>
+        <v>1.3100000000000001E-2</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
@@ -2318,99 +2351,111 @@
         <v>35</v>
       </c>
       <c r="C58" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D58">
         <v>1</v>
       </c>
       <c r="E58" t="s">
-        <v>96</v>
-      </c>
-      <c r="F58" t="s">
-        <v>139</v>
+        <v>110</v>
+      </c>
+      <c r="F58">
+        <v>10</v>
       </c>
       <c r="G58">
-        <v>0.252</v>
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="H58">
-        <v>0.252</v>
+        <v>3.0000000000000001E-3</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>14</v>
+        <v>13</v>
+      </c>
+      <c r="B59" t="s">
+        <v>35</v>
       </c>
       <c r="C59" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D59">
         <v>1</v>
       </c>
       <c r="E59" t="s">
-        <v>107</v>
+        <v>108</v>
+      </c>
+      <c r="F59" t="s">
+        <v>165</v>
       </c>
       <c r="G59">
-        <v>7.67</v>
+        <v>0.32300000000000001</v>
       </c>
       <c r="H59">
-        <v>7.67</v>
+        <v>0.32300000000000001</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>15</v>
+        <v>13</v>
+      </c>
+      <c r="B60" t="s">
+        <v>35</v>
       </c>
       <c r="C60" t="s">
-        <v>15</v>
+        <v>93</v>
       </c>
       <c r="D60">
         <v>1</v>
       </c>
       <c r="E60" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="F60" t="s">
-        <v>15</v>
+        <v>166</v>
       </c>
       <c r="G60">
-        <v>6.44</v>
+        <v>5.7700000000000001E-2</v>
       </c>
       <c r="H60">
-        <v>6.44</v>
+        <v>5.7700000000000001E-2</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>16</v>
+        <v>13</v>
+      </c>
+      <c r="B61" t="s">
+        <v>35</v>
       </c>
       <c r="C61" t="s">
-        <v>16</v>
+        <v>94</v>
       </c>
       <c r="D61">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E61" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F61" t="s">
-        <v>117</v>
+        <v>167</v>
       </c>
       <c r="G61">
-        <v>4.2300000000000004</v>
+        <v>1.61E-2</v>
       </c>
       <c r="H61">
-        <v>12.69</v>
+        <v>1.61E-2</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B62" t="s">
         <v>36</v>
       </c>
       <c r="C62" t="s">
-        <v>17</v>
+        <v>95</v>
       </c>
       <c r="D62">
         <v>1</v>
@@ -2418,151 +2463,503 @@
       <c r="E62" t="s">
         <v>110</v>
       </c>
+      <c r="F62" t="s">
+        <v>168</v>
+      </c>
       <c r="G62">
-        <v>0.2301</v>
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="H62">
-        <v>0.2301</v>
+        <v>3.0000000000000001E-3</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="B63" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C63" t="s">
-        <v>18</v>
+        <v>96</v>
       </c>
       <c r="D63">
         <v>1</v>
       </c>
       <c r="E63" t="s">
-        <v>111</v>
+        <v>110</v>
+      </c>
+      <c r="F63" t="s">
+        <v>169</v>
       </c>
       <c r="G63">
-        <v>1.71</v>
+        <v>5.1499999999999997E-2</v>
       </c>
       <c r="H63">
-        <v>1.71</v>
+        <v>5.1499999999999997E-2</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>19</v>
+        <v>13</v>
+      </c>
+      <c r="B64" t="s">
+        <v>36</v>
       </c>
       <c r="C64" t="s">
-        <v>19</v>
+        <v>97</v>
       </c>
       <c r="D64">
         <v>1</v>
       </c>
       <c r="E64" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="F64" t="s">
-        <v>19</v>
+        <v>170</v>
       </c>
       <c r="G64">
-        <v>0.81235999999999997</v>
+        <v>9.8000000000000004E-2</v>
       </c>
       <c r="H64">
-        <v>0.81235999999999997</v>
+        <v>9.8000000000000004E-2</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="B65" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C65" t="s">
-        <v>20</v>
+        <v>98</v>
       </c>
       <c r="D65">
         <v>1</v>
       </c>
       <c r="E65" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="F65" t="s">
-        <v>117</v>
+        <v>171</v>
       </c>
       <c r="G65">
-        <v>2.2999999999999998</v>
+        <v>1.8E-3</v>
       </c>
       <c r="H65">
-        <v>2.2999999999999998</v>
+        <v>1.8E-3</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>21</v>
+        <v>13</v>
+      </c>
+      <c r="B66" t="s">
+        <v>35</v>
       </c>
       <c r="C66" t="s">
-        <v>21</v>
+        <v>99</v>
       </c>
       <c r="D66">
         <v>1</v>
       </c>
       <c r="E66" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="F66" t="s">
-        <v>21</v>
+        <v>156</v>
       </c>
       <c r="G66">
-        <v>1.66</v>
+        <v>9.8000000000000004E-2</v>
       </c>
       <c r="H66">
-        <v>1.66</v>
+        <v>9.8000000000000004E-2</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="B67" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C67" t="s">
-        <v>22</v>
+        <v>100</v>
       </c>
       <c r="D67">
         <v>1</v>
       </c>
       <c r="E67" t="s">
-        <v>115</v>
+        <v>110</v>
+      </c>
+      <c r="F67">
+        <v>160</v>
       </c>
       <c r="G67">
-        <v>2.92</v>
+        <v>4.65E-2</v>
       </c>
       <c r="H67">
-        <v>2.92</v>
+        <v>4.65E-2</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
+        <v>13</v>
+      </c>
+      <c r="B68" t="s">
+        <v>35</v>
+      </c>
+      <c r="C68" t="s">
+        <v>101</v>
+      </c>
+      <c r="D68">
+        <v>1</v>
+      </c>
+      <c r="E68" t="s">
+        <v>110</v>
+      </c>
+      <c r="F68">
+        <v>260</v>
+      </c>
+      <c r="G68">
+        <v>0.1</v>
+      </c>
+      <c r="H68">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>13</v>
+      </c>
+      <c r="B69" t="s">
+        <v>35</v>
+      </c>
+      <c r="C69" t="s">
+        <v>73</v>
+      </c>
+      <c r="D69">
+        <v>1</v>
+      </c>
+      <c r="E69" t="s">
+        <v>110</v>
+      </c>
+      <c r="F69">
+        <v>470</v>
+      </c>
+      <c r="G69">
+        <v>9.8000000000000004E-2</v>
+      </c>
+      <c r="H69">
+        <v>9.8000000000000004E-2</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>13</v>
+      </c>
+      <c r="B70" t="s">
+        <v>35</v>
+      </c>
+      <c r="C70" t="s">
+        <v>102</v>
+      </c>
+      <c r="D70">
+        <v>1</v>
+      </c>
+      <c r="E70" t="s">
+        <v>110</v>
+      </c>
+      <c r="F70" t="s">
+        <v>172</v>
+      </c>
+      <c r="G70">
+        <v>0.1</v>
+      </c>
+      <c r="H70">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>14</v>
+      </c>
+      <c r="B71" t="s">
+        <v>37</v>
+      </c>
+      <c r="C71" t="s">
+        <v>103</v>
+      </c>
+      <c r="D71">
+        <v>1</v>
+      </c>
+      <c r="E71" t="s">
+        <v>106</v>
+      </c>
+      <c r="F71" t="s">
+        <v>159</v>
+      </c>
+      <c r="G71">
+        <v>0.26100000000000001</v>
+      </c>
+      <c r="H71">
+        <v>0.26100000000000001</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>15</v>
+      </c>
+      <c r="B72" t="s">
+        <v>30</v>
+      </c>
+      <c r="C72" t="s">
+        <v>15</v>
+      </c>
+      <c r="D72">
+        <v>1</v>
+      </c>
+      <c r="E72" t="s">
+        <v>120</v>
+      </c>
+      <c r="G72">
+        <v>1.01</v>
+      </c>
+      <c r="H72">
+        <v>1.01</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>16</v>
+      </c>
+      <c r="C73" t="s">
+        <v>16</v>
+      </c>
+      <c r="D73">
+        <v>1</v>
+      </c>
+      <c r="E73" t="s">
+        <v>121</v>
+      </c>
+      <c r="F73" t="s">
+        <v>16</v>
+      </c>
+      <c r="G73">
+        <v>3.63</v>
+      </c>
+      <c r="H73">
+        <v>3.63</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>17</v>
+      </c>
+      <c r="C74" t="s">
+        <v>17</v>
+      </c>
+      <c r="D74">
+        <v>3</v>
+      </c>
+      <c r="E74" t="s">
+        <v>122</v>
+      </c>
+      <c r="F74" t="s">
+        <v>131</v>
+      </c>
+      <c r="G74">
+        <v>4.03</v>
+      </c>
+      <c r="H74">
+        <v>12.09</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>18</v>
+      </c>
+      <c r="C75" t="s">
+        <v>18</v>
+      </c>
+      <c r="D75">
+        <v>1</v>
+      </c>
+      <c r="E75" t="s">
+        <v>123</v>
+      </c>
+      <c r="F75" t="s">
+        <v>18</v>
+      </c>
+      <c r="G75">
+        <v>0.99317999999999995</v>
+      </c>
+      <c r="H75">
+        <v>0.99317999999999995</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>19</v>
+      </c>
+      <c r="C76" t="s">
+        <v>19</v>
+      </c>
+      <c r="D76">
+        <v>1</v>
+      </c>
+      <c r="E76" t="s">
+        <v>124</v>
+      </c>
+      <c r="F76" t="s">
+        <v>19</v>
+      </c>
+      <c r="G76">
+        <v>1.66</v>
+      </c>
+      <c r="H76">
+        <v>1.66</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>20</v>
+      </c>
+      <c r="B77" t="s">
+        <v>30</v>
+      </c>
+      <c r="C77" t="s">
+        <v>20</v>
+      </c>
+      <c r="D77">
+        <v>1</v>
+      </c>
+      <c r="E77" t="s">
+        <v>125</v>
+      </c>
+      <c r="F77" t="s">
+        <v>131</v>
+      </c>
+      <c r="G77">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="H77">
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>21</v>
+      </c>
+      <c r="B78" t="s">
+        <v>30</v>
+      </c>
+      <c r="C78" t="s">
+        <v>21</v>
+      </c>
+      <c r="D78">
+        <v>1</v>
+      </c>
+      <c r="E78" t="s">
+        <v>126</v>
+      </c>
+      <c r="G78">
+        <v>0.2301</v>
+      </c>
+      <c r="H78">
+        <v>0.2301</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>22</v>
+      </c>
+      <c r="B79" t="s">
+        <v>38</v>
+      </c>
+      <c r="C79" t="s">
+        <v>22</v>
+      </c>
+      <c r="D79">
+        <v>1</v>
+      </c>
+      <c r="E79" t="s">
+        <v>127</v>
+      </c>
+      <c r="G79">
+        <v>1.79</v>
+      </c>
+      <c r="H79">
+        <v>1.79</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
         <v>23</v>
       </c>
-      <c r="B68" t="s">
+      <c r="B80" t="s">
         <v>39</v>
       </c>
-      <c r="C68" t="s">
+      <c r="C80" t="s">
         <v>23</v>
       </c>
-      <c r="D68">
-        <v>1</v>
-      </c>
-      <c r="E68" t="s">
-        <v>116</v>
-      </c>
-      <c r="G68">
+      <c r="D80">
+        <v>1</v>
+      </c>
+      <c r="E80" t="s">
+        <v>128</v>
+      </c>
+      <c r="G80">
+        <v>0.75</v>
+      </c>
+      <c r="H80">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>24</v>
+      </c>
+      <c r="B81" t="s">
+        <v>40</v>
+      </c>
+      <c r="C81" t="s">
+        <v>24</v>
+      </c>
+      <c r="D81">
+        <v>1</v>
+      </c>
+      <c r="E81" t="s">
+        <v>129</v>
+      </c>
+      <c r="G81">
+        <v>2.92</v>
+      </c>
+      <c r="H81">
+        <v>2.92</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>25</v>
+      </c>
+      <c r="B82" t="s">
+        <v>41</v>
+      </c>
+      <c r="C82" t="s">
+        <v>25</v>
+      </c>
+      <c r="D82">
+        <v>1</v>
+      </c>
+      <c r="E82" t="s">
+        <v>130</v>
+      </c>
+      <c r="G82">
         <v>0.9</v>
       </c>
-      <c r="H68">
+      <c r="H82">
         <v>0.9</v>
       </c>
     </row>
